--- a/Coursework 2/Solution/CSCM38 Project Results.xlsx
+++ b/Coursework 2/Solution/CSCM38 Project Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy/Developer/Swansea Uni/CDT/Semester 1/CSCM38 - Adv Topic - Artificial Intelligence and Cyber Securit/CSCM38-Adv_Topics-Cyber_Security_and_Ai/Coursework 2/Solution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6F86C-29D4-FA47-AB78-84589E191A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF4234-1803-DE4F-9D8F-5C4C5F12E579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{83EAFBD7-B7F8-D841-98EB-290906A5C83F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="28800" xr2:uid="{83EAFBD7-B7F8-D841-98EB-290906A5C83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="15">
   <si>
     <t>LSTM</t>
   </si>
@@ -74,12 +74,18 @@
   <si>
     <t>GRU</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>3 x Hidden Layers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +106,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Var(--vscode-editor-font-family"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,16 +184,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,46 +520,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69EC4D6-F311-1F4C-B58D-D96E84AF4738}">
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="K95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P116" sqref="P116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:25" ht="34">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -547,7 +586,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>64</v>
       </c>
@@ -578,7 +617,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -649,7 +688,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -676,7 +715,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -715,7 +754,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>222</v>
@@ -724,7 +763,10 @@
         <v>705</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="8">
+        <f>(B6+C7)/(B6+C6+B7+C7)</f>
+        <v>0.76760843613211305</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -741,7 +783,10 @@
         <v>740</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="8">
+        <f>(O6+P7)/(O6+P6+O7+P7)</f>
+        <v>0.76482292081177872</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -750,7 +795,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -777,24 +822,39 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="C9" s="6">
+        <v>2.0199999999999999E-2</v>
+      </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
+      <c r="E9">
+        <v>0.98770000000000002</v>
+      </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
+      <c r="G9">
+        <v>1.7728999999999999</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
+      <c r="I9">
+        <v>0.75290000000000001</v>
+      </c>
       <c r="J9" t="s">
         <v>6</v>
+      </c>
+      <c r="K9">
+        <v>42.72</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -804,26 +864,36 @@
       <c r="O9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>1.95E-2</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1">
+        <v>0.98919999999999997</v>
+      </c>
       <c r="S9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1">
+        <v>1.7415</v>
+      </c>
       <c r="U9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="1"/>
+      <c r="V9" s="1">
+        <v>0.76570000000000005</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X9" s="1"/>
+      <c r="X9" s="1">
+        <v>43.39</v>
+      </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -850,12 +920,16 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C11" s="1">
+        <v>302</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -869,8 +943,12 @@
       <c r="N11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1">
+        <v>1137</v>
+      </c>
+      <c r="P11" s="1">
+        <v>304</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -881,12 +959,19 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="21">
       <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="7">
+        <v>266</v>
+      </c>
+      <c r="C12" s="1">
+        <v>765</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="8">
+        <f>(B11+C12)/(B11+C11+B12+C12)</f>
+        <v>0.77397532829287707</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -896,10 +981,17 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="1">
+        <v>309</v>
+      </c>
+      <c r="P12" s="1">
+        <v>763</v>
+      </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="8">
+        <f>(O11+P12)/(O11+P11+O12+P12)</f>
+        <v>0.75606844409072826</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -908,7 +1000,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -935,24 +1027,39 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
+      <c r="C14" s="6">
+        <v>2.0899999999999998E-2</v>
+      </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
+      <c r="E14">
+        <v>0.98750000000000004</v>
+      </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
+      <c r="G14">
+        <v>1.7770999999999999</v>
+      </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
+      <c r="I14">
+        <v>0.76370000000000005</v>
+      </c>
       <c r="J14" t="s">
         <v>6</v>
+      </c>
+      <c r="K14">
+        <v>36.78</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -962,26 +1069,36 @@
       <c r="O14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
       <c r="Q14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.98919999999999997</v>
+      </c>
       <c r="S14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1">
+        <v>1.8113999999999999</v>
+      </c>
       <c r="U14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <v>0.75980000000000003</v>
+      </c>
       <c r="W14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X14" s="1"/>
+      <c r="X14" s="1">
+        <v>38.229999999999997</v>
+      </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1008,12 +1125,16 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C16" s="1">
+        <v>341</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1027,8 +1148,12 @@
       <c r="N16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="1">
+        <v>1158</v>
+      </c>
+      <c r="P16" s="1">
+        <v>300</v>
+      </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -1039,12 +1164,19 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1">
+        <v>234</v>
+      </c>
+      <c r="C17" s="1">
+        <v>726</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="8">
+        <f>(B16+C17)/(B16+C16+B17+C17)</f>
+        <v>0.77118981297254274</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1054,10 +1186,17 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="1">
+        <v>288</v>
+      </c>
+      <c r="P17" s="1">
+        <v>767</v>
+      </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="8">
+        <f>(O16+P17)/(O16+P16+O17+P17)</f>
+        <v>0.76601671309192199</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1066,7 +1205,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1093,24 +1232,39 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
+      <c r="C19" s="6">
+        <v>2.2100000000000002E-2</v>
+      </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
+      <c r="E19">
+        <v>0.98629999999999995</v>
+      </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
+      <c r="G19">
+        <v>1.5764</v>
+      </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
+      <c r="I19">
+        <v>0.74019999999999997</v>
+      </c>
       <c r="J19" t="s">
         <v>6</v>
+      </c>
+      <c r="K19">
+        <v>39.99</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1120,26 +1274,36 @@
       <c r="O19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
       <c r="Q19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1">
+        <v>0.98899999999999999</v>
+      </c>
       <c r="S19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1">
+        <v>1.6449</v>
+      </c>
       <c r="U19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V19" s="1"/>
+      <c r="V19" s="1">
+        <v>0.76370000000000005</v>
+      </c>
       <c r="W19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X19" s="1"/>
+      <c r="X19" s="1">
+        <v>34.340000000000003</v>
+      </c>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1166,12 +1330,16 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1">
+        <v>1084</v>
+      </c>
+      <c r="C21" s="1">
+        <v>263</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1185,8 +1353,12 @@
       <c r="N21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="1">
+        <v>1187</v>
+      </c>
+      <c r="P21" s="1">
+        <v>323</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -1197,12 +1369,19 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1">
+        <v>362</v>
+      </c>
+      <c r="C22" s="1">
+        <v>804</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="8">
+        <f>(B21+C22)/(B21+C21+B22+C22)</f>
+        <v>0.75129327497015519</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1212,10 +1391,17 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="1">
+        <v>259</v>
+      </c>
+      <c r="P22" s="1">
+        <v>744</v>
+      </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="8">
+        <f>(O21+P22)/(O21+P21+O22+P22)</f>
+        <v>0.76840429765220852</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -1224,7 +1410,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1251,24 +1437,39 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
+      <c r="C24" s="6">
+        <v>2.06E-2</v>
+      </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
+      <c r="E24">
+        <v>0.98870000000000002</v>
+      </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
+      <c r="G24">
+        <v>1.7019</v>
+      </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
+      <c r="I24">
+        <v>0.75590000000000002</v>
+      </c>
       <c r="J24" t="s">
         <v>6</v>
+      </c>
+      <c r="K24">
+        <v>33.549999999999997</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1278,26 +1479,36 @@
       <c r="O24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
       <c r="Q24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1">
+        <v>0.98729999999999996</v>
+      </c>
       <c r="S24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="1"/>
+      <c r="T24" s="1">
+        <v>1.5162</v>
+      </c>
       <c r="U24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V24" s="1"/>
+      <c r="V24" s="1">
+        <v>0.77349999999999997</v>
+      </c>
       <c r="W24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X24" s="1"/>
+      <c r="X24" s="1">
+        <v>34.130000000000003</v>
+      </c>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1324,12 +1535,16 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1">
+        <v>1135</v>
+      </c>
+      <c r="C26" s="1">
+        <v>281</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1343,8 +1558,12 @@
       <c r="N26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="1">
+        <v>1207</v>
+      </c>
+      <c r="P26" s="1">
+        <v>323</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -1355,12 +1574,19 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1">
+        <v>311</v>
+      </c>
+      <c r="C27" s="1">
+        <v>786</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="8">
+        <f>(B26+C27)/(B26+C26+B27+C27)</f>
+        <v>0.76442499005173103</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1370,10 +1596,17 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="O27" s="1">
+        <v>239</v>
+      </c>
+      <c r="P27" s="1">
+        <v>744</v>
+      </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="8">
+        <f>(O26+P27)/(O26+P26+O27+P27)</f>
+        <v>0.7763629128531635</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -1382,7 +1615,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1409,34 +1642,68 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:25">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <f>AVERAGE(C4,C9,C14,C19,C24)</f>
+        <v>2.358E-2</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <f>AVERAGE(E4,E9,E14,E19,E24)</f>
+        <v>0.98709999999999987</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <f>AVERAGE(G4,G9,G14,G19,G24)</f>
+        <v>1.5578599999999998</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <f>AVERAGE(I4,I9,I14,I19,I24)</f>
+        <v>0.75450000000000006</v>
+      </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3">
+        <f>AVERAGE(K4,K9,K14,K19,K24)</f>
+        <v>35.875999999999998</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3">
+        <f>AVERAGE(P4,P9,P14,P19,P24)</f>
+        <v>1.9939999999999999E-2</v>
+      </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3">
+        <f>AVERAGE(R4,R9,R14,R19,R24)</f>
+        <v>0.98840000000000006</v>
+      </c>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="3">
+        <f>AVERAGE(T4,T9,T14,T19,T24)</f>
+        <v>1.5842800000000001</v>
+      </c>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="V29" s="3">
+        <f>AVERAGE(V4,V9,V14,V19,V24)</f>
+        <v>0.76645999999999992</v>
+      </c>
       <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
+      <c r="X29" s="3">
+        <f>AVERAGE(X4,X9,X14,X19,X24)</f>
+        <v>36.503999999999998</v>
+      </c>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1463,7 +1730,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1490,7 +1757,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1517,7 +1784,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1544,7 +1811,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1571,7 +1838,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="2">
         <v>128</v>
       </c>
@@ -1602,7 +1869,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1940,7 @@
       </c>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1700,7 +1967,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +2006,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="4"/>
       <c r="B39" s="1">
         <v>246</v>
@@ -1748,7 +2015,10 @@
         <v>731</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="8">
+        <f>(B38+C39)/(B38+C38+B39+C39)</f>
+        <v>0.76840429765220852</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1765,7 +2035,10 @@
         <v>802</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
+      <c r="R39" s="8">
+        <f>(O38+P39)/(O38+P38+O39+P39)</f>
+        <v>0.75368085953044173</v>
+      </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -1774,7 +2047,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1801,24 +2074,39 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
+      <c r="C41" s="6">
+        <v>2.1700000000000001E-2</v>
+      </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
+      <c r="E41">
+        <v>0.98729999999999996</v>
+      </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
+      <c r="G41">
+        <v>1.4873000000000001</v>
+      </c>
       <c r="H41" t="s">
         <v>5</v>
       </c>
+      <c r="I41">
+        <v>0.76670000000000005</v>
+      </c>
       <c r="J41" t="s">
         <v>6</v>
+      </c>
+      <c r="K41">
+        <v>51.06</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1828,21 +2116,36 @@
       <c r="O41" t="s">
         <v>2</v>
       </c>
+      <c r="P41" s="6">
+        <v>1.89E-2</v>
+      </c>
       <c r="Q41" t="s">
         <v>3</v>
       </c>
+      <c r="R41">
+        <v>0.98770000000000002</v>
+      </c>
       <c r="S41" t="s">
         <v>4</v>
       </c>
+      <c r="T41">
+        <v>1.7793000000000001</v>
+      </c>
       <c r="U41" t="s">
         <v>5</v>
       </c>
+      <c r="V41">
+        <v>0.77549999999999997</v>
+      </c>
       <c r="W41" t="s">
         <v>6</v>
       </c>
+      <c r="X41">
+        <v>46.91</v>
+      </c>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1869,12 +2172,16 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1">
+        <v>1194</v>
+      </c>
+      <c r="C43" s="1">
+        <v>326</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1888,8 +2195,12 @@
       <c r="N43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="1">
+        <v>1190</v>
+      </c>
+      <c r="P43" s="1">
+        <v>315</v>
+      </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
@@ -1900,12 +2211,19 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1">
+        <v>252</v>
+      </c>
+      <c r="C44" s="1">
+        <v>741</v>
+      </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="8">
+        <f>(B43+C44)/(B43+C43+B44+C44)</f>
+        <v>0.76999602069239947</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1915,10 +2233,17 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="O44" s="1">
+        <v>256</v>
+      </c>
+      <c r="P44" s="1">
+        <v>752</v>
+      </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
+      <c r="R44" s="8">
+        <f>(O43+P44)/(O43+P43+O44+P44)</f>
+        <v>0.77278153601273381</v>
+      </c>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -1927,7 +2252,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1954,24 +2279,39 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
+      <c r="C46" s="6">
+        <v>3.4599999999999999E-2</v>
+      </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
+      <c r="E46">
+        <v>0.98499999999999999</v>
+      </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
+      <c r="G46">
+        <v>1.3564000000000001</v>
+      </c>
       <c r="H46" t="s">
         <v>5</v>
       </c>
+      <c r="I46">
+        <v>0.75390000000000001</v>
+      </c>
       <c r="J46" t="s">
         <v>6</v>
+      </c>
+      <c r="K46">
+        <v>48.78</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1981,21 +2321,36 @@
       <c r="O46" t="s">
         <v>2</v>
       </c>
+      <c r="P46" s="6">
+        <v>2.29E-2</v>
+      </c>
       <c r="Q46" t="s">
         <v>3</v>
       </c>
+      <c r="R46">
+        <v>0.98799999999999999</v>
+      </c>
       <c r="S46" t="s">
         <v>4</v>
       </c>
+      <c r="T46">
+        <v>1.2047000000000001</v>
+      </c>
       <c r="U46" t="s">
         <v>5</v>
       </c>
+      <c r="V46">
+        <v>0.75590000000000002</v>
+      </c>
       <c r="W46" t="s">
         <v>6</v>
       </c>
+      <c r="X46">
+        <v>46.28</v>
+      </c>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2022,12 +2377,16 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1">
+        <v>1142</v>
+      </c>
+      <c r="C48" s="1">
+        <v>309</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2041,8 +2400,12 @@
       <c r="N48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="1">
+        <v>1195</v>
+      </c>
+      <c r="P48" s="1">
+        <v>312</v>
+      </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
@@ -2053,12 +2416,19 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25">
       <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1">
+        <v>304</v>
+      </c>
+      <c r="C49" s="1">
+        <v>758</v>
+      </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="8">
+        <f>(B48+C49)/(B48+C48+B49+C49)</f>
+        <v>0.75606844409072826</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2068,10 +2438,17 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="O49" s="1">
+        <v>251</v>
+      </c>
+      <c r="P49" s="1">
+        <v>755</v>
+      </c>
       <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
+      <c r="R49" s="8">
+        <f>(O48+P49)/(O48+P48+O49+P49)</f>
+        <v>0.77596498209311582</v>
+      </c>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
@@ -2080,7 +2457,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2107,24 +2484,39 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
+      <c r="C51" s="6">
+        <v>2.1600000000000001E-2</v>
+      </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
+      <c r="E51">
+        <v>0.98799999999999999</v>
+      </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
+      <c r="G51">
+        <v>1.538</v>
+      </c>
       <c r="H51" t="s">
         <v>5</v>
       </c>
+      <c r="I51">
+        <v>0.76959999999999995</v>
+      </c>
       <c r="J51" t="s">
         <v>6</v>
+      </c>
+      <c r="K51">
+        <v>43.07</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2134,21 +2526,36 @@
       <c r="O51" t="s">
         <v>2</v>
       </c>
+      <c r="P51" s="6">
+        <v>1.9300000000000001E-2</v>
+      </c>
       <c r="Q51" t="s">
         <v>3</v>
       </c>
+      <c r="R51">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="S51" t="s">
         <v>4</v>
       </c>
+      <c r="T51">
+        <v>1.6247</v>
+      </c>
       <c r="U51" t="s">
         <v>5</v>
       </c>
+      <c r="V51">
+        <v>0.75980000000000003</v>
+      </c>
       <c r="W51" t="s">
         <v>6</v>
       </c>
+      <c r="X51">
+        <v>40.44</v>
+      </c>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2175,12 +2582,16 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1">
+        <v>1213</v>
+      </c>
+      <c r="C53" s="1">
+        <v>335</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2194,8 +2605,12 @@
       <c r="N53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="O53" s="1">
+        <v>1191</v>
+      </c>
+      <c r="P53" s="1">
+        <v>308</v>
+      </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
@@ -2206,12 +2621,19 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25">
       <c r="A54" s="4"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1">
+        <v>233</v>
+      </c>
+      <c r="C54" s="1">
+        <v>732</v>
+      </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="8">
+        <f>(B53+C54)/(B53+C53+B54+C54)</f>
+        <v>0.77397532829287707</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2221,10 +2643,17 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="O54" s="1">
+        <v>255</v>
+      </c>
+      <c r="P54" s="1">
+        <v>759</v>
+      </c>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="8">
+        <f>(O53+P54)/(O53+P53+O54+P54)</f>
+        <v>0.77596498209311582</v>
+      </c>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
@@ -2233,7 +2662,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2260,24 +2689,39 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
+      <c r="C56" s="6">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
+      <c r="E56">
+        <v>0.98409999999999997</v>
+      </c>
       <c r="F56" t="s">
         <v>4</v>
       </c>
+      <c r="G56">
+        <v>1.1869000000000001</v>
+      </c>
       <c r="H56" t="s">
         <v>5</v>
       </c>
+      <c r="I56">
+        <v>0.74219999999999997</v>
+      </c>
       <c r="J56" t="s">
         <v>6</v>
+      </c>
+      <c r="K56">
+        <v>42.76</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2287,21 +2731,36 @@
       <c r="O56" t="s">
         <v>2</v>
       </c>
+      <c r="P56" s="6">
+        <v>2.07E-2</v>
+      </c>
       <c r="Q56" t="s">
         <v>3</v>
       </c>
+      <c r="R56">
+        <v>0.98850000000000005</v>
+      </c>
       <c r="S56" t="s">
         <v>4</v>
       </c>
+      <c r="T56">
+        <v>1.6922999999999999</v>
+      </c>
       <c r="U56" t="s">
         <v>5</v>
       </c>
+      <c r="V56">
+        <v>0.76759999999999995</v>
+      </c>
       <c r="W56" t="s">
         <v>6</v>
       </c>
+      <c r="X56">
+        <v>39.44</v>
+      </c>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2328,12 +2787,16 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1">
+        <v>1141</v>
+      </c>
+      <c r="C58" s="1">
+        <v>293</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2347,8 +2810,12 @@
       <c r="N58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="O58" s="1">
+        <v>1198</v>
+      </c>
+      <c r="P58" s="1">
+        <v>319</v>
+      </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
@@ -2359,12 +2826,19 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25">
       <c r="A59" s="4"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="1">
+        <v>305</v>
+      </c>
+      <c r="C59" s="1">
+        <v>774</v>
+      </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="8">
+        <f>(B58+C59)/(B58+C58+B59+C59)</f>
+        <v>0.7620374054914445</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -2374,10 +2848,17 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="O59" s="1">
+        <v>248</v>
+      </c>
+      <c r="P59" s="1">
+        <v>748</v>
+      </c>
       <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="R59" s="8">
+        <f>(O58+P59)/(O58+P58+O59+P59)</f>
+        <v>0.77437325905292476</v>
+      </c>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
@@ -2386,7 +2867,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2413,34 +2894,68 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+    <row r="61" spans="1:25">
+      <c r="A61" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3">
+        <f>AVERAGE(C36,C41,C46,C51,C56)</f>
+        <v>2.7880000000000005E-2</v>
+      </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3">
+        <f>AVERAGE(E36,E41,E46,E51,E56)</f>
+        <v>0.98583999999999994</v>
+      </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3">
+        <f>AVERAGE(G36,G41,G46,G51,G56)</f>
+        <v>1.4497</v>
+      </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3">
+        <f>AVERAGE(I36,I41,I46,I51,I56)</f>
+        <v>0.75863999999999998</v>
+      </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="3">
+        <f>AVERAGE(K36,K41,K46,K51,K56)</f>
+        <v>44.891999999999996</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="N61" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="3">
+        <f>AVERAGE(P36,P41,P46,P51,P56)</f>
+        <v>2.1539999999999997E-2</v>
+      </c>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="3">
+        <f>AVERAGE(R36,R41,R46,R51,R56)</f>
+        <v>0.98729999999999996</v>
+      </c>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="T61" s="3">
+        <f>AVERAGE(T36,T41,T46,T51,T56)</f>
+        <v>1.4452400000000001</v>
+      </c>
       <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
+      <c r="V61" s="3">
+        <f>AVERAGE(V36,V41,V46,V51,V56)</f>
+        <v>0.76430000000000009</v>
+      </c>
       <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
+      <c r="X61" s="3">
+        <f>AVERAGE(X36,X41,X46,X51,X56)</f>
+        <v>42.415999999999997</v>
+      </c>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2467,7 +2982,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2494,7 +3009,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2521,7 +3036,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2548,7 +3063,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2575,7 +3090,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2602,7 +3117,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25">
       <c r="A68" s="2">
         <v>32</v>
       </c>
@@ -2633,7 +3148,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2704,7 +3219,7 @@
       </c>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2731,7 +3246,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +3285,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25">
       <c r="A72" s="4"/>
       <c r="B72" s="1">
         <v>223</v>
@@ -2779,7 +3294,10 @@
         <v>733</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="8">
+        <f>(B71+C72)/(B71+C71+B72+C72)</f>
+        <v>0.77835256665340236</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -2796,7 +3314,10 @@
         <v>745</v>
       </c>
       <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
+      <c r="R72" s="8">
+        <f>(O71+P72)/(O71+P71+O72+P72)</f>
+        <v>0.77556705133306802</v>
+      </c>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
@@ -2805,7 +3326,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2832,24 +3353,39 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="21">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
+      <c r="C74">
+        <v>2.24E-2</v>
+      </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
+      <c r="E74">
+        <v>0.98499999999999999</v>
+      </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
+      <c r="G74">
+        <v>1.4231</v>
+      </c>
       <c r="H74" t="s">
         <v>5</v>
       </c>
+      <c r="I74">
+        <v>0.76270000000000004</v>
+      </c>
       <c r="J74" t="s">
         <v>6</v>
+      </c>
+      <c r="K74">
+        <v>30.74</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2859,21 +3395,36 @@
       <c r="O74" t="s">
         <v>2</v>
       </c>
+      <c r="P74" s="5">
+        <v>2.1899999999999999E-2</v>
+      </c>
       <c r="Q74" t="s">
         <v>3</v>
       </c>
+      <c r="R74">
+        <v>0.98770000000000002</v>
+      </c>
       <c r="S74" t="s">
         <v>4</v>
       </c>
+      <c r="T74">
+        <v>1.2687999999999999</v>
+      </c>
       <c r="U74" t="s">
         <v>5</v>
       </c>
+      <c r="V74">
+        <v>0.77059999999999995</v>
+      </c>
       <c r="W74" t="s">
         <v>6</v>
       </c>
+      <c r="X74">
+        <v>30.87</v>
+      </c>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2900,12 +3451,16 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1">
+        <v>1218</v>
+      </c>
+      <c r="C76" s="1">
+        <v>348</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -2919,8 +3474,12 @@
       <c r="N76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="O76" s="1">
+        <v>1159</v>
+      </c>
+      <c r="P76" s="1">
+        <v>305</v>
+      </c>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
@@ -2931,12 +3490,19 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25">
       <c r="A77" s="4"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="1">
+        <v>228</v>
+      </c>
+      <c r="C77" s="1">
+        <v>719</v>
+      </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="8">
+        <f>(B76+C77)/(B76+C76+B77+C77)</f>
+        <v>0.77079188221249506</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -2946,10 +3512,17 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="4"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="O77" s="1">
+        <v>287</v>
+      </c>
+      <c r="P77" s="1">
+        <v>762</v>
+      </c>
       <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
+      <c r="R77" s="8">
+        <f>(O76+P77)/(O76+P76+O77+P77)</f>
+        <v>0.76442499005173103</v>
+      </c>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -2958,7 +3531,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2985,24 +3558,39 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
       </c>
+      <c r="C79" s="6">
+        <v>2.2200000000000001E-2</v>
+      </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
+      <c r="E79">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
+      <c r="G79">
+        <v>1.6082000000000001</v>
+      </c>
       <c r="H79" t="s">
         <v>5</v>
       </c>
+      <c r="I79">
+        <v>0.74709999999999999</v>
+      </c>
       <c r="J79" t="s">
         <v>6</v>
+      </c>
+      <c r="K79">
+        <v>34.46</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3012,21 +3600,33 @@
       <c r="O79" t="s">
         <v>2</v>
       </c>
+      <c r="P79">
+        <v>1.95E-2</v>
+      </c>
       <c r="Q79" t="s">
         <v>3</v>
       </c>
+      <c r="R79">
+        <v>0.98729999999999996</v>
+      </c>
       <c r="S79" t="s">
         <v>4</v>
       </c>
+      <c r="T79">
+        <v>1.3013999999999999</v>
+      </c>
       <c r="U79" t="s">
         <v>5</v>
       </c>
       <c r="W79" t="s">
         <v>6</v>
       </c>
+      <c r="X79">
+        <v>35.119999999999997</v>
+      </c>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3053,12 +3653,16 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1">
+        <v>1139</v>
+      </c>
+      <c r="C81" s="1">
+        <v>309</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3072,8 +3676,12 @@
       <c r="N81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="O81" s="1">
+        <v>1133</v>
+      </c>
+      <c r="P81" s="1">
+        <v>295</v>
+      </c>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
@@ -3084,12 +3692,19 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25">
       <c r="A82" s="4"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="1">
+        <v>307</v>
+      </c>
+      <c r="C82" s="1">
+        <v>758</v>
+      </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="8">
+        <f>(B81+C82)/(B81+C81+B82+C82)</f>
+        <v>0.754874651810585</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -3099,10 +3714,17 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="4"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="O82" s="1">
+        <v>313</v>
+      </c>
+      <c r="P82" s="1">
+        <v>772</v>
+      </c>
       <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
+      <c r="R82" s="8">
+        <f>(O81+P82)/(O81+P81+O82+P82)</f>
+        <v>0.75805809789096701</v>
+      </c>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
@@ -3111,7 +3733,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3138,24 +3760,39 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
       </c>
+      <c r="C84" s="6">
+        <v>2.06E-2</v>
+      </c>
       <c r="D84" t="s">
         <v>3</v>
       </c>
+      <c r="E84">
+        <v>0.98770000000000002</v>
+      </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
+      <c r="G84">
+        <v>1.4517</v>
+      </c>
       <c r="H84" t="s">
         <v>5</v>
       </c>
+      <c r="I84">
+        <v>0.76270000000000004</v>
+      </c>
       <c r="J84" t="s">
         <v>6</v>
+      </c>
+      <c r="K84">
+        <v>28.09</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -3165,21 +3802,36 @@
       <c r="O84" t="s">
         <v>2</v>
       </c>
+      <c r="P84">
+        <v>1.9800000000000002E-2</v>
+      </c>
       <c r="Q84" t="s">
         <v>3</v>
       </c>
+      <c r="R84">
+        <v>0.98550000000000004</v>
+      </c>
       <c r="S84" t="s">
         <v>4</v>
       </c>
+      <c r="T84">
+        <v>1.3010999999999999</v>
+      </c>
       <c r="U84" t="s">
         <v>5</v>
       </c>
+      <c r="V84">
+        <v>0.75490000000000002</v>
+      </c>
       <c r="W84" t="s">
         <v>6</v>
       </c>
+      <c r="X84">
+        <v>33.86</v>
+      </c>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3206,12 +3858,16 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="1">
+        <v>1237</v>
+      </c>
+      <c r="C86" s="1">
+        <v>345</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3225,8 +3881,12 @@
       <c r="N86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="O86" s="1">
+        <v>1154</v>
+      </c>
+      <c r="P86" s="1">
+        <v>303</v>
+      </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
@@ -3237,12 +3897,19 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25">
       <c r="A87" s="4"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="1">
+        <v>209</v>
+      </c>
+      <c r="C87" s="1">
+        <v>722</v>
+      </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="8">
+        <f>(B86+C87)/(B86+C86+B87+C87)</f>
+        <v>0.77954635893354551</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -3252,10 +3919,17 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="4"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
+      <c r="O87" s="1">
+        <v>292</v>
+      </c>
+      <c r="P87" s="1">
+        <v>764</v>
+      </c>
       <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
+      <c r="R87" s="8">
+        <f>(O86+P87)/(O86+P86+O87+P87)</f>
+        <v>0.76323119777158777</v>
+      </c>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
@@ -3264,7 +3938,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3291,24 +3965,39 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
       </c>
+      <c r="C89" s="6">
+        <v>1.95E-2</v>
+      </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
+      <c r="E89">
+        <v>0.98919999999999997</v>
+      </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
+      <c r="G89">
+        <v>1.7196</v>
+      </c>
       <c r="H89" t="s">
         <v>5</v>
       </c>
+      <c r="I89">
+        <v>0.76470000000000005</v>
+      </c>
       <c r="J89" t="s">
         <v>6</v>
+      </c>
+      <c r="K89">
+        <v>28.63</v>
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -3318,21 +4007,36 @@
       <c r="O89" t="s">
         <v>2</v>
       </c>
+      <c r="P89" s="6">
+        <v>2.07E-2</v>
+      </c>
       <c r="Q89" t="s">
         <v>3</v>
       </c>
+      <c r="R89">
+        <v>0.98650000000000004</v>
+      </c>
       <c r="S89" t="s">
         <v>4</v>
       </c>
+      <c r="T89">
+        <v>1.1791</v>
+      </c>
       <c r="U89" t="s">
         <v>5</v>
       </c>
+      <c r="V89">
+        <v>0.76370000000000005</v>
+      </c>
       <c r="W89" t="s">
         <v>6</v>
       </c>
+      <c r="X89">
+        <v>31.44</v>
+      </c>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3359,12 +4063,16 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C91" s="1">
+        <v>316</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -3378,8 +4086,12 @@
       <c r="N91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="O91" s="1">
+        <v>1225</v>
+      </c>
+      <c r="P91" s="1">
+        <v>346</v>
+      </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
@@ -3390,12 +4102,19 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25">
       <c r="A92" s="4"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="1">
+        <v>266</v>
+      </c>
+      <c r="C92" s="1">
+        <v>751</v>
+      </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="8">
+        <f>(B91+C92)/(B91+C91+B92+C92)</f>
+        <v>0.76840429765220852</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -3405,10 +4124,17 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="4"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="O92" s="1">
+        <v>221</v>
+      </c>
+      <c r="P92" s="1">
+        <v>721</v>
+      </c>
       <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
+      <c r="R92" s="8">
+        <f>(O91+P92)/(O91+P91+O92+P92)</f>
+        <v>0.77437325905292476</v>
+      </c>
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
@@ -3417,7 +4143,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3444,34 +4170,68 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
+    <row r="94" spans="1:25">
+      <c r="A94" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3">
+        <f>AVERAGE(C69,C74,C79,C84,C89)</f>
+        <v>2.1120000000000003E-2</v>
+      </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3">
+        <f>AVERAGE(E69,E74,E79,E84,E89)</f>
+        <v>0.98728000000000016</v>
+      </c>
       <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="G94" s="3">
+        <f>AVERAGE(G69,G74,G79,G84,G89)</f>
+        <v>1.5643400000000001</v>
+      </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3">
+        <f>AVERAGE(I69,I74,I79,I84,I89)</f>
+        <v>0.76116000000000006</v>
+      </c>
       <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="K94" s="3">
+        <f>AVERAGE(K69,K74,K79,K84,K89)</f>
+        <v>30.2</v>
+      </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+      <c r="N94" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
+      <c r="P94" s="3">
+        <f>AVERAGE(P69,P74,P79,P84,P89)</f>
+        <v>2.026E-2</v>
+      </c>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
+      <c r="R94" s="3">
+        <f>AVERAGE(R69,R74,R79,R84,R89)</f>
+        <v>0.98670000000000013</v>
+      </c>
       <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="T94" s="3">
+        <f>AVERAGE(T69,T74,T79,T84,T89)</f>
+        <v>1.2787799999999998</v>
+      </c>
       <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
+      <c r="V94" s="3">
+        <f>AVERAGE(V69,V74,V79,V84,V89)</f>
+        <v>0.76297500000000007</v>
+      </c>
       <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
+      <c r="X94" s="3">
+        <f>AVERAGE(X69,X74,X79,X84,X89)</f>
+        <v>33.608000000000004</v>
+      </c>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3498,91 +4258,3543 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
+      <c r="B96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
+    <row r="99" spans="1:25" ht="34">
+      <c r="A99" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" s="2">
+        <v>32</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="2">
+        <v>32</v>
+      </c>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>1.1089</v>
+      </c>
+      <c r="H102" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="J102" t="s">
+        <v>6</v>
+      </c>
+      <c r="K102">
+        <v>74.39</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P102" s="1">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="1">
+        <v>1.2321</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="1">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X102" s="1">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="Y102" s="3"/>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="3"/>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1229</v>
+      </c>
+      <c r="C104" s="1">
+        <v>374</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1261</v>
+      </c>
+      <c r="P104" s="1">
+        <v>371</v>
+      </c>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="3"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="1">
+        <v>217</v>
+      </c>
+      <c r="C105" s="1">
+        <v>693</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="8">
+        <f>(B104+C105)/(B104+C104+B105+C105)</f>
+        <v>0.76482292081177872</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="1">
+        <v>185</v>
+      </c>
+      <c r="P105" s="1">
+        <v>696</v>
+      </c>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="8">
+        <f>(O104+P105)/(O104+P104+O105+P105)</f>
+        <v>0.77875049741345004</v>
+      </c>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="3"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="3"/>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="6">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>1.1322000000000001</v>
+      </c>
+      <c r="H107" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="J107" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107">
+        <v>79.95</v>
+      </c>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O107" t="s">
+        <v>2</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2.06E-2</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S107" t="s">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.4633</v>
+      </c>
+      <c r="U107" t="s">
+        <v>5</v>
+      </c>
+      <c r="V107">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="W107" t="s">
+        <v>6</v>
+      </c>
+      <c r="X107">
+        <v>61.77</v>
+      </c>
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="3"/>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="A109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1218</v>
+      </c>
+      <c r="C109" s="1">
+        <v>352</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O109">
+        <v>1263</v>
+      </c>
+      <c r="P109">
+        <v>357</v>
+      </c>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="3"/>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="1">
+        <v>228</v>
+      </c>
+      <c r="C110" s="1">
+        <v>715</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="8">
+        <f>(B109+C110)/(B109+C109+B110+C110)</f>
+        <v>0.769200159172304</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="1">
+        <v>183</v>
+      </c>
+      <c r="P110" s="1">
+        <v>710</v>
+      </c>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="8">
+        <f>(O109+P110)/(O109+P109+O110+P110)</f>
+        <v>0.78511738957421406</v>
+      </c>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="3"/>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="3"/>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>1.6033999999999999</v>
+      </c>
+      <c r="H112" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="J112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K112">
+        <v>83.22</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P112" s="1">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T112" s="1">
+        <v>1.6071</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V112" s="1">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="W112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X112" s="1">
+        <v>69.52</v>
+      </c>
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="3"/>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>1216</v>
+      </c>
+      <c r="C114">
+        <v>335</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1198</v>
+      </c>
+      <c r="P114" s="1">
+        <v>326</v>
+      </c>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="3"/>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="1">
+        <v>230</v>
+      </c>
+      <c r="C115" s="1">
+        <v>732</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="8">
+        <f>(B114+C115)/(B114+C114+B115+C115)</f>
+        <v>0.77516912057302034</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="1">
+        <v>248</v>
+      </c>
+      <c r="P115" s="1">
+        <v>741</v>
+      </c>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="8">
+        <f>(O114+P115)/(O114+P114+O115+P115)</f>
+        <v>0.77158774373259054</v>
+      </c>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="3"/>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="3"/>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5</v>
+      </c>
+      <c r="J117" t="s">
+        <v>6</v>
+      </c>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R117" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V117" s="1">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="3"/>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="3"/>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="3"/>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="8" t="e">
+        <f>(B119+C120)/(B119+C119+B120+C120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="8" t="e">
+        <f>(O119+P120)/(O119+P119+O120+P120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="3"/>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="3"/>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" t="s">
+        <v>6</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="3"/>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="3"/>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="3"/>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="8" t="e">
+        <f>(B124+C125)/(B124+C124+B125+C125)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="8" t="e">
+        <f>(O124+P125)/(O124+P124+O125+P125)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="3"/>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="3"/>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="e">
+        <f>AVERAGE(C102,C107,#REF!,C117,C122)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3">
+        <f>AVERAGE(E102,E107,E112,E117,E122)</f>
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3">
+        <f>AVERAGE(G102,G107,G112,G117,G122)</f>
+        <v>1.2815000000000001</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3">
+        <f>AVERAGE(I102,I107,I112,I117,I122)</f>
+        <v>0.76993333333333336</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3">
+        <f>AVERAGE(K102,K107,K112,K117,K122)</f>
+        <v>79.186666666666667</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3">
+        <f>AVERAGE(P102,P107,P112,P117,P122)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3">
+        <f>AVERAGE(R102,R107,R112,R117,R122)</f>
+        <v>0.98774999999999991</v>
+      </c>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3">
+        <f>AVERAGE(T102,T107,T112,T117,T122)</f>
+        <v>1.4341666666666668</v>
+      </c>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3">
+        <f>AVERAGE(V102,V107,V112,V117,V122)</f>
+        <v>0.76715</v>
+      </c>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3">
+        <f>AVERAGE(X102,X107,X112,X117,X122)</f>
+        <v>65.11</v>
+      </c>
+      <c r="Y127" s="3"/>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="2">
+        <v>64</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="2">
+        <v>64</v>
+      </c>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134">
+        <v>1.2677</v>
+      </c>
+      <c r="H134" t="s">
+        <v>5</v>
+      </c>
+      <c r="I134">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J134" t="s">
+        <v>6</v>
+      </c>
+      <c r="K134">
+        <v>92.83</v>
+      </c>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" t="s">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>2</v>
+      </c>
+      <c r="P134">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="S134" t="s">
+        <v>4</v>
+      </c>
+      <c r="T134">
+        <v>1.4547000000000001</v>
+      </c>
+      <c r="U134" t="s">
+        <v>5</v>
+      </c>
+      <c r="V134">
+        <v>0.749</v>
+      </c>
+      <c r="W134" t="s">
+        <v>6</v>
+      </c>
+      <c r="X134">
+        <v>80.86</v>
+      </c>
+      <c r="Y134" s="3"/>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="3"/>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1195</v>
+      </c>
+      <c r="C136" s="1">
+        <v>318</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" t="s">
+        <v>7</v>
+      </c>
+      <c r="O136" s="1">
+        <v>1129</v>
+      </c>
+      <c r="P136" s="1">
+        <v>295</v>
+      </c>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="3"/>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="1">
+        <v>251</v>
+      </c>
+      <c r="C137" s="1">
+        <v>749</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="8">
+        <f>(B136+C137)/(B136+C136+B137+C137)</f>
+        <v>0.77357739753282928</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="1">
+        <v>317</v>
+      </c>
+      <c r="P137" s="1">
+        <v>772</v>
+      </c>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="8">
+        <f>(O136+P137)/(O136+P136+O137+P137)</f>
+        <v>0.75646637485077595</v>
+      </c>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="3"/>
+    </row>
+    <row r="138" spans="1:25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="3"/>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>1.8691</v>
+      </c>
+      <c r="H139" t="s">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="J139" t="s">
+        <v>6</v>
+      </c>
+      <c r="K139">
+        <v>100.44</v>
+      </c>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" t="s">
+        <v>8</v>
+      </c>
+      <c r="O139" t="s">
+        <v>2</v>
+      </c>
+      <c r="P139" s="6">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="S139" t="s">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>1.6742999999999999</v>
+      </c>
+      <c r="U139" t="s">
+        <v>5</v>
+      </c>
+      <c r="V139">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="W139" t="s">
+        <v>6</v>
+      </c>
+      <c r="X139">
+        <v>73.41</v>
+      </c>
+      <c r="Y139" s="3"/>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="3"/>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1157</v>
+      </c>
+      <c r="C141" s="1">
+        <v>306</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O141" s="1">
+        <v>1219</v>
+      </c>
+      <c r="P141" s="1">
+        <v>347</v>
+      </c>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="3"/>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="1">
+        <v>289</v>
+      </c>
+      <c r="C142" s="1">
+        <v>761</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="8">
+        <f>(B141+C142)/(B141+C141+B142+C142)</f>
+        <v>0.76323119777158777</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="1">
+        <v>227</v>
+      </c>
+      <c r="P142" s="1">
+        <v>720</v>
+      </c>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="8">
+        <f>(O141+P142)/(O141+P141+O142+P142)</f>
+        <v>0.77158774373259054</v>
+      </c>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="3"/>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="3"/>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="6">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144">
+        <v>1.573</v>
+      </c>
+      <c r="H144" t="s">
+        <v>5</v>
+      </c>
+      <c r="I144">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="J144" t="s">
+        <v>6</v>
+      </c>
+      <c r="K144">
+        <v>95.04</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" t="s">
+        <v>9</v>
+      </c>
+      <c r="O144" t="s">
+        <v>2</v>
+      </c>
+      <c r="P144" s="6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>3</v>
+      </c>
+      <c r="R144">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S144" t="s">
+        <v>4</v>
+      </c>
+      <c r="T144">
+        <v>1.5908</v>
+      </c>
+      <c r="U144" t="s">
+        <v>5</v>
+      </c>
+      <c r="V144">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="W144" t="s">
+        <v>6</v>
+      </c>
+      <c r="X144">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="Y144" s="3"/>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="3"/>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1214</v>
+      </c>
+      <c r="C146" s="1">
+        <v>345</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O146" s="1">
+        <v>1150</v>
+      </c>
+      <c r="P146" s="1">
+        <v>296</v>
+      </c>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="3"/>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="1">
+        <v>232</v>
+      </c>
+      <c r="C147" s="1">
+        <v>722</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="8">
+        <f>(B146+C147)/(B146+C146+B147+C147)</f>
+        <v>0.77039395145244727</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="1">
+        <v>296</v>
+      </c>
+      <c r="P147" s="1">
+        <v>771</v>
+      </c>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="8">
+        <f>(O146+P147)/(O146+P146+O147+P147)</f>
+        <v>0.76442499005173103</v>
+      </c>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="3"/>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="3"/>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="H149" t="s">
+        <v>5</v>
+      </c>
+      <c r="J149" t="s">
+        <v>6</v>
+      </c>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" t="s">
+        <v>10</v>
+      </c>
+      <c r="O149" t="s">
+        <v>2</v>
+      </c>
+      <c r="P149" s="6"/>
+      <c r="Q149" t="s">
+        <v>3</v>
+      </c>
+      <c r="S149" t="s">
+        <v>4</v>
+      </c>
+      <c r="U149" t="s">
+        <v>5</v>
+      </c>
+      <c r="W149" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y149" s="3"/>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="3"/>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="3"/>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="8" t="e">
+        <f>(B151+C152)/(B151+C151+B152+C152)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="8" t="e">
+        <f>(O151+P152)/(O151+P151+O152+P152)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="3"/>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="3"/>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="H154" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" t="s">
+        <v>6</v>
+      </c>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" t="s">
+        <v>11</v>
+      </c>
+      <c r="O154" t="s">
+        <v>2</v>
+      </c>
+      <c r="P154" s="6"/>
+      <c r="Q154" t="s">
+        <v>3</v>
+      </c>
+      <c r="S154" t="s">
+        <v>4</v>
+      </c>
+      <c r="U154" t="s">
+        <v>5</v>
+      </c>
+      <c r="W154" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y154" s="3"/>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="3"/>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
+      <c r="V156" s="4"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="3"/>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="8" t="e">
+        <f>(O156+P157)/(O156+P156+O157+P157)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="3"/>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="3"/>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3">
+        <f>AVERAGE(C134,C139,C144,C149,C154)</f>
+        <v>2.413333333333333E-2</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3">
+        <f>AVERAGE(E134,E139,E144,E149,E154)</f>
+        <v>0.98686666666666667</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3">
+        <f>AVERAGE(G134,G139,G144,G149,G154)</f>
+        <v>1.5699333333333332</v>
+      </c>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3">
+        <f>AVERAGE(I134,I139,I144,I149,I154)</f>
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3">
+        <f>AVERAGE(K134,K139,K144,K149,K154)</f>
+        <v>96.103333333333339</v>
+      </c>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3">
+        <f>AVERAGE(P134,P139,P144,P149,P154)</f>
+        <v>2.1466666666666665E-2</v>
+      </c>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3">
+        <f>AVERAGE(R134,R139,R144,R149,R154)</f>
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3">
+        <f>AVERAGE(T134,T139,T144,T149,T154)</f>
+        <v>1.5732666666666668</v>
+      </c>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3">
+        <f>AVERAGE(V134,V139,V144,V149,V154)</f>
+        <v>0.75946666666666662</v>
+      </c>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3">
+        <f>AVERAGE(X134,X139,X144,X149,X154)</f>
+        <v>77.956666666666663</v>
+      </c>
+      <c r="Y159" s="3"/>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+    </row>
+    <row r="161" spans="1:25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+    </row>
+    <row r="162" spans="1:25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+    </row>
+    <row r="163" spans="1:25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+    </row>
+    <row r="164" spans="1:25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+    </row>
+    <row r="165" spans="1:25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+    </row>
+    <row r="166" spans="1:25">
+      <c r="A166" s="2">
+        <v>128</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="2">
+        <v>128</v>
+      </c>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+    </row>
+    <row r="167" spans="1:25">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167">
+        <v>1.2347999999999999</v>
+      </c>
+      <c r="H167" t="s">
+        <v>5</v>
+      </c>
+      <c r="I167">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="J167" t="s">
+        <v>6</v>
+      </c>
+      <c r="K167">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" t="s">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>2</v>
+      </c>
+      <c r="P167" s="6">
+        <v>2.01E-2</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="S167" t="s">
+        <v>4</v>
+      </c>
+      <c r="T167">
+        <v>1.5889</v>
+      </c>
+      <c r="U167" t="s">
+        <v>5</v>
+      </c>
+      <c r="V167">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="W167" t="s">
+        <v>6</v>
+      </c>
+      <c r="X167">
+        <v>99.29</v>
+      </c>
+      <c r="Y167" s="3"/>
+    </row>
+    <row r="168" spans="1:25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="3"/>
+    </row>
+    <row r="169" spans="1:25">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C169" s="1">
+        <v>352</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" t="s">
+        <v>7</v>
+      </c>
+      <c r="O169" s="1">
+        <v>1175</v>
+      </c>
+      <c r="P169" s="1">
+        <v>315</v>
+      </c>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="3"/>
+    </row>
+    <row r="170" spans="1:25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="1">
+        <v>234</v>
+      </c>
+      <c r="C170" s="1">
+        <v>715</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="8">
+        <f>(B169+C170)/(B169+C169+B170+C170)</f>
+        <v>0.76681257461201746</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="1">
+        <v>271</v>
+      </c>
+      <c r="P170" s="1">
+        <v>752</v>
+      </c>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="8">
+        <f>(O169+P170)/(O169+P169+O170+P170)</f>
+        <v>0.76681257461201746</v>
+      </c>
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="3"/>
+    </row>
+    <row r="171" spans="1:25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="3"/>
+    </row>
+    <row r="172" spans="1:25">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172">
+        <v>1.6664000000000001</v>
+      </c>
+      <c r="H172" t="s">
+        <v>5</v>
+      </c>
+      <c r="I172">
+        <v>0.75</v>
+      </c>
+      <c r="J172" t="s">
+        <v>6</v>
+      </c>
+      <c r="K172">
+        <v>148.54</v>
+      </c>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" t="s">
+        <v>8</v>
+      </c>
+      <c r="O172" t="s">
+        <v>2</v>
+      </c>
+      <c r="P172">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="S172" t="s">
+        <v>4</v>
+      </c>
+      <c r="T172">
+        <v>1.7468999999999999</v>
+      </c>
+      <c r="U172" t="s">
+        <v>5</v>
+      </c>
+      <c r="V172">
+        <v>0.751</v>
+      </c>
+      <c r="W172" t="s">
+        <v>6</v>
+      </c>
+      <c r="X172">
+        <v>101.43</v>
+      </c>
+      <c r="Y172" s="3"/>
+    </row>
+    <row r="173" spans="1:25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="3"/>
+    </row>
+    <row r="174" spans="1:25">
+      <c r="A174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1125</v>
+      </c>
+      <c r="C174" s="1">
+        <v>291</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O174" s="1">
+        <v>1173</v>
+      </c>
+      <c r="P174" s="1">
+        <v>317</v>
+      </c>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="3"/>
+    </row>
+    <row r="175" spans="1:25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="1">
+        <v>321</v>
+      </c>
+      <c r="C175" s="1">
+        <v>776</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="8">
+        <f>(B174+C175)/(B174+C174+B175+C175)</f>
+        <v>0.75646637485077595</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="1">
+        <v>273</v>
+      </c>
+      <c r="P175" s="1">
+        <v>750</v>
+      </c>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="8">
+        <f>(O174+P175)/(O174+P174+O175+P175)</f>
+        <v>0.76522085157182651</v>
+      </c>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="3"/>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="3"/>
+    </row>
+    <row r="177" spans="1:25">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="6">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F177" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177">
+        <v>1.925</v>
+      </c>
+      <c r="H177" t="s">
+        <v>5</v>
+      </c>
+      <c r="I177">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="J177" t="s">
+        <v>6</v>
+      </c>
+      <c r="K177">
+        <v>151.33000000000001</v>
+      </c>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" t="s">
+        <v>9</v>
+      </c>
+      <c r="O177" t="s">
+        <v>2</v>
+      </c>
+      <c r="P177" s="6">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S177" t="s">
+        <v>4</v>
+      </c>
+      <c r="T177">
+        <v>1.3085</v>
+      </c>
+      <c r="U177" t="s">
+        <v>5</v>
+      </c>
+      <c r="V177">
+        <v>0.751</v>
+      </c>
+      <c r="W177" t="s">
+        <v>6</v>
+      </c>
+      <c r="X177">
+        <v>84.19</v>
+      </c>
+      <c r="Y177" s="3"/>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="3"/>
+    </row>
+    <row r="179" spans="1:25">
+      <c r="A179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C179" s="1">
+        <v>347</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O179" s="1">
+        <v>1109</v>
+      </c>
+      <c r="P179" s="1">
+        <v>273</v>
+      </c>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
+      <c r="S179" s="4"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="3"/>
+    </row>
+    <row r="180" spans="1:25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="1">
+        <v>234</v>
+      </c>
+      <c r="C180" s="1">
+        <v>720</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="8">
+        <f>(B179+C180)/(B179+C179+B180+C180)</f>
+        <v>0.76880222841225632</v>
+      </c>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="1">
+        <v>337</v>
+      </c>
+      <c r="P180" s="1">
+        <v>794</v>
+      </c>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="8">
+        <f>(O179+P180)/(O179+P179+O180+P180)</f>
+        <v>0.75726223637087142</v>
+      </c>
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="3"/>
+    </row>
+    <row r="181" spans="1:25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="3"/>
+    </row>
+    <row r="182" spans="1:25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" t="s">
+        <v>5</v>
+      </c>
+      <c r="J182" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" t="s">
+        <v>10</v>
+      </c>
+      <c r="O182" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>3</v>
+      </c>
+      <c r="S182" t="s">
+        <v>4</v>
+      </c>
+      <c r="U182" t="s">
+        <v>5</v>
+      </c>
+      <c r="W182" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y182" s="3"/>
+    </row>
+    <row r="183" spans="1:25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="3"/>
+    </row>
+    <row r="184" spans="1:25">
+      <c r="A184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="4"/>
+      <c r="S184" s="4"/>
+      <c r="T184" s="4"/>
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="3"/>
+    </row>
+    <row r="185" spans="1:25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="8" t="e">
+        <f>(B184+C185)/(B184+C184+B185+C185)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="8" t="e">
+        <f>(O184+P185)/(O184+P184+O185+P185)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="3"/>
+    </row>
+    <row r="186" spans="1:25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="3"/>
+    </row>
+    <row r="187" spans="1:25">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="H187" t="s">
+        <v>5</v>
+      </c>
+      <c r="J187" t="s">
+        <v>6</v>
+      </c>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" t="s">
+        <v>11</v>
+      </c>
+      <c r="O187" t="s">
+        <v>2</v>
+      </c>
+      <c r="P187" s="6"/>
+      <c r="Q187" t="s">
+        <v>3</v>
+      </c>
+      <c r="S187" t="s">
+        <v>4</v>
+      </c>
+      <c r="U187" t="s">
+        <v>5</v>
+      </c>
+      <c r="W187" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y187" s="3"/>
+    </row>
+    <row r="188" spans="1:25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="3"/>
+    </row>
+    <row r="189" spans="1:25">
+      <c r="A189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="3"/>
+    </row>
+    <row r="190" spans="1:25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="8" t="e">
+        <f>(B189+C190)/(B189+C189+B190+C190)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="8" t="e">
+        <f>(O189+P190)/(O189+P189+O190+P190)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="3"/>
+    </row>
+    <row r="191" spans="1:25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="3"/>
+    </row>
+    <row r="192" spans="1:25">
+      <c r="A192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3">
+        <f>AVERAGE(C167,C172,C177,C182,C187)</f>
+        <v>2.4066666666666667E-2</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3">
+        <f>AVERAGE(E167,E172,E177,E182,E187)</f>
+        <v>0.98693333333333333</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3">
+        <f>AVERAGE(G167,G172,G177,G182,G187)</f>
+        <v>1.6087333333333333</v>
+      </c>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3">
+        <f>AVERAGE(I167,I172,I177,I182,I187)</f>
+        <v>0.76306666666666667</v>
+      </c>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3">
+        <f>AVERAGE(K167,K172,K177,K182,K187)</f>
+        <v>148.64000000000001</v>
+      </c>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3">
+        <f>AVERAGE(P167,P172,P177,P182,P187)</f>
+        <v>2.0533333333333334E-2</v>
+      </c>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3">
+        <f>AVERAGE(R167,R172,R177,R182,R187)</f>
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3">
+        <f>AVERAGE(T167,T172,T177,T182,T187)</f>
+        <v>1.5480999999999998</v>
+      </c>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3">
+        <f>AVERAGE(V167,V172,V177,V182,V187)</f>
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3">
+        <f>AVERAGE(X167,X172,X177,X182,X187)</f>
+        <v>94.970000000000013</v>
+      </c>
+      <c r="Y192" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="N99:Y99"/>
+    <mergeCell ref="B96:V98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Coursework 2/Solution/CSCM38 Project Results.xlsx
+++ b/Coursework 2/Solution/CSCM38 Project Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy/Developer/Swansea Uni/CDT/Semester 1/CSCM38 - Adv Topic - Artificial Intelligence and Cyber Securit/CSCM38-Adv_Topics-Cyber_Security_and_Ai/Coursework 2/Solution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF4234-1803-DE4F-9D8F-5C4C5F12E579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733FB20B-FEFD-A24E-B364-07CD589CED86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="28800" xr2:uid="{83EAFBD7-B7F8-D841-98EB-290906A5C83F}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="21160" windowHeight="28800" xr2:uid="{83EAFBD7-B7F8-D841-98EB-290906A5C83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="20">
   <si>
     <t>LSTM</t>
   </si>
@@ -80,12 +80,27 @@
   <si>
     <t>3 x Hidden Layers</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CM Avg:</t>
+  </si>
+  <si>
+    <t>* turn to 10x.x</t>
+  </si>
+  <si>
+    <t>*turn to 8x.x</t>
+  </si>
+  <si>
+    <t>Avg CM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,11 +136,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Var(--vscode-editor-font-family"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -157,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,11 +190,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -192,7 +211,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,12 +218,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,46 +540,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69EC4D6-F311-1F4C-B58D-D96E84AF4738}">
-  <dimension ref="A1:Y192"/>
+  <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P116" sqref="P116"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="34">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -586,7 +606,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>64</v>
       </c>
@@ -617,7 +637,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -688,7 +708,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -715,7 +735,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -754,7 +774,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>222</v>
@@ -763,7 +783,7 @@
         <v>705</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f>(B6+C7)/(B6+C6+B7+C7)</f>
         <v>0.76760843613211305</v>
       </c>
@@ -783,7 +803,7 @@
         <v>740</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f>(O6+P7)/(O6+P6+O7+P7)</f>
         <v>0.76482292081177872</v>
       </c>
@@ -795,7 +815,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -822,7 +842,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -893,7 +913,7 @@
       </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -920,7 +940,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,16 +979,16 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="21">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>266</v>
       </c>
       <c r="C12" s="1">
         <v>765</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>(B11+C12)/(B11+C11+B12+C12)</f>
         <v>0.77397532829287707</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>763</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <f>(O11+P12)/(O11+P11+O12+P12)</f>
         <v>0.75606844409072826</v>
       </c>
@@ -1000,7 +1020,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1027,7 +1047,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1118,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1125,7 +1145,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1184,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1">
         <v>234</v>
@@ -1173,7 +1193,7 @@
         <v>726</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f>(B16+C17)/(B16+C16+B17+C17)</f>
         <v>0.77118981297254274</v>
       </c>
@@ -1193,7 +1213,7 @@
         <v>767</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <f>(O16+P17)/(O16+P16+O17+P17)</f>
         <v>0.76601671309192199</v>
       </c>
@@ -1205,7 +1225,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1232,7 +1252,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1303,7 +1323,7 @@
       </c>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1330,7 +1350,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1389,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>362</v>
@@ -1378,7 +1398,7 @@
         <v>804</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <f>(B21+C22)/(B21+C21+B22+C22)</f>
         <v>0.75129327497015519</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>744</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <f>(O21+P22)/(O21+P21+O22+P22)</f>
         <v>0.76840429765220852</v>
       </c>
@@ -1410,7 +1430,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1437,7 +1457,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1528,7 @@
       </c>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1535,7 +1555,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1594,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>311</v>
@@ -1583,7 +1603,7 @@
         <v>786</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f>(B26+C27)/(B26+C26+B27+C27)</f>
         <v>0.76442499005173103</v>
       </c>
@@ -1603,7 +1623,7 @@
         <v>744</v>
       </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="8">
+      <c r="R27" s="7">
         <f>(O26+P27)/(O26+P26+O27+P27)</f>
         <v>0.7763629128531635</v>
       </c>
@@ -1615,7 +1635,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1642,7 +1662,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1703,7 +1723,7 @@
       </c>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1730,7 +1750,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1757,12 +1777,17 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <f>AVERAGE(E7,E12,E17,E22,E27)</f>
+        <v>0.76569836848388384</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1773,9 +1798,14 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3">
+        <f>AVERAGE(R7,R12,R17,R22,R27)</f>
+        <v>0.76633505769996024</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -1784,10 +1814,18 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="13">
+        <f>AVERAGE(B26,B21,B16,B11,B6)</f>
+        <v>1167</v>
+      </c>
+      <c r="C33" s="13">
+        <f>AVERAGE(C26,C21,C16,C11,C6)</f>
+        <v>309.8</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1798,9 +1836,17 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="13">
+        <f>AVERAGE(O26,O21,O16,O11,O6)</f>
+        <v>1174.2</v>
+      </c>
+      <c r="P33" s="13">
+        <f>AVERAGE(P26,P21,P16,P11,P6)</f>
+        <v>315.39999999999998</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -1811,10 +1857,16 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="13">
+        <f>AVERAGE(B27,B22,B17,B12,B7)</f>
+        <v>279</v>
+      </c>
+      <c r="C34" s="13">
+        <f>AVERAGE(C27,C22,C17,C12,C7)</f>
+        <v>757.2</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1826,8 +1878,14 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="13">
+        <f>AVERAGE(O27,O22,O17,O12,O7)</f>
+        <v>271.8</v>
+      </c>
+      <c r="P34" s="13">
+        <f>AVERAGE(P27,P22,P17,P12,P7)</f>
+        <v>751.6</v>
+      </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1838,7 +1896,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>128</v>
       </c>
@@ -1869,7 +1927,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1998,7 @@
       </c>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1967,7 +2025,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2064,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="1">
         <v>246</v>
@@ -2015,7 +2073,7 @@
         <v>731</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <f>(B38+C39)/(B38+C38+B39+C39)</f>
         <v>0.76840429765220852</v>
       </c>
@@ -2035,7 +2093,7 @@
         <v>802</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="8">
+      <c r="R39" s="7">
         <f>(O38+P39)/(O38+P38+O39+P39)</f>
         <v>0.75368085953044173</v>
       </c>
@@ -2047,7 +2105,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2074,7 +2132,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2203,7 @@
       </c>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2172,7 +2230,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2269,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="1">
         <v>252</v>
@@ -2220,7 +2278,7 @@
         <v>741</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <f>(B43+C44)/(B43+C43+B44+C44)</f>
         <v>0.76999602069239947</v>
       </c>
@@ -2240,7 +2298,7 @@
         <v>752</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="8">
+      <c r="R44" s="7">
         <f>(O43+P44)/(O43+P43+O44+P44)</f>
         <v>0.77278153601273381</v>
       </c>
@@ -2252,7 +2310,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2279,7 +2337,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2408,7 @@
       </c>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2377,7 +2435,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2474,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="1">
         <v>304</v>
@@ -2425,7 +2483,7 @@
         <v>758</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <f>(B48+C49)/(B48+C48+B49+C49)</f>
         <v>0.75606844409072826</v>
       </c>
@@ -2445,7 +2503,7 @@
         <v>755</v>
       </c>
       <c r="Q49" s="4"/>
-      <c r="R49" s="8">
+      <c r="R49" s="7">
         <f>(O48+P49)/(O48+P48+O49+P49)</f>
         <v>0.77596498209311582</v>
       </c>
@@ -2457,7 +2515,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2484,7 +2542,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2555,7 +2613,7 @@
       </c>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2582,7 +2640,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2679,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="1">
         <v>233</v>
@@ -2630,7 +2688,7 @@
         <v>732</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <f>(B53+C54)/(B53+C53+B54+C54)</f>
         <v>0.77397532829287707</v>
       </c>
@@ -2650,7 +2708,7 @@
         <v>759</v>
       </c>
       <c r="Q54" s="4"/>
-      <c r="R54" s="8">
+      <c r="R54" s="7">
         <f>(O53+P54)/(O53+P53+O54+P54)</f>
         <v>0.77596498209311582</v>
       </c>
@@ -2662,7 +2720,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2689,7 +2747,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2760,7 +2818,7 @@
       </c>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2787,7 +2845,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +2884,7 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="1">
         <v>305</v>
@@ -2835,7 +2893,7 @@
         <v>774</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <f>(B58+C59)/(B58+C58+B59+C59)</f>
         <v>0.7620374054914445</v>
       </c>
@@ -2855,7 +2913,7 @@
         <v>748</v>
       </c>
       <c r="Q59" s="4"/>
-      <c r="R59" s="8">
+      <c r="R59" s="7">
         <f>(O58+P59)/(O58+P58+O59+P59)</f>
         <v>0.77437325905292476</v>
       </c>
@@ -2867,7 +2925,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2894,7 +2952,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
@@ -2955,7 +3013,7 @@
       </c>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2982,7 +3040,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3009,12 +3067,17 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3">
+        <f>AVERAGE(E39,E44,E49,E54,E59)</f>
+        <v>0.76609629924393163</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3025,9 +3088,14 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="P64" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
+      <c r="R64" s="3">
+        <f>AVERAGE(R39,R44,R49,R54,R59)</f>
+        <v>0.77055312375646634</v>
+      </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
@@ -3036,10 +3104,18 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="13">
+        <f>AVERAGE(B58,B53,B48,B43,B38)</f>
+        <v>1178</v>
+      </c>
+      <c r="C65" s="13">
+        <f>AVERAGE(C58,C53,C48,C43,C38)</f>
+        <v>319.8</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3050,9 +3126,17 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="N65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O65" s="13">
+        <f>AVERAGE(O58,O53,O48,O43,O38)</f>
+        <v>1173.2</v>
+      </c>
+      <c r="P65" s="13">
+        <f>AVERAGE(P58,P53,P48,P43,P38)</f>
+        <v>303.8</v>
+      </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
@@ -3063,10 +3147,16 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="13">
+        <f>AVERAGE(B59,B54,B49,B44,B39)</f>
+        <v>268</v>
+      </c>
+      <c r="C66" s="13">
+        <f>AVERAGE(C59,C54,C49,C44,C39)</f>
+        <v>747.2</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3078,8 +3168,14 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
+      <c r="O66" s="13">
+        <f>AVERAGE(O59,O54,O49,O44,O39)</f>
+        <v>272.8</v>
+      </c>
+      <c r="P66" s="13">
+        <f>AVERAGE(P59,P54,P49,P44,P39)</f>
+        <v>763.2</v>
+      </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
@@ -3090,7 +3186,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3117,7 +3213,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>32</v>
       </c>
@@ -3148,7 +3244,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3219,7 +3315,7 @@
       </c>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3246,7 +3342,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3381,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="1">
         <v>223</v>
@@ -3294,7 +3390,7 @@
         <v>733</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="8">
+      <c r="E72" s="7">
         <f>(B71+C72)/(B71+C71+B72+C72)</f>
         <v>0.77835256665340236</v>
       </c>
@@ -3314,7 +3410,7 @@
         <v>745</v>
       </c>
       <c r="Q72" s="4"/>
-      <c r="R72" s="8">
+      <c r="R72" s="7">
         <f>(O71+P72)/(O71+P71+O72+P72)</f>
         <v>0.77556705133306802</v>
       </c>
@@ -3326,7 +3422,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3353,7 +3449,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" ht="21">
+    <row r="74" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3424,7 +3520,7 @@
       </c>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3451,7 +3547,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -3490,7 +3586,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="1">
         <v>228</v>
@@ -3499,7 +3595,7 @@
         <v>719</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <f>(B76+C77)/(B76+C76+B77+C77)</f>
         <v>0.77079188221249506</v>
       </c>
@@ -3519,7 +3615,7 @@
         <v>762</v>
       </c>
       <c r="Q77" s="4"/>
-      <c r="R77" s="8">
+      <c r="R77" s="7">
         <f>(O76+P77)/(O76+P76+O77+P77)</f>
         <v>0.76442499005173103</v>
       </c>
@@ -3531,7 +3627,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3558,7 +3654,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3626,7 +3722,7 @@
       </c>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3653,7 +3749,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -3692,7 +3788,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="1">
         <v>307</v>
@@ -3701,7 +3797,7 @@
         <v>758</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="8">
+      <c r="E82" s="7">
         <f>(B81+C82)/(B81+C81+B82+C82)</f>
         <v>0.754874651810585</v>
       </c>
@@ -3721,7 +3817,7 @@
         <v>772</v>
       </c>
       <c r="Q82" s="4"/>
-      <c r="R82" s="8">
+      <c r="R82" s="7">
         <f>(O81+P82)/(O81+P81+O82+P82)</f>
         <v>0.75805809789096701</v>
       </c>
@@ -3733,7 +3829,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3760,7 +3856,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3831,7 +3927,7 @@
       </c>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3858,7 +3954,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -3897,7 +3993,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="1">
         <v>209</v>
@@ -3906,7 +4002,7 @@
         <v>722</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="8">
+      <c r="E87" s="7">
         <f>(B86+C87)/(B86+C86+B87+C87)</f>
         <v>0.77954635893354551</v>
       </c>
@@ -3926,7 +4022,7 @@
         <v>764</v>
       </c>
       <c r="Q87" s="4"/>
-      <c r="R87" s="8">
+      <c r="R87" s="7">
         <f>(O86+P87)/(O86+P86+O87+P87)</f>
         <v>0.76323119777158777</v>
       </c>
@@ -3938,7 +4034,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3965,7 +4061,7 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4132,7 @@
       </c>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4063,7 +4159,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +4198,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="1">
         <v>266</v>
@@ -4111,7 +4207,7 @@
         <v>751</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="8">
+      <c r="E92" s="7">
         <f>(B91+C92)/(B91+C91+B92+C92)</f>
         <v>0.76840429765220852</v>
       </c>
@@ -4131,7 +4227,7 @@
         <v>721</v>
       </c>
       <c r="Q92" s="4"/>
-      <c r="R92" s="8">
+      <c r="R92" s="7">
         <f>(O91+P92)/(O91+P91+O92+P92)</f>
         <v>0.77437325905292476</v>
       </c>
@@ -4143,7 +4239,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4170,7 +4266,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4327,7 @@
       </c>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4258,121 +4354,151 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
+        <f>AVERAGE(E72,E77,E82,E87,E92)</f>
+        <v>0.77039395145244727</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3">
+        <f>AVERAGE(R72,R77,R82,R87,R92)</f>
+        <v>0.76713091922005572</v>
+      </c>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="11"/>
-      <c r="V98" s="11"/>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="13">
+        <f>AVERAGE(B91,B86,B81,B76,B71)</f>
+        <v>1199.4000000000001</v>
+      </c>
+      <c r="C98" s="13">
+        <f>AVERAGE(C91,C86,C81,C76,C71)</f>
+        <v>330.4</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O98" s="13">
+        <f>AVERAGE(O91,O86,O81,O76,O71)</f>
+        <v>1175</v>
+      </c>
+      <c r="P98" s="13">
+        <f>AVERAGE(P91,P86,P81,P76,P71)</f>
+        <v>314.2</v>
+      </c>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" ht="34">
-      <c r="A99" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="13">
+        <f>AVERAGE(B92,B87,B82,B77,B72)</f>
+        <v>246.6</v>
+      </c>
+      <c r="C99" s="13">
+        <f>AVERAGE(C92,C87,C82,C77,C72)</f>
+        <v>736.6</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-      <c r="R99" s="10"/>
-      <c r="S99" s="10"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="N99" s="3"/>
+      <c r="O99" s="13">
+        <f>AVERAGE(O92,O87,O82,O77,O72)</f>
+        <v>271</v>
+      </c>
+      <c r="P99" s="13">
+        <f>AVERAGE(P92,P87,P82,P77,P72)</f>
+        <v>752.8</v>
+      </c>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4387,8 +4513,8 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -4399,10 +4525,8 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25">
-      <c r="A101" s="2">
-        <v>32</v>
-      </c>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4415,9 +4539,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
-      <c r="N101" s="2">
-        <v>32</v>
-      </c>
+      <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
@@ -4430,319 +4552,255 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25">
-      <c r="A102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="F102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102">
-        <v>1.1089</v>
-      </c>
-      <c r="H102" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="J102" t="s">
-        <v>6</v>
-      </c>
-      <c r="K102">
-        <v>74.39</v>
-      </c>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P102" s="1">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="1">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="1">
-        <v>1.2321</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="1">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="W102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X102" s="1">
-        <v>64.040000000000006</v>
-      </c>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="11"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="1">
-        <v>1229</v>
-      </c>
-      <c r="C104" s="1">
-        <v>374</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O104" s="1">
-        <v>1261</v>
-      </c>
-      <c r="P104" s="1">
-        <v>371</v>
-      </c>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="1">
-        <v>217</v>
-      </c>
-      <c r="C105" s="1">
-        <v>693</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="8">
-        <f>(B104+C105)/(B104+C104+B105+C105)</f>
-        <v>0.76482292081177872</v>
-      </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
+    <row r="105" spans="1:25" ht="34" x14ac:dyDescent="0.4">
+      <c r="A105" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="1">
-        <v>185</v>
-      </c>
-      <c r="P105" s="1">
-        <v>696</v>
-      </c>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="8">
-        <f>(O104+P105)/(O104+P104+O105+P105)</f>
-        <v>0.77875049741345004</v>
-      </c>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="3"/>
-    </row>
-    <row r="106" spans="1:25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
+      <c r="N105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="6">
-        <v>3.32E-2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="F107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107">
-        <v>1.1322000000000001</v>
-      </c>
-      <c r="H107" t="s">
-        <v>5</v>
-      </c>
-      <c r="I107">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="J107" t="s">
-        <v>6</v>
-      </c>
-      <c r="K107">
-        <v>79.95</v>
-      </c>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>32</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
-      <c r="N107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O107" t="s">
+      <c r="N107" s="2">
+        <v>32</v>
+      </c>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
         <v>2</v>
       </c>
-      <c r="P107" s="1">
-        <v>2.06E-2</v>
-      </c>
-      <c r="Q107" t="s">
+      <c r="C108">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="D108" t="s">
         <v>3</v>
       </c>
-      <c r="R107">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S107" t="s">
+      <c r="E108">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F108" t="s">
         <v>4</v>
       </c>
-      <c r="T107">
-        <v>1.4633</v>
-      </c>
-      <c r="U107" t="s">
+      <c r="G108">
+        <v>1.1089</v>
+      </c>
+      <c r="H108" t="s">
         <v>5</v>
       </c>
-      <c r="V107">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="W107" t="s">
+      <c r="I108">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="J108" t="s">
         <v>6</v>
       </c>
-      <c r="X107">
-        <v>61.77</v>
-      </c>
-      <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
+      <c r="K108">
+        <v>74.39</v>
+      </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
-      <c r="Y108" s="3"/>
-    </row>
-    <row r="109" spans="1:25">
-      <c r="A109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="1">
-        <v>1218</v>
-      </c>
-      <c r="C109" s="1">
-        <v>352</v>
-      </c>
+      <c r="N108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P108" s="1">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T108" s="1">
+        <v>1.2321</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V108" s="1">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X108" s="1">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="Y108" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4753,15 +4811,9 @@
       <c r="K109" s="4"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
-      <c r="N109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O109">
-        <v>1263</v>
-      </c>
-      <c r="P109">
-        <v>357</v>
-      </c>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
@@ -4772,19 +4824,18 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25">
-      <c r="A110" s="4"/>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
       <c r="B110" s="1">
-        <v>228</v>
+        <v>1229</v>
       </c>
       <c r="C110" s="1">
-        <v>715</v>
+        <v>374</v>
       </c>
       <c r="D110" s="4"/>
-      <c r="E110" s="8">
-        <f>(B109+C110)/(B109+C109+B110+C110)</f>
-        <v>0.769200159172304</v>
-      </c>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -4793,18 +4844,17 @@
       <c r="K110" s="4"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
-      <c r="N110" s="4"/>
+      <c r="N110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O110" s="1">
-        <v>183</v>
+        <v>1261</v>
       </c>
       <c r="P110" s="1">
-        <v>710</v>
+        <v>371</v>
       </c>
       <c r="Q110" s="4"/>
-      <c r="R110" s="8">
-        <f>(O109+P110)/(O109+P109+O110+P110)</f>
-        <v>0.78511738957421406</v>
-      </c>
+      <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
@@ -4813,12 +4863,19 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="B111" s="1">
+        <v>217</v>
+      </c>
+      <c r="C111" s="1">
+        <v>693</v>
+      </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="7">
+        <f>(B110+C111)/(B110+C110+B111+C111)</f>
+        <v>0.76482292081177872</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -4828,10 +4885,17 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
+      <c r="O111" s="1">
+        <v>185</v>
+      </c>
+      <c r="P111" s="1">
+        <v>696</v>
+      </c>
       <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
+      <c r="R111" s="7">
+        <f>(O110+P111)/(O110+P110+O111+P111)</f>
+        <v>0.77875049741345004</v>
+      </c>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
@@ -4840,114 +4904,110 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2.24E-2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="F112" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112">
-        <v>1.6033999999999999</v>
-      </c>
-      <c r="H112" t="s">
-        <v>5</v>
-      </c>
-      <c r="I112">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="J112" t="s">
-        <v>6</v>
-      </c>
-      <c r="K112">
-        <v>83.22</v>
-      </c>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
-      <c r="N112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O112" s="1" t="s">
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
         <v>2</v>
       </c>
-      <c r="P112" s="1">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="Q112" s="1" t="s">
+      <c r="C113" s="6">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D113" t="s">
         <v>3</v>
       </c>
-      <c r="R112" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="S112" s="1" t="s">
+      <c r="E113">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F113" t="s">
         <v>4</v>
       </c>
-      <c r="T112" s="1">
-        <v>1.6071</v>
-      </c>
-      <c r="U112" s="1" t="s">
+      <c r="G113">
+        <v>1.1322000000000001</v>
+      </c>
+      <c r="H113" t="s">
         <v>5</v>
       </c>
-      <c r="V112" s="1">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="W112" s="1" t="s">
+      <c r="I113">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="J113" t="s">
         <v>6</v>
       </c>
-      <c r="X112" s="1">
-        <v>69.52</v>
-      </c>
-      <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
+      <c r="K113">
+        <v>79.95</v>
+      </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
-      <c r="Y113" s="3"/>
-    </row>
-    <row r="114" spans="1:25">
-      <c r="A114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114">
-        <v>1216</v>
-      </c>
-      <c r="C114">
-        <v>335</v>
-      </c>
+      <c r="N113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2</v>
+      </c>
+      <c r="P113" s="1">
+        <v>2.06E-2</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S113" t="s">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>1.4633</v>
+      </c>
+      <c r="U113" t="s">
+        <v>5</v>
+      </c>
+      <c r="V113">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="W113" t="s">
+        <v>6</v>
+      </c>
+      <c r="X113">
+        <v>81.77</v>
+      </c>
+      <c r="Y113" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -4958,15 +5018,9 @@
       <c r="K114" s="4"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
-      <c r="N114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O114" s="1">
-        <v>1198</v>
-      </c>
-      <c r="P114" s="1">
-        <v>326</v>
-      </c>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
@@ -4977,19 +5031,18 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25">
-      <c r="A115" s="4"/>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B115" s="1">
-        <v>230</v>
+        <v>1218</v>
       </c>
       <c r="C115" s="1">
-        <v>732</v>
+        <v>352</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="8">
-        <f>(B114+C115)/(B114+C114+B115+C115)</f>
-        <v>0.77516912057302034</v>
-      </c>
+      <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -4998,18 +5051,17 @@
       <c r="K115" s="4"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="1">
-        <v>248</v>
-      </c>
-      <c r="P115" s="1">
-        <v>741</v>
+      <c r="N115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O115">
+        <v>1263</v>
+      </c>
+      <c r="P115">
+        <v>357</v>
       </c>
       <c r="Q115" s="4"/>
-      <c r="R115" s="8">
-        <f>(O114+P115)/(O114+P114+O115+P115)</f>
-        <v>0.77158774373259054</v>
-      </c>
+      <c r="R115" s="4"/>
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
@@ -5018,12 +5070,19 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="B116" s="1">
+        <v>228</v>
+      </c>
+      <c r="C116" s="1">
+        <v>715</v>
+      </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="7">
+        <f>(B115+C116)/(B115+C115+B116+C116)</f>
+        <v>0.769200159172304</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5033,10 +5092,17 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
+      <c r="O116" s="1">
+        <v>183</v>
+      </c>
+      <c r="P116" s="1">
+        <v>710</v>
+      </c>
       <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
+      <c r="R116" s="7">
+        <f>(O115+P116)/(O115+P115+O116+P116)</f>
+        <v>0.78511738957421406</v>
+      </c>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
@@ -5045,90 +5111,110 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25">
-      <c r="A117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" t="s">
-        <v>3</v>
-      </c>
-      <c r="F117" t="s">
-        <v>4</v>
-      </c>
-      <c r="H117" t="s">
-        <v>5</v>
-      </c>
-      <c r="J117" t="s">
-        <v>6</v>
-      </c>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
-      <c r="N117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="1" t="s">
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="3"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
         <v>2</v>
       </c>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1" t="s">
+      <c r="C118" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="D118" t="s">
         <v>3</v>
       </c>
-      <c r="R117" s="1">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="S117" s="1" t="s">
+      <c r="E118">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F118" t="s">
         <v>4</v>
       </c>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1" t="s">
+      <c r="G118">
+        <v>1.6033999999999999</v>
+      </c>
+      <c r="H118" t="s">
         <v>5</v>
       </c>
-      <c r="V117" s="1">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="W117" s="1" t="s">
+      <c r="I118">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="J118" t="s">
         <v>6</v>
       </c>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="1:25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
+      <c r="K118">
+        <v>83.22</v>
+      </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="3"/>
-    </row>
-    <row r="119" spans="1:25">
-      <c r="A119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="N118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P118" s="1">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R118" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T118" s="1">
+        <v>1.6071</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V118" s="1">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="W118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X118" s="1">
+        <v>89.52</v>
+      </c>
+      <c r="Y118" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5139,11 +5225,9 @@
       <c r="K119" s="4"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
-      <c r="N119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
@@ -5154,15 +5238,18 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>1216</v>
+      </c>
+      <c r="C120">
+        <v>335</v>
+      </c>
       <c r="D120" s="4"/>
-      <c r="E120" s="8" t="e">
-        <f>(B119+C120)/(B119+C119+B120+C120)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -5171,14 +5258,17 @@
       <c r="K120" s="4"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="N120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O120" s="1">
+        <v>1198</v>
+      </c>
+      <c r="P120" s="1">
+        <v>326</v>
+      </c>
       <c r="Q120" s="4"/>
-      <c r="R120" s="8" t="e">
-        <f>(O119+P120)/(O119+P119+O120+P120)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R120" s="4"/>
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
@@ -5187,12 +5277,19 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="B121" s="1">
+        <v>230</v>
+      </c>
+      <c r="C121" s="1">
+        <v>732</v>
+      </c>
       <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="7">
+        <f>(B120+C121)/(B120+C120+B121+C121)</f>
+        <v>0.77516912057302034</v>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -5202,10 +5299,17 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
+      <c r="O121" s="1">
+        <v>248</v>
+      </c>
+      <c r="P121" s="1">
+        <v>741</v>
+      </c>
       <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
+      <c r="R121" s="7">
+        <f>(O120+P121)/(O120+P120+O121+P121)</f>
+        <v>0.77158774373259054</v>
+      </c>
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
@@ -5214,86 +5318,108 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25">
-      <c r="A122" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" t="s">
-        <v>3</v>
-      </c>
-      <c r="F122" t="s">
-        <v>4</v>
-      </c>
-      <c r="H122" t="s">
-        <v>5</v>
-      </c>
-      <c r="J122" t="s">
-        <v>6</v>
-      </c>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
-      <c r="N122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O122" s="1" t="s">
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="3"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
         <v>2</v>
       </c>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1" t="s">
+      <c r="C123" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D123" t="s">
         <v>3</v>
       </c>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1" t="s">
+      <c r="E123">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F123" t="s">
         <v>4</v>
       </c>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1" t="s">
+      <c r="G123">
+        <v>1.6620999999999999</v>
+      </c>
+      <c r="H123" t="s">
         <v>5</v>
       </c>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1" t="s">
+      <c r="I123">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="J123" t="s">
         <v>6</v>
       </c>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="1:25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
+      <c r="K123">
+        <v>84.67</v>
+      </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
+      <c r="N123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P123" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R123" s="1">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T123" s="1">
+        <v>1.6088</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V123" s="1">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X123" s="1">
+        <v>85.97</v>
+      </c>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25">
-      <c r="A124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5304,11 +5430,9 @@
       <c r="K124" s="4"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
-      <c r="N124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
@@ -5319,15 +5443,18 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1041</v>
+      </c>
+      <c r="C125" s="1">
+        <v>256</v>
+      </c>
       <c r="D125" s="4"/>
-      <c r="E125" s="8" t="e">
-        <f>(B124+C125)/(B124+C124+B125+C125)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -5336,14 +5463,17 @@
       <c r="K125" s="4"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1269</v>
+      </c>
+      <c r="P125" s="1">
+        <v>382</v>
+      </c>
       <c r="Q125" s="4"/>
-      <c r="R125" s="8" t="e">
-        <f>(O124+P125)/(O124+P124+O125+P125)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R125" s="4"/>
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
@@ -5352,12 +5482,19 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="B126" s="1">
+        <v>405</v>
+      </c>
+      <c r="C126" s="1">
+        <v>811</v>
+      </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="E126" s="7">
+        <f>(B125+C126)/(B125+C125+B126+C126)</f>
+        <v>0.73696776760843619</v>
+      </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -5367,10 +5504,17 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
+      <c r="O126" s="1">
+        <v>177</v>
+      </c>
+      <c r="P126" s="1">
+        <v>685</v>
+      </c>
       <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
+      <c r="R126" s="7">
+        <f>(O125+P126)/(O125+P125+O126+P126)</f>
+        <v>0.77755670513330677</v>
+      </c>
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
@@ -5379,546 +5523,580 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25">
-      <c r="A127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3" t="e">
-        <f>AVERAGE(C102,C107,#REF!,C117,C122)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3">
-        <f>AVERAGE(E102,E107,E112,E117,E122)</f>
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3">
-        <f>AVERAGE(G102,G107,G112,G117,G122)</f>
-        <v>1.2815000000000001</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3">
-        <f>AVERAGE(I102,I107,I112,I117,I122)</f>
-        <v>0.76993333333333336</v>
-      </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3">
-        <f>AVERAGE(K102,K107,K112,K117,K122)</f>
-        <v>79.186666666666667</v>
-      </c>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
-      <c r="N127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3">
-        <f>AVERAGE(P102,P107,P112,P117,P122)</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3">
-        <f>AVERAGE(R102,R107,R112,R117,R122)</f>
-        <v>0.98774999999999991</v>
-      </c>
-      <c r="S127" s="3"/>
-      <c r="T127" s="3">
-        <f>AVERAGE(T102,T107,T112,T117,T122)</f>
-        <v>1.4341666666666668</v>
-      </c>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3">
-        <f>AVERAGE(V102,V107,V112,V117,V122)</f>
-        <v>0.76715</v>
-      </c>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3">
-        <f>AVERAGE(X102,X107,X112,X117,X122)</f>
-        <v>65.11</v>
-      </c>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="12">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128">
+        <v>1.5239</v>
+      </c>
+      <c r="H128" t="s">
+        <v>5</v>
+      </c>
+      <c r="I128">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="J128" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128">
+        <v>86.63</v>
+      </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
+      <c r="N128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R128" s="1">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T128" s="1">
+        <v>1.5583</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V128" s="1">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X128" s="1">
+        <v>85.14</v>
+      </c>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1249</v>
+      </c>
+      <c r="C130" s="1">
+        <v>378</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
+      <c r="N130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1191</v>
+      </c>
+      <c r="P130" s="1">
+        <v>327</v>
+      </c>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="1">
+        <v>197</v>
+      </c>
+      <c r="C131" s="1">
+        <v>689</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="7">
+        <f>(B130+C131)/(B130+C130+B131+C131)</f>
+        <v>0.77118981297254274</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-      <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
-      <c r="U131" s="3"/>
-      <c r="V131" s="3"/>
-      <c r="W131" s="3"/>
-      <c r="X131" s="3"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="1">
+        <v>255</v>
+      </c>
+      <c r="P131" s="1">
+        <v>740</v>
+      </c>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="7">
+        <f>(O130+P131)/(O130+P130+O131+P131)</f>
+        <v>0.76840429765220852</v>
+      </c>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3"/>
-      <c r="T132" s="3"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25">
-      <c r="A133" s="2">
-        <v>64</v>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3" t="e">
+        <f>AVERAGE(C108,C113,#REF!,C123,C128)</f>
+        <v>#REF!</v>
+      </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="E133" s="3">
+        <f>AVERAGE(E108,E113,E118,E123,E128)</f>
+        <v>0.98682000000000003</v>
+      </c>
       <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
+      <c r="G133" s="3">
+        <f>AVERAGE(G108,G113,G118,G123,G128)</f>
+        <v>1.4060999999999999</v>
+      </c>
       <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
+      <c r="I133" s="3">
+        <f>AVERAGE(I108,I113,I118,I123,I128)</f>
+        <v>0.76273999999999997</v>
+      </c>
       <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="K133" s="3">
+        <f>AVERAGE(K108,K113,K118,K123,K128)</f>
+        <v>81.772000000000006</v>
+      </c>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
-      <c r="N133" s="2">
-        <v>64</v>
+      <c r="N133" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
+      <c r="P133" s="3">
+        <f>AVERAGE(P108,P113,P118,P123,P128)</f>
+        <v>2.0700000000000003E-2</v>
+      </c>
       <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
+      <c r="R133" s="3">
+        <f>AVERAGE(R108,R113,R118,R123,R128)</f>
+        <v>0.98767999999999989</v>
+      </c>
       <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
+      <c r="T133" s="3">
+        <f>AVERAGE(T108,T113,T118,T123,T128)</f>
+        <v>1.4939200000000001</v>
+      </c>
       <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
+      <c r="V133" s="3">
+        <f>AVERAGE(V108,V113,V118,V123,V128)</f>
+        <v>0.76666000000000001</v>
+      </c>
       <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
+      <c r="X133" s="3">
+        <f>AVERAGE(X108,X113,X118,X123,X128)</f>
+        <v>84.287999999999982</v>
+      </c>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25">
-      <c r="A134" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="F134" t="s">
-        <v>4</v>
-      </c>
-      <c r="G134">
-        <v>1.2677</v>
-      </c>
-      <c r="H134" t="s">
-        <v>5</v>
-      </c>
-      <c r="I134">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="J134" t="s">
-        <v>6</v>
-      </c>
-      <c r="K134">
-        <v>92.83</v>
-      </c>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
-      <c r="N134" t="s">
-        <v>1</v>
-      </c>
-      <c r="O134" t="s">
-        <v>2</v>
-      </c>
-      <c r="P134">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>3</v>
-      </c>
-      <c r="R134">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="S134" t="s">
-        <v>4</v>
-      </c>
-      <c r="T134">
-        <v>1.4547000000000001</v>
-      </c>
-      <c r="U134" t="s">
-        <v>5</v>
-      </c>
-      <c r="V134">
-        <v>0.749</v>
-      </c>
-      <c r="W134" t="s">
-        <v>6</v>
-      </c>
-      <c r="X134">
-        <v>80.86</v>
-      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25">
-      <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="1">
-        <v>1195</v>
-      </c>
-      <c r="C136" s="1">
-        <v>318</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3">
+        <f>AVERAGE(E111,E116,E121,E126,E131)</f>
+        <v>0.76346995622761649</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
-      <c r="N136" t="s">
-        <v>7</v>
-      </c>
-      <c r="O136" s="1">
-        <v>1129</v>
-      </c>
-      <c r="P136" s="1">
-        <v>295</v>
-      </c>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3">
+        <f>AVERAGE(R111,R116,R121,R126,R131)</f>
+        <v>0.77628332670115396</v>
+      </c>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="1">
-        <v>251</v>
-      </c>
-      <c r="C137" s="1">
-        <v>749</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="8">
-        <f>(B136+C137)/(B136+C136+B137+C137)</f>
-        <v>0.77357739753282928</v>
-      </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="13">
+        <f>AVERAGE(B130,B125,B120,B115,B110)</f>
+        <v>1190.5999999999999</v>
+      </c>
+      <c r="C137" s="13">
+        <f>AVERAGE(C130,C125,C120,C115,C110)</f>
+        <v>339</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="1">
-        <v>317</v>
-      </c>
-      <c r="P137" s="1">
-        <v>772</v>
-      </c>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="8">
-        <f>(O136+P137)/(O136+P136+O137+P137)</f>
-        <v>0.75646637485077595</v>
-      </c>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
+      <c r="N137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O137" s="13">
+        <f>AVERAGE(O130,O125,O120,O115,O110)</f>
+        <v>1236.4000000000001</v>
+      </c>
+      <c r="P137" s="13">
+        <f>AVERAGE(P130,P125,P120,P115,P110)</f>
+        <v>352.6</v>
+      </c>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="13">
+        <f>AVERAGE(B131,B126,B121,B116,B111)</f>
+        <v>255.4</v>
+      </c>
+      <c r="C138" s="13">
+        <f>AVERAGE(C131,C126,C121,C116,C111)</f>
+        <v>728</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="13">
+        <f>AVERAGE(O131,O126,O121,O116,O111)</f>
+        <v>209.6</v>
+      </c>
+      <c r="P138" s="13">
+        <f>AVERAGE(P131,P126,P121,P116,P111)</f>
+        <v>714.4</v>
+      </c>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="F139" t="s">
-        <v>4</v>
-      </c>
-      <c r="G139">
-        <v>1.8691</v>
-      </c>
-      <c r="H139" t="s">
-        <v>5</v>
-      </c>
-      <c r="I139">
-        <v>0.75980000000000003</v>
-      </c>
-      <c r="J139" t="s">
-        <v>6</v>
-      </c>
-      <c r="K139">
-        <v>100.44</v>
-      </c>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>64</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
-      <c r="N139" t="s">
-        <v>8</v>
-      </c>
-      <c r="O139" t="s">
+      <c r="N139" s="2">
+        <v>64</v>
+      </c>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>2</v>
       </c>
-      <c r="P139" s="6">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="Q139" t="s">
+      <c r="C140">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D140" t="s">
         <v>3</v>
       </c>
-      <c r="R139">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="S139" t="s">
+      <c r="E140">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="F140" t="s">
         <v>4</v>
       </c>
-      <c r="T139">
-        <v>1.6742999999999999</v>
-      </c>
-      <c r="U139" t="s">
+      <c r="G140">
+        <v>1.2677</v>
+      </c>
+      <c r="H140" t="s">
         <v>5</v>
       </c>
-      <c r="V139">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="W139" t="s">
+      <c r="I140">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J140" t="s">
         <v>6</v>
       </c>
-      <c r="X139">
-        <v>73.41</v>
-      </c>
-      <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="1:25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
+      <c r="K140">
+        <v>92.83</v>
+      </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="3"/>
-    </row>
-    <row r="141" spans="1:25">
-      <c r="A141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="1">
-        <v>1157</v>
-      </c>
-      <c r="C141" s="1">
-        <v>306</v>
-      </c>
+      <c r="N140" t="s">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>2</v>
+      </c>
+      <c r="P140">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R140">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="S140" t="s">
+        <v>4</v>
+      </c>
+      <c r="T140">
+        <v>1.4547000000000001</v>
+      </c>
+      <c r="U140" t="s">
+        <v>5</v>
+      </c>
+      <c r="V140">
+        <v>0.749</v>
+      </c>
+      <c r="W140" t="s">
+        <v>6</v>
+      </c>
+      <c r="X140">
+        <v>100.86</v>
+      </c>
+      <c r="Y140" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -5929,15 +6107,9 @@
       <c r="K141" s="4"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
-      <c r="N141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O141" s="1">
-        <v>1219</v>
-      </c>
-      <c r="P141" s="1">
-        <v>347</v>
-      </c>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
@@ -5948,19 +6120,18 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25">
-      <c r="A142" s="4"/>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
       <c r="B142" s="1">
-        <v>289</v>
+        <v>1195</v>
       </c>
       <c r="C142" s="1">
-        <v>761</v>
+        <v>318</v>
       </c>
       <c r="D142" s="4"/>
-      <c r="E142" s="8">
-        <f>(B141+C142)/(B141+C141+B142+C142)</f>
-        <v>0.76323119777158777</v>
-      </c>
+      <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -5969,18 +6140,17 @@
       <c r="K142" s="4"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
-      <c r="N142" s="4"/>
+      <c r="N142" t="s">
+        <v>7</v>
+      </c>
       <c r="O142" s="1">
-        <v>227</v>
+        <v>1129</v>
       </c>
       <c r="P142" s="1">
-        <v>720</v>
+        <v>295</v>
       </c>
       <c r="Q142" s="4"/>
-      <c r="R142" s="8">
-        <f>(O141+P142)/(O141+P141+O142+P142)</f>
-        <v>0.77158774373259054</v>
-      </c>
+      <c r="R142" s="4"/>
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
@@ -5989,12 +6159,19 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="B143" s="1">
+        <v>251</v>
+      </c>
+      <c r="C143" s="1">
+        <v>749</v>
+      </c>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="7">
+        <f>(B142+C143)/(B142+C142+B143+C143)</f>
+        <v>0.77357739753282928</v>
+      </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -6004,10 +6181,17 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
+      <c r="O143" s="1">
+        <v>317</v>
+      </c>
+      <c r="P143" s="1">
+        <v>772</v>
+      </c>
       <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
+      <c r="R143" s="7">
+        <f>(O142+P143)/(O142+P142+O143+P143)</f>
+        <v>0.75646637485077595</v>
+      </c>
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
@@ -6016,114 +6200,110 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" spans="1:25">
-      <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="6">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="D144" t="s">
-        <v>3</v>
-      </c>
-      <c r="E144">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="F144" t="s">
-        <v>4</v>
-      </c>
-      <c r="G144">
-        <v>1.573</v>
-      </c>
-      <c r="H144" t="s">
-        <v>5</v>
-      </c>
-      <c r="I144">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="J144" t="s">
-        <v>6</v>
-      </c>
-      <c r="K144">
-        <v>95.04</v>
-      </c>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
-      <c r="N144" t="s">
-        <v>9</v>
-      </c>
-      <c r="O144" t="s">
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="3"/>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
         <v>2</v>
       </c>
-      <c r="P144" s="6">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="Q144" t="s">
+      <c r="C145" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D145" t="s">
         <v>3</v>
       </c>
-      <c r="R144">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S144" t="s">
+      <c r="E145">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F145" t="s">
         <v>4</v>
       </c>
-      <c r="T144">
-        <v>1.5908</v>
-      </c>
-      <c r="U144" t="s">
+      <c r="G145">
+        <v>1.8691</v>
+      </c>
+      <c r="H145" t="s">
         <v>5</v>
       </c>
-      <c r="V144">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="W144" t="s">
+      <c r="I145">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="J145" t="s">
         <v>6</v>
       </c>
-      <c r="X144">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="Y144" s="3"/>
-    </row>
-    <row r="145" spans="1:25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
+      <c r="K145">
+        <v>100.44</v>
+      </c>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="3"/>
-    </row>
-    <row r="146" spans="1:25">
-      <c r="A146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="1">
-        <v>1214</v>
-      </c>
-      <c r="C146" s="1">
-        <v>345</v>
-      </c>
+      <c r="N145" t="s">
+        <v>8</v>
+      </c>
+      <c r="O145" t="s">
+        <v>2</v>
+      </c>
+      <c r="P145" s="6">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="S145" t="s">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>1.6742999999999999</v>
+      </c>
+      <c r="U145" t="s">
+        <v>5</v>
+      </c>
+      <c r="V145">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="W145" t="s">
+        <v>6</v>
+      </c>
+      <c r="X145">
+        <v>103.41</v>
+      </c>
+      <c r="Y145" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6134,15 +6314,9 @@
       <c r="K146" s="4"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
-      <c r="N146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O146" s="1">
-        <v>1150</v>
-      </c>
-      <c r="P146" s="1">
-        <v>296</v>
-      </c>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
@@ -6153,19 +6327,18 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="1:25">
-      <c r="A147" s="4"/>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B147" s="1">
-        <v>232</v>
+        <v>1157</v>
       </c>
       <c r="C147" s="1">
-        <v>722</v>
+        <v>306</v>
       </c>
       <c r="D147" s="4"/>
-      <c r="E147" s="8">
-        <f>(B146+C147)/(B146+C146+B147+C147)</f>
-        <v>0.77039395145244727</v>
-      </c>
+      <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -6174,18 +6347,17 @@
       <c r="K147" s="4"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
-      <c r="N147" s="4"/>
+      <c r="N147" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O147" s="1">
-        <v>296</v>
+        <v>1219</v>
       </c>
       <c r="P147" s="1">
-        <v>771</v>
+        <v>347</v>
       </c>
       <c r="Q147" s="4"/>
-      <c r="R147" s="8">
-        <f>(O146+P147)/(O146+P146+O147+P147)</f>
-        <v>0.76442499005173103</v>
-      </c>
+      <c r="R147" s="4"/>
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
@@ -6194,12 +6366,19 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="B148" s="1">
+        <v>289</v>
+      </c>
+      <c r="C148" s="1">
+        <v>761</v>
+      </c>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="7">
+        <f>(B147+C148)/(B147+C147+B148+C148)</f>
+        <v>0.76323119777158777</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -6209,10 +6388,17 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
+      <c r="O148" s="1">
+        <v>227</v>
+      </c>
+      <c r="P148" s="1">
+        <v>720</v>
+      </c>
       <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
+      <c r="R148" s="7">
+        <f>(O147+P148)/(O147+P147+O148+P148)</f>
+        <v>0.77158774373259054</v>
+      </c>
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
@@ -6221,79 +6407,110 @@
       <c r="X148" s="4"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="1:25">
-      <c r="A149" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" t="s">
-        <v>3</v>
-      </c>
-      <c r="H149" t="s">
-        <v>5</v>
-      </c>
-      <c r="J149" t="s">
-        <v>6</v>
-      </c>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
-      <c r="N149" t="s">
-        <v>10</v>
-      </c>
-      <c r="O149" t="s">
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="3"/>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
         <v>2</v>
       </c>
-      <c r="P149" s="6"/>
-      <c r="Q149" t="s">
+      <c r="C150" s="6">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="D150" t="s">
         <v>3</v>
       </c>
-      <c r="S149" t="s">
+      <c r="E150">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F150" t="s">
         <v>4</v>
       </c>
-      <c r="U149" t="s">
+      <c r="G150">
+        <v>1.573</v>
+      </c>
+      <c r="H150" t="s">
         <v>5</v>
       </c>
-      <c r="W149" t="s">
+      <c r="I150">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="J150" t="s">
         <v>6</v>
       </c>
-      <c r="Y149" s="3"/>
-    </row>
-    <row r="150" spans="1:25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
+      <c r="K150">
+        <v>95.04</v>
+      </c>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="3"/>
-    </row>
-    <row r="151" spans="1:25">
-      <c r="A151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="N150" t="s">
+        <v>9</v>
+      </c>
+      <c r="O150" t="s">
+        <v>2</v>
+      </c>
+      <c r="P150" s="6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S150" t="s">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.5908</v>
+      </c>
+      <c r="U150" t="s">
+        <v>5</v>
+      </c>
+      <c r="V150">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="W150" t="s">
+        <v>6</v>
+      </c>
+      <c r="X150">
+        <v>109.6</v>
+      </c>
+      <c r="Y150" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -6304,11 +6521,9 @@
       <c r="K151" s="4"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
-      <c r="N151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
@@ -6319,15 +6534,18 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" spans="1:25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1214</v>
+      </c>
+      <c r="C152" s="1">
+        <v>345</v>
+      </c>
       <c r="D152" s="4"/>
-      <c r="E152" s="8" t="e">
-        <f>(B151+C152)/(B151+C151+B152+C152)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -6336,14 +6554,17 @@
       <c r="K152" s="4"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
+      <c r="N152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O152" s="1">
+        <v>1150</v>
+      </c>
+      <c r="P152" s="1">
+        <v>296</v>
+      </c>
       <c r="Q152" s="4"/>
-      <c r="R152" s="8" t="e">
-        <f>(O151+P152)/(O151+P151+O152+P152)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R152" s="4"/>
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
@@ -6352,12 +6573,19 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="B153" s="1">
+        <v>232</v>
+      </c>
+      <c r="C153" s="1">
+        <v>722</v>
+      </c>
       <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="E153" s="7">
+        <f>(B152+C153)/(B152+C152+B153+C153)</f>
+        <v>0.77039395145244727</v>
+      </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -6367,10 +6595,17 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
+      <c r="O153" s="1">
+        <v>296</v>
+      </c>
+      <c r="P153" s="1">
+        <v>771</v>
+      </c>
       <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
+      <c r="R153" s="7">
+        <f>(O152+P153)/(O152+P152+O153+P153)</f>
+        <v>0.76442499005173103</v>
+      </c>
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
@@ -6379,82 +6614,108 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" spans="1:25">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" t="s">
-        <v>3</v>
-      </c>
-      <c r="F154" t="s">
-        <v>4</v>
-      </c>
-      <c r="H154" t="s">
-        <v>5</v>
-      </c>
-      <c r="J154" t="s">
-        <v>6</v>
-      </c>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
-      <c r="N154" t="s">
-        <v>11</v>
-      </c>
-      <c r="O154" t="s">
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="3"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
         <v>2</v>
       </c>
-      <c r="P154" s="6"/>
-      <c r="Q154" t="s">
+      <c r="C155" s="6">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D155" t="s">
         <v>3</v>
       </c>
-      <c r="S154" t="s">
+      <c r="E155">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F155" t="s">
         <v>4</v>
       </c>
-      <c r="U154" t="s">
+      <c r="G155">
+        <v>2.0432999999999999</v>
+      </c>
+      <c r="H155" t="s">
         <v>5</v>
       </c>
-      <c r="W154" t="s">
+      <c r="I155">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="J155" t="s">
         <v>6</v>
       </c>
-      <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="1:25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
+      <c r="K155">
+        <v>95.83</v>
+      </c>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
+      <c r="N155" t="s">
+        <v>10</v>
+      </c>
+      <c r="O155" t="s">
+        <v>2</v>
+      </c>
+      <c r="P155" s="6">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="S155" t="s">
+        <v>4</v>
+      </c>
+      <c r="T155">
+        <v>1.4826999999999999</v>
+      </c>
+      <c r="U155" t="s">
+        <v>5</v>
+      </c>
+      <c r="V155">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="W155" t="s">
+        <v>6</v>
+      </c>
+      <c r="X155">
+        <v>104.51</v>
+      </c>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" spans="1:25">
-      <c r="A156" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -6465,11 +6726,9 @@
       <c r="K156" s="4"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
-      <c r="N156" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
@@ -6480,10 +6739,16 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" spans="1:25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C157" s="1">
+        <v>318</v>
+      </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -6494,14 +6759,17 @@
       <c r="K157" s="4"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
+      <c r="N157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O157" s="1">
+        <v>1209</v>
+      </c>
+      <c r="P157" s="1">
+        <v>336</v>
+      </c>
       <c r="Q157" s="4"/>
-      <c r="R157" s="8" t="e">
-        <f>(O156+P157)/(O156+P156+O157+P157)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R157" s="4"/>
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
@@ -6510,12 +6778,19 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="B158" s="1">
+        <v>266</v>
+      </c>
+      <c r="C158" s="1">
+        <v>749</v>
+      </c>
       <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
+      <c r="E158" s="7">
+        <f>(B157+C158)/(B157+C157+B158+C158)</f>
+        <v>0.76760843613211305</v>
+      </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -6525,10 +6800,17 @@
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
       <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
+      <c r="O158" s="1">
+        <v>237</v>
+      </c>
+      <c r="P158" s="1">
+        <v>731</v>
+      </c>
       <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
+      <c r="R158" s="7">
+        <f>(O157+P158)/(O157+P157+O158+P158)</f>
+        <v>0.77198567449263833</v>
+      </c>
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
@@ -6537,233 +6819,301 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" spans="1:25">
-      <c r="A159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3">
-        <f>AVERAGE(C134,C139,C144,C149,C154)</f>
-        <v>2.413333333333333E-2</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3">
-        <f>AVERAGE(E134,E139,E144,E149,E154)</f>
-        <v>0.98686666666666667</v>
-      </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3">
-        <f>AVERAGE(G134,G139,G144,G149,G154)</f>
-        <v>1.5699333333333332</v>
-      </c>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3">
-        <f>AVERAGE(I134,I139,I144,I149,I154)</f>
-        <v>0.76339999999999997</v>
-      </c>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3">
-        <f>AVERAGE(K134,K139,K144,K149,K154)</f>
-        <v>96.103333333333339</v>
-      </c>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
-      <c r="N159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O159" s="3"/>
-      <c r="P159" s="3">
-        <f>AVERAGE(P134,P139,P144,P149,P154)</f>
-        <v>2.1466666666666665E-2</v>
-      </c>
-      <c r="Q159" s="3"/>
-      <c r="R159" s="3">
-        <f>AVERAGE(R134,R139,R144,R149,R154)</f>
-        <v>0.98780000000000001</v>
-      </c>
-      <c r="S159" s="3"/>
-      <c r="T159" s="3">
-        <f>AVERAGE(T134,T139,T144,T149,T154)</f>
-        <v>1.5732666666666668</v>
-      </c>
-      <c r="U159" s="3"/>
-      <c r="V159" s="3">
-        <f>AVERAGE(V134,V139,V144,V149,V154)</f>
-        <v>0.75946666666666662</v>
-      </c>
-      <c r="W159" s="3"/>
-      <c r="X159" s="3">
-        <f>AVERAGE(X134,X139,X144,X149,X154)</f>
-        <v>77.956666666666663</v>
-      </c>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" spans="1:25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="6">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160">
+        <v>1.1415999999999999</v>
+      </c>
+      <c r="H160" t="s">
+        <v>5</v>
+      </c>
+      <c r="I160">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="J160" t="s">
+        <v>6</v>
+      </c>
+      <c r="K160">
+        <v>98.99</v>
+      </c>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
-      <c r="N160" s="3"/>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
-      <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-      <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
-      <c r="U160" s="3"/>
-      <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-      <c r="X160" s="3"/>
+      <c r="N160" t="s">
+        <v>11</v>
+      </c>
+      <c r="O160" t="s">
+        <v>2</v>
+      </c>
+      <c r="P160" s="6">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>3</v>
+      </c>
+      <c r="R160">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S160" t="s">
+        <v>4</v>
+      </c>
+      <c r="T160">
+        <v>1.5033000000000001</v>
+      </c>
+      <c r="U160" t="s">
+        <v>5</v>
+      </c>
+      <c r="V160">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="W160" t="s">
+        <v>6</v>
+      </c>
+      <c r="X160">
+        <v>100.22</v>
+      </c>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" spans="1:25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
-      <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-      <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
-      <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
-      <c r="W161" s="3"/>
-      <c r="X161" s="3"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" spans="1:25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1295</v>
+      </c>
+      <c r="C162" s="1">
+        <v>411</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-      <c r="S162" s="3"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
+      <c r="N162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O162" s="1">
+        <v>1203</v>
+      </c>
+      <c r="P162" s="1">
+        <v>344</v>
+      </c>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="4"/>
+      <c r="S162" s="4"/>
+      <c r="T162" s="4"/>
+      <c r="U162" s="4"/>
+      <c r="V162" s="4"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" spans="1:25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A163" s="4"/>
+      <c r="B163" s="1">
+        <v>151</v>
+      </c>
+      <c r="C163" s="1">
+        <v>656</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="7">
+        <f>(B162+C163)/(B162+C162+B163+C163)</f>
+        <v>0.7763629128531635</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="1">
+        <v>243</v>
+      </c>
+      <c r="P163" s="1">
+        <v>723</v>
+      </c>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="7">
+        <f>(O162+P163)/(O162+P162+O163+P163)</f>
+        <v>0.76641464385196978</v>
+      </c>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" spans="1:25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" spans="1:25">
-      <c r="A165" s="3"/>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3">
+        <f>AVERAGE(C140,C145,C150,C155,C160)</f>
+        <v>2.4479999999999998E-2</v>
+      </c>
       <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="3">
+        <f>AVERAGE(E140,E145,E150,E155,E160)</f>
+        <v>0.98672000000000004</v>
+      </c>
       <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="G165" s="3">
+        <f>AVERAGE(G140,G145,G150,G155,G160)</f>
+        <v>1.57894</v>
+      </c>
       <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
+      <c r="I165" s="3">
+        <f>AVERAGE(I140,I145,I150,I155,I160)</f>
+        <v>0.76449999999999996</v>
+      </c>
       <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
+      <c r="K165" s="3">
+        <f>AVERAGE(K140,K145,K150,K155,K160)</f>
+        <v>96.626000000000005</v>
+      </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
+      <c r="N165" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
+      <c r="P165" s="3">
+        <f>AVERAGE(P140,P145,P150,P155,P160)</f>
+        <v>2.1939999999999998E-2</v>
+      </c>
       <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
+      <c r="R165" s="3">
+        <f>AVERAGE(R140,R145,R150,R155,R160)</f>
+        <v>0.98754000000000008</v>
+      </c>
       <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
+      <c r="T165" s="3">
+        <f>AVERAGE(T140,T145,T150,T155,T160)</f>
+        <v>1.5411600000000001</v>
+      </c>
       <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
+      <c r="V165" s="3">
+        <f>AVERAGE(V140,V145,V150,V155,V160)</f>
+        <v>0.76195999999999997</v>
+      </c>
       <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
+      <c r="X165" s="3">
+        <f>AVERAGE(X140,X145,X150,X155,X160)</f>
+        <v>103.72</v>
+      </c>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" spans="1:25">
-      <c r="A166" s="2">
-        <v>128</v>
-      </c>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6776,9 +7126,7 @@
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
-      <c r="N166" s="2">
-        <v>128</v>
-      </c>
+      <c r="N166" s="3"/>
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
@@ -6791,319 +7139,288 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" spans="1:25">
-      <c r="A167" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167">
-        <v>2.53E-2</v>
-      </c>
-      <c r="D167" t="s">
-        <v>3</v>
-      </c>
-      <c r="E167">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="F167" t="s">
-        <v>4</v>
-      </c>
-      <c r="G167">
-        <v>1.2347999999999999</v>
-      </c>
-      <c r="H167" t="s">
-        <v>5</v>
-      </c>
-      <c r="I167">
-        <v>0.77349999999999997</v>
-      </c>
-      <c r="J167" t="s">
-        <v>6</v>
-      </c>
-      <c r="K167">
-        <v>146.05000000000001</v>
-      </c>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
-      <c r="N167" t="s">
-        <v>1</v>
-      </c>
-      <c r="O167" t="s">
-        <v>2</v>
-      </c>
-      <c r="P167" s="6">
-        <v>2.01E-2</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>3</v>
-      </c>
-      <c r="R167">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="S167" t="s">
-        <v>4</v>
-      </c>
-      <c r="T167">
-        <v>1.5889</v>
-      </c>
-      <c r="U167" t="s">
-        <v>5</v>
-      </c>
-      <c r="V167">
-        <v>0.76959999999999995</v>
-      </c>
-      <c r="W167" t="s">
-        <v>6</v>
-      </c>
-      <c r="X167">
-        <v>99.29</v>
-      </c>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" spans="1:25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3">
+        <f>AVERAGE(E143,E148,E153,E158,E163)</f>
+        <v>0.77023477914842819</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3">
+        <f>AVERAGE(R143,R148,R153,R158,R163)</f>
+        <v>0.76617588539594117</v>
+      </c>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" spans="1:25">
-      <c r="A169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="1">
-        <v>1212</v>
-      </c>
-      <c r="C169" s="1">
-        <v>352</v>
-      </c>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="13">
+        <f>AVERAGE(B162,B157,B152,B147,B142)</f>
+        <v>1208.2</v>
+      </c>
+      <c r="C169" s="13">
+        <f>AVERAGE(C162,C157,C152,C147,C142)</f>
+        <v>339.6</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
-      <c r="N169" t="s">
-        <v>7</v>
-      </c>
-      <c r="O169" s="1">
-        <v>1175</v>
-      </c>
-      <c r="P169" s="1">
-        <v>315</v>
-      </c>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-      <c r="S169" s="4"/>
-      <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
-      <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
+      <c r="N169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O169" s="13">
+        <f>AVERAGE(O162,O157,O152,O147,O142)</f>
+        <v>1182</v>
+      </c>
+      <c r="P169" s="13">
+        <f>AVERAGE(P162,P157,P152,P147,P142)</f>
+        <v>323.60000000000002</v>
+      </c>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" spans="1:25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="1">
-        <v>234</v>
-      </c>
-      <c r="C170" s="1">
-        <v>715</v>
-      </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="8">
-        <f>(B169+C170)/(B169+C169+B170+C170)</f>
-        <v>0.76681257461201746</v>
-      </c>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+      <c r="B170" s="13">
+        <f>AVERAGE(B163,B158,B153,B148,B143)</f>
+        <v>237.8</v>
+      </c>
+      <c r="C170" s="13">
+        <f>AVERAGE(C163,C158,C153,C148,C143)</f>
+        <v>727.4</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="1">
-        <v>271</v>
-      </c>
-      <c r="P170" s="1">
-        <v>752</v>
-      </c>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="8">
-        <f>(O169+P170)/(O169+P169+O170+P170)</f>
-        <v>0.76681257461201746</v>
-      </c>
-      <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="13">
+        <f>AVERAGE(O163,O158,O153,O148,O143)</f>
+        <v>264</v>
+      </c>
+      <c r="P170" s="13">
+        <f>AVERAGE(P163,P158,P153,P148,P143)</f>
+        <v>743.4</v>
+      </c>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" spans="1:25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" spans="1:25">
-      <c r="A172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" t="s">
-        <v>2</v>
-      </c>
-      <c r="C172" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D172" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="F172" t="s">
-        <v>4</v>
-      </c>
-      <c r="G172">
-        <v>1.6664000000000001</v>
-      </c>
-      <c r="H172" t="s">
-        <v>5</v>
-      </c>
-      <c r="I172">
-        <v>0.75</v>
-      </c>
-      <c r="J172" t="s">
-        <v>6</v>
-      </c>
-      <c r="K172">
-        <v>148.54</v>
-      </c>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>128</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
-      <c r="N172" t="s">
-        <v>8</v>
-      </c>
-      <c r="O172" t="s">
+      <c r="N172" s="2">
+        <v>128</v>
+      </c>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
         <v>2</v>
       </c>
-      <c r="P172">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="Q172" t="s">
+      <c r="C173">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D173" t="s">
         <v>3</v>
       </c>
-      <c r="R172">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="S172" t="s">
+      <c r="E173">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="F173" t="s">
         <v>4</v>
       </c>
-      <c r="T172">
-        <v>1.7468999999999999</v>
-      </c>
-      <c r="U172" t="s">
+      <c r="G173">
+        <v>1.2347999999999999</v>
+      </c>
+      <c r="H173" t="s">
         <v>5</v>
       </c>
-      <c r="V172">
-        <v>0.751</v>
-      </c>
-      <c r="W172" t="s">
+      <c r="I173">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="J173" t="s">
         <v>6</v>
       </c>
-      <c r="X172">
-        <v>101.43</v>
-      </c>
-      <c r="Y172" s="3"/>
-    </row>
-    <row r="173" spans="1:25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="K173">
+        <v>146.05000000000001</v>
+      </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
-      <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
-      <c r="Y173" s="3"/>
-    </row>
-    <row r="174" spans="1:25">
-      <c r="A174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="1">
-        <v>1125</v>
-      </c>
-      <c r="C174" s="1">
-        <v>291</v>
-      </c>
+      <c r="N173" t="s">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>2</v>
+      </c>
+      <c r="P173" s="6">
+        <v>2.01E-2</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="S173" t="s">
+        <v>4</v>
+      </c>
+      <c r="T173">
+        <v>1.5889</v>
+      </c>
+      <c r="U173" t="s">
+        <v>5</v>
+      </c>
+      <c r="V173">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="W173" t="s">
+        <v>6</v>
+      </c>
+      <c r="X173">
+        <v>99.29</v>
+      </c>
+      <c r="Y173" s="3">
+        <f>X173+Y193</f>
+        <v>134.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -7114,15 +7431,9 @@
       <c r="K174" s="4"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
-      <c r="N174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O174" s="1">
-        <v>1173</v>
-      </c>
-      <c r="P174" s="1">
-        <v>317</v>
-      </c>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
@@ -7133,19 +7444,18 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" spans="1:25">
-      <c r="A175" s="4"/>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
       <c r="B175" s="1">
-        <v>321</v>
+        <v>1212</v>
       </c>
       <c r="C175" s="1">
-        <v>776</v>
+        <v>352</v>
       </c>
       <c r="D175" s="4"/>
-      <c r="E175" s="8">
-        <f>(B174+C175)/(B174+C174+B175+C175)</f>
-        <v>0.75646637485077595</v>
-      </c>
+      <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7154,18 +7464,17 @@
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
-      <c r="N175" s="4"/>
+      <c r="N175" t="s">
+        <v>7</v>
+      </c>
       <c r="O175" s="1">
-        <v>273</v>
+        <v>1175</v>
       </c>
       <c r="P175" s="1">
-        <v>750</v>
+        <v>315</v>
       </c>
       <c r="Q175" s="4"/>
-      <c r="R175" s="8">
-        <f>(O174+P175)/(O174+P174+O175+P175)</f>
-        <v>0.76522085157182651</v>
-      </c>
+      <c r="R175" s="4"/>
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
@@ -7174,12 +7483,19 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="1">
+        <v>234</v>
+      </c>
+      <c r="C176" s="1">
+        <v>715</v>
+      </c>
       <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
+      <c r="E176" s="7">
+        <f>(B175+C176)/(B175+C175+B176+C176)</f>
+        <v>0.76681257461201746</v>
+      </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -7189,10 +7505,17 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
+      <c r="O176" s="1">
+        <v>271</v>
+      </c>
+      <c r="P176" s="1">
+        <v>752</v>
+      </c>
       <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
+      <c r="R176" s="7">
+        <f>(O175+P176)/(O175+P175+O176+P176)</f>
+        <v>0.76681257461201746</v>
+      </c>
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
@@ -7201,114 +7524,111 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" spans="1:25">
-      <c r="A177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B177" t="s">
-        <v>2</v>
-      </c>
-      <c r="C177" s="6">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="D177" t="s">
-        <v>3</v>
-      </c>
-      <c r="E177">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="F177" t="s">
-        <v>4</v>
-      </c>
-      <c r="G177">
-        <v>1.925</v>
-      </c>
-      <c r="H177" t="s">
-        <v>5</v>
-      </c>
-      <c r="I177">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="J177" t="s">
-        <v>6</v>
-      </c>
-      <c r="K177">
-        <v>151.33000000000001</v>
-      </c>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
-      <c r="N177" t="s">
-        <v>9</v>
-      </c>
-      <c r="O177" t="s">
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="3"/>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
         <v>2</v>
       </c>
-      <c r="P177" s="6">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="Q177" t="s">
+      <c r="C178" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D178" t="s">
         <v>3</v>
       </c>
-      <c r="R177">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S177" t="s">
+      <c r="E178">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F178" t="s">
         <v>4</v>
       </c>
-      <c r="T177">
-        <v>1.3085</v>
-      </c>
-      <c r="U177" t="s">
+      <c r="G178">
+        <v>1.6664000000000001</v>
+      </c>
+      <c r="H178" t="s">
         <v>5</v>
       </c>
-      <c r="V177">
-        <v>0.751</v>
-      </c>
-      <c r="W177" t="s">
+      <c r="I178">
+        <v>0.75</v>
+      </c>
+      <c r="J178" t="s">
         <v>6</v>
       </c>
-      <c r="X177">
-        <v>84.19</v>
-      </c>
-      <c r="Y177" s="3"/>
-    </row>
-    <row r="178" spans="1:25">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
+      <c r="K178">
+        <v>148.54</v>
+      </c>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
-      <c r="Q178" s="4"/>
-      <c r="R178" s="4"/>
-      <c r="S178" s="4"/>
-      <c r="T178" s="4"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="4"/>
-      <c r="W178" s="4"/>
-      <c r="X178" s="4"/>
-      <c r="Y178" s="3"/>
-    </row>
-    <row r="179" spans="1:25">
-      <c r="A179" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="1">
-        <v>1212</v>
-      </c>
-      <c r="C179" s="1">
-        <v>347</v>
-      </c>
+      <c r="N178" t="s">
+        <v>8</v>
+      </c>
+      <c r="O178" t="s">
+        <v>2</v>
+      </c>
+      <c r="P178">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="S178" t="s">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>1.7468999999999999</v>
+      </c>
+      <c r="U178" t="s">
+        <v>5</v>
+      </c>
+      <c r="V178">
+        <v>0.751</v>
+      </c>
+      <c r="W178" t="s">
+        <v>6</v>
+      </c>
+      <c r="X178">
+        <v>101.43</v>
+      </c>
+      <c r="Y178" s="3">
+        <f>X178+Y193</f>
+        <v>136.89000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -7319,15 +7639,9 @@
       <c r="K179" s="4"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
-      <c r="N179" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O179" s="1">
-        <v>1109</v>
-      </c>
-      <c r="P179" s="1">
-        <v>273</v>
-      </c>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
@@ -7338,19 +7652,18 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" spans="1:25">
-      <c r="A180" s="4"/>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B180" s="1">
-        <v>234</v>
+        <v>1125</v>
       </c>
       <c r="C180" s="1">
-        <v>720</v>
+        <v>291</v>
       </c>
       <c r="D180" s="4"/>
-      <c r="E180" s="8">
-        <f>(B179+C180)/(B179+C179+B180+C180)</f>
-        <v>0.76880222841225632</v>
-      </c>
+      <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
@@ -7359,18 +7672,17 @@
       <c r="K180" s="4"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
-      <c r="N180" s="4"/>
+      <c r="N180" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O180" s="1">
-        <v>337</v>
+        <v>1173</v>
       </c>
       <c r="P180" s="1">
-        <v>794</v>
+        <v>317</v>
       </c>
       <c r="Q180" s="4"/>
-      <c r="R180" s="8">
-        <f>(O179+P180)/(O179+P179+O180+P180)</f>
-        <v>0.75726223637087142</v>
-      </c>
+      <c r="R180" s="4"/>
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
@@ -7379,12 +7691,19 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="B181" s="1">
+        <v>321</v>
+      </c>
+      <c r="C181" s="1">
+        <v>776</v>
+      </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
+      <c r="E181" s="7">
+        <f>(B180+C181)/(B180+C180+B181+C181)</f>
+        <v>0.75646637485077595</v>
+      </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -7394,10 +7713,17 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
+      <c r="O181" s="1">
+        <v>273</v>
+      </c>
+      <c r="P181" s="1">
+        <v>750</v>
+      </c>
       <c r="Q181" s="4"/>
-      <c r="R181" s="4"/>
+      <c r="R181" s="7">
+        <f>(O180+P181)/(O180+P180+O181+P181)</f>
+        <v>0.76522085157182651</v>
+      </c>
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
@@ -7406,81 +7732,111 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" spans="1:25">
-      <c r="A182" t="s">
-        <v>10</v>
-      </c>
-      <c r="B182" t="s">
-        <v>2</v>
-      </c>
-      <c r="C182" s="6"/>
-      <c r="D182" t="s">
-        <v>3</v>
-      </c>
-      <c r="F182" t="s">
-        <v>4</v>
-      </c>
-      <c r="H182" t="s">
-        <v>5</v>
-      </c>
-      <c r="J182" t="s">
-        <v>6</v>
-      </c>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
-      <c r="N182" t="s">
-        <v>10</v>
-      </c>
-      <c r="O182" t="s">
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4"/>
+      <c r="T182" s="4"/>
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="3"/>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
         <v>2</v>
       </c>
-      <c r="Q182" t="s">
+      <c r="C183" s="6">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D183" t="s">
         <v>3</v>
       </c>
-      <c r="S182" t="s">
+      <c r="E183">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F183" t="s">
         <v>4</v>
       </c>
-      <c r="U182" t="s">
+      <c r="G183">
+        <v>1.925</v>
+      </c>
+      <c r="H183" t="s">
         <v>5</v>
       </c>
-      <c r="W182" t="s">
+      <c r="I183">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="J183" t="s">
         <v>6</v>
       </c>
-      <c r="Y182" s="3"/>
-    </row>
-    <row r="183" spans="1:25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
+      <c r="K183">
+        <v>151.33000000000001</v>
+      </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="4"/>
-      <c r="P183" s="4"/>
-      <c r="Q183" s="4"/>
-      <c r="R183" s="4"/>
-      <c r="S183" s="4"/>
-      <c r="T183" s="4"/>
-      <c r="U183" s="4"/>
-      <c r="V183" s="4"/>
-      <c r="W183" s="4"/>
-      <c r="X183" s="4"/>
-      <c r="Y183" s="3"/>
-    </row>
-    <row r="184" spans="1:25">
-      <c r="A184" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="N183" t="s">
+        <v>9</v>
+      </c>
+      <c r="O183" t="s">
+        <v>2</v>
+      </c>
+      <c r="P183" s="6">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S183" t="s">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.3085</v>
+      </c>
+      <c r="U183" t="s">
+        <v>5</v>
+      </c>
+      <c r="V183">
+        <v>0.751</v>
+      </c>
+      <c r="W183" t="s">
+        <v>6</v>
+      </c>
+      <c r="X183">
+        <v>84.19</v>
+      </c>
+      <c r="Y183" s="3">
+        <f>X183+Y193</f>
+        <v>119.65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -7491,11 +7847,9 @@
       <c r="K184" s="4"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
@@ -7506,15 +7860,18 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" spans="1:25">
-      <c r="A185" s="4"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C185" s="1">
+        <v>347</v>
+      </c>
       <c r="D185" s="4"/>
-      <c r="E185" s="8" t="e">
-        <f>(B184+C185)/(B184+C184+B185+C185)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -7523,14 +7880,17 @@
       <c r="K185" s="4"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
-      <c r="N185" s="4"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="N185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O185" s="1">
+        <v>1109</v>
+      </c>
+      <c r="P185" s="1">
+        <v>273</v>
+      </c>
       <c r="Q185" s="4"/>
-      <c r="R185" s="8" t="e">
-        <f>(O184+P185)/(O184+P184+O185+P185)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R185" s="4"/>
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
@@ -7539,12 +7899,19 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="B186" s="1">
+        <v>234</v>
+      </c>
+      <c r="C186" s="1">
+        <v>720</v>
+      </c>
       <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
+      <c r="E186" s="7">
+        <f>(B185+C186)/(B185+C185+B186+C186)</f>
+        <v>0.76880222841225632</v>
+      </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -7554,10 +7921,17 @@
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="N186" s="4"/>
-      <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
+      <c r="O186" s="1">
+        <v>337</v>
+      </c>
+      <c r="P186" s="1">
+        <v>794</v>
+      </c>
       <c r="Q186" s="4"/>
-      <c r="R186" s="4"/>
+      <c r="R186" s="7">
+        <f>(O185+P186)/(O185+P185+O186+P186)</f>
+        <v>0.75726223637087142</v>
+      </c>
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
@@ -7566,82 +7940,108 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" spans="1:25">
-      <c r="A187" t="s">
-        <v>11</v>
-      </c>
-      <c r="B187" t="s">
-        <v>2</v>
-      </c>
-      <c r="C187" s="6"/>
-      <c r="D187" t="s">
-        <v>3</v>
-      </c>
-      <c r="F187" t="s">
-        <v>4</v>
-      </c>
-      <c r="H187" t="s">
-        <v>5</v>
-      </c>
-      <c r="J187" t="s">
-        <v>6</v>
-      </c>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
-      <c r="N187" t="s">
-        <v>11</v>
-      </c>
-      <c r="O187" t="s">
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="3"/>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
         <v>2</v>
       </c>
-      <c r="P187" s="6"/>
-      <c r="Q187" t="s">
+      <c r="C188" s="6">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="D188" t="s">
         <v>3</v>
       </c>
-      <c r="S187" t="s">
+      <c r="E188">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="F188" t="s">
         <v>4</v>
       </c>
-      <c r="U187" t="s">
+      <c r="G188">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="H188" t="s">
         <v>5</v>
       </c>
-      <c r="W187" t="s">
+      <c r="I188">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="J188" t="s">
         <v>6</v>
       </c>
-      <c r="Y187" s="3"/>
-    </row>
-    <row r="188" spans="1:25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
+      <c r="K188">
+        <v>139.66</v>
+      </c>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
-      <c r="S188" s="4"/>
-      <c r="T188" s="4"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="4"/>
-      <c r="W188" s="4"/>
-      <c r="X188" s="4"/>
+      <c r="N188" t="s">
+        <v>10</v>
+      </c>
+      <c r="O188" t="s">
+        <v>2</v>
+      </c>
+      <c r="P188" s="6">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="S188" t="s">
+        <v>4</v>
+      </c>
+      <c r="T188">
+        <v>1.2571000000000001</v>
+      </c>
+      <c r="U188" t="s">
+        <v>5</v>
+      </c>
+      <c r="V188">
+        <v>0.75</v>
+      </c>
+      <c r="W188" t="s">
+        <v>6</v>
+      </c>
+      <c r="X188">
+        <v>118.63</v>
+      </c>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" spans="1:25">
-      <c r="A189" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -7652,11 +8052,9 @@
       <c r="K189" s="4"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
-      <c r="N189" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
@@ -7667,15 +8065,18 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" spans="1:25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1249</v>
+      </c>
+      <c r="C190" s="1">
+        <v>354</v>
+      </c>
       <c r="D190" s="4"/>
-      <c r="E190" s="8" t="e">
-        <f>(B189+C190)/(B189+C189+B190+C190)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -7684,14 +8085,17 @@
       <c r="K190" s="4"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
+      <c r="N190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O190" s="1">
+        <v>1134</v>
+      </c>
+      <c r="P190" s="1">
+        <v>302</v>
+      </c>
       <c r="Q190" s="4"/>
-      <c r="R190" s="8" t="e">
-        <f>(O189+P190)/(O189+P189+O190+P190)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R190" s="4"/>
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
@@ -7700,12 +8104,19 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="1">
+        <v>197</v>
+      </c>
+      <c r="C191" s="1">
+        <v>713</v>
+      </c>
       <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
+      <c r="E191" s="7">
+        <f>(B190+C191)/(B190+C190+B191+C191)</f>
+        <v>0.78074015121368878</v>
+      </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -7715,10 +8126,17 @@
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
+      <c r="O191" s="1">
+        <v>312</v>
+      </c>
+      <c r="P191" s="1">
+        <v>765</v>
+      </c>
       <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
+      <c r="R191" s="7">
+        <f>(O190+P191)/(O190+P190+O191+P191)</f>
+        <v>0.75567051333068047</v>
+      </c>
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
@@ -7727,74 +8145,371 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" spans="1:25">
-      <c r="A192" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3">
-        <f>AVERAGE(C167,C172,C177,C182,C187)</f>
-        <v>2.4066666666666667E-2</v>
-      </c>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3">
-        <f>AVERAGE(E167,E172,E177,E182,E187)</f>
-        <v>0.98693333333333333</v>
-      </c>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3">
-        <f>AVERAGE(G167,G172,G177,G182,G187)</f>
-        <v>1.6087333333333333</v>
-      </c>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3">
-        <f>AVERAGE(I167,I172,I177,I182,I187)</f>
-        <v>0.76306666666666667</v>
-      </c>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3">
-        <f>AVERAGE(K167,K172,K177,K182,K187)</f>
-        <v>148.64000000000001</v>
-      </c>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
-      <c r="N192" s="3" t="s">
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="3"/>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="6">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="F193" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193">
+        <v>1.1899</v>
+      </c>
+      <c r="H193" t="s">
+        <v>5</v>
+      </c>
+      <c r="I193">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="J193" t="s">
+        <v>6</v>
+      </c>
+      <c r="K193">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" t="s">
+        <v>11</v>
+      </c>
+      <c r="O193" t="s">
+        <v>2</v>
+      </c>
+      <c r="P193" s="6">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>3</v>
+      </c>
+      <c r="R193">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S193" t="s">
+        <v>4</v>
+      </c>
+      <c r="T193">
+        <v>1.7912999999999999</v>
+      </c>
+      <c r="U193" t="s">
+        <v>5</v>
+      </c>
+      <c r="V193">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="W193" t="s">
+        <v>6</v>
+      </c>
+      <c r="X193">
+        <v>137.27000000000001</v>
+      </c>
+      <c r="Y193" s="3">
+        <f>(K188+K193)-(X188+X193)</f>
+        <v>35.460000000000008</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="3"/>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1159</v>
+      </c>
+      <c r="C195" s="1">
+        <v>310</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O195" s="1">
+        <v>1224</v>
+      </c>
+      <c r="P195" s="1">
+        <v>359</v>
+      </c>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="3"/>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="B196" s="1">
+        <v>287</v>
+      </c>
+      <c r="C196" s="1">
+        <v>757</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="7">
+        <f>(B195+C196)/(B195+C195+B196+C196)</f>
+        <v>0.76243533625149229</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="1">
+        <v>222</v>
+      </c>
+      <c r="P196" s="1">
+        <v>708</v>
+      </c>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="7">
+        <f>(O195+P196)/(O195+P195+O196+P196)</f>
+        <v>0.76880222841225632</v>
+      </c>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="3"/>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="3"/>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3">
-        <f>AVERAGE(P167,P172,P177,P182,P187)</f>
-        <v>2.0533333333333334E-2</v>
-      </c>
-      <c r="Q192" s="3"/>
-      <c r="R192" s="3">
-        <f>AVERAGE(R167,R172,R177,R182,R187)</f>
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="S192" s="3"/>
-      <c r="T192" s="3">
-        <f>AVERAGE(T167,T172,T177,T182,T187)</f>
-        <v>1.5480999999999998</v>
-      </c>
-      <c r="U192" s="3"/>
-      <c r="V192" s="3">
-        <f>AVERAGE(V167,V172,V177,V182,V187)</f>
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3">
-        <f>AVERAGE(X167,X172,X177,X182,X187)</f>
-        <v>94.970000000000013</v>
-      </c>
-      <c r="Y192" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3">
+        <f>AVERAGE(C173,C178,C183,C188,C193)</f>
+        <v>2.912E-2</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3">
+        <f>AVERAGE(E173,E178,E183,E188,E193)</f>
+        <v>0.98642000000000007</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3">
+        <f>AVERAGE(G173,G178,G183,G188,G193)</f>
+        <v>1.39794</v>
+      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3">
+        <f>AVERAGE(I173,I178,I183,I188,I193)</f>
+        <v>0.76961999999999997</v>
+      </c>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3">
+        <f>AVERAGE(K173,K178,K183,K188,K193)</f>
+        <v>147.45599999999999</v>
+      </c>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3">
+        <f>AVERAGE(P173,P178,P183,P188,P193)</f>
+        <v>2.1360000000000001E-2</v>
+      </c>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3">
+        <f>AVERAGE(R173,R178,R183,R188,R193)</f>
+        <v>0.98704000000000003</v>
+      </c>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3">
+        <f>AVERAGE(T173,T178,T183,T188,T193)</f>
+        <v>1.5385399999999998</v>
+      </c>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3">
+        <f>AVERAGE(V173,V178,V183,V188,V193)</f>
+        <v>0.75803999999999994</v>
+      </c>
+      <c r="W198" s="3"/>
+      <c r="X198" s="3">
+        <f>AVERAGE(X173,X178,X183,X188,X193)</f>
+        <v>108.16200000000001</v>
+      </c>
+      <c r="Y198" s="3"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3">
+        <f>AVERAGE(E176,E181,E186,E191,E196)</f>
+        <v>0.76705133306804618</v>
+      </c>
+      <c r="P201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3">
+        <f>AVERAGE(R176,R181,R186,R191,R196)</f>
+        <v>0.76275368085953033</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="13">
+        <f>AVERAGE(B195,B190,B185,B180,B175)</f>
+        <v>1191.4000000000001</v>
+      </c>
+      <c r="C202" s="13">
+        <f>AVERAGE(C195,C190,C185,C180,C175)</f>
+        <v>330.8</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O202" s="13">
+        <f>AVERAGE(O195,O190,O185,O180,O175)</f>
+        <v>1163</v>
+      </c>
+      <c r="P202" s="13">
+        <f>AVERAGE(P195,P190,P185,P180,P175)</f>
+        <v>313.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+      <c r="B203" s="13">
+        <f>AVERAGE(B196,B191,B186,B181,B176)</f>
+        <v>254.6</v>
+      </c>
+      <c r="C203" s="13">
+        <f>AVERAGE(C196,C191,C186,C181,C176)</f>
+        <v>736.2</v>
+      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="13">
+        <f>AVERAGE(O196,O191,O186,O181,O176)</f>
+        <v>283</v>
+      </c>
+      <c r="P203" s="13">
+        <f>AVERAGE(P196,P191,P186,P181,P176)</f>
+        <v>753.8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="N99:Y99"/>
-    <mergeCell ref="B96:V98"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="N105:Y105"/>
+    <mergeCell ref="B102:V104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Coursework 2/Solution/CSCM38 Project Results.xlsx
+++ b/Coursework 2/Solution/CSCM38 Project Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy/Developer/Swansea Uni/CDT/Semester 1/CSCM38 - Adv Topic - Artificial Intelligence and Cyber Securit/CSCM38-Adv_Topics-Cyber_Security_and_Ai/Coursework 2/Solution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733FB20B-FEFD-A24E-B364-07CD589CED86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FE20A8-AFC2-BB4B-95D1-56E67E175AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="21160" windowHeight="28800" xr2:uid="{83EAFBD7-B7F8-D841-98EB-290906A5C83F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{83EAFBD7-B7F8-D841-98EB-290906A5C83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="15">
   <si>
     <t>LSTM</t>
   </si>
@@ -78,29 +79,14 @@
     <t>Average</t>
   </si>
   <si>
-    <t>3 x Hidden Layers</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>CM Avg:</t>
-  </si>
-  <si>
-    <t>* turn to 10x.x</t>
-  </si>
-  <si>
-    <t>*turn to 8x.x</t>
-  </si>
-  <si>
-    <t>Avg CM</t>
+    <t>2 Deep Layers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,9 +122,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <sz val="16"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Var(--vscode-editor-font-family"/>
     </font>
   </fonts>
   <fills count="5">
@@ -167,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,20 +176,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -211,6 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,14 +196,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,46 +513,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69EC4D6-F311-1F4C-B58D-D96E84AF4738}">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:25" ht="34">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -606,7 +579,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>64</v>
       </c>
@@ -637,7 +610,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -708,7 +681,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -735,7 +708,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -774,7 +747,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>222</v>
@@ -783,7 +756,7 @@
         <v>705</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f>(B6+C7)/(B6+C6+B7+C7)</f>
         <v>0.76760843613211305</v>
       </c>
@@ -803,7 +776,7 @@
         <v>740</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="7">
+      <c r="R7" s="8">
         <f>(O6+P7)/(O6+P6+O7+P7)</f>
         <v>0.76482292081177872</v>
       </c>
@@ -815,7 +788,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -842,7 +815,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -913,7 +886,7 @@
       </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -940,7 +913,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,16 +952,16 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="20">
       <c r="A12" s="4"/>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>266</v>
       </c>
       <c r="C12" s="1">
         <v>765</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <f>(B11+C12)/(B11+C11+B12+C12)</f>
         <v>0.77397532829287707</v>
       </c>
@@ -1008,7 +981,7 @@
         <v>763</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="7">
+      <c r="R12" s="8">
         <f>(O11+P12)/(O11+P11+O12+P12)</f>
         <v>0.75606844409072826</v>
       </c>
@@ -1020,7 +993,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1047,7 +1020,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1091,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1145,7 +1118,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1157,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="4"/>
       <c r="B17" s="1">
         <v>234</v>
@@ -1193,7 +1166,7 @@
         <v>726</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <f>(B16+C17)/(B16+C16+B17+C17)</f>
         <v>0.77118981297254274</v>
       </c>
@@ -1213,7 +1186,7 @@
         <v>767</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="7">
+      <c r="R17" s="8">
         <f>(O16+P17)/(O16+P16+O17+P17)</f>
         <v>0.76601671309192199</v>
       </c>
@@ -1225,7 +1198,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1252,7 +1225,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1296,7 @@
       </c>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1350,7 +1323,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1362,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>362</v>
@@ -1398,7 +1371,7 @@
         <v>804</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <f>(B21+C22)/(B21+C21+B22+C22)</f>
         <v>0.75129327497015519</v>
       </c>
@@ -1418,7 +1391,7 @@
         <v>744</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="7">
+      <c r="R22" s="8">
         <f>(O21+P22)/(O21+P21+O22+P22)</f>
         <v>0.76840429765220852</v>
       </c>
@@ -1430,7 +1403,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1457,7 +1430,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1501,7 @@
       </c>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1555,7 +1528,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1567,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>311</v>
@@ -1603,7 +1576,7 @@
         <v>786</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <f>(B26+C27)/(B26+C26+B27+C27)</f>
         <v>0.76442499005173103</v>
       </c>
@@ -1623,7 +1596,7 @@
         <v>744</v>
       </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="7">
+      <c r="R27" s="8">
         <f>(O26+P27)/(O26+P26+O27+P27)</f>
         <v>0.7763629128531635</v>
       </c>
@@ -1635,7 +1608,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1662,7 +1635,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1696,7 @@
       </c>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1750,7 +1723,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1777,17 +1750,12 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3">
-        <f>AVERAGE(E7,E12,E17,E22,E27)</f>
-        <v>0.76569836848388384</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1798,14 +1766,9 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3">
-        <f>AVERAGE(R7,R12,R17,R22,R27)</f>
-        <v>0.76633505769996024</v>
-      </c>
+      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -1814,18 +1777,10 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="13">
-        <f>AVERAGE(B26,B21,B16,B11,B6)</f>
-        <v>1167</v>
-      </c>
-      <c r="C33" s="13">
-        <f>AVERAGE(C26,C21,C16,C11,C6)</f>
-        <v>309.8</v>
-      </c>
+    <row r="33" spans="1:25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1836,17 +1791,9 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33" s="13">
-        <f>AVERAGE(O26,O21,O16,O11,O6)</f>
-        <v>1174.2</v>
-      </c>
-      <c r="P33" s="13">
-        <f>AVERAGE(P26,P21,P16,P11,P6)</f>
-        <v>315.39999999999998</v>
-      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -1857,16 +1804,10 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="3"/>
-      <c r="B34" s="13">
-        <f>AVERAGE(B27,B22,B17,B12,B7)</f>
-        <v>279</v>
-      </c>
-      <c r="C34" s="13">
-        <f>AVERAGE(C27,C22,C17,C12,C7)</f>
-        <v>757.2</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1878,14 +1819,8 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="13">
-        <f>AVERAGE(O27,O22,O17,O12,O7)</f>
-        <v>271.8</v>
-      </c>
-      <c r="P34" s="13">
-        <f>AVERAGE(P27,P22,P17,P12,P7)</f>
-        <v>751.6</v>
-      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1896,7 +1831,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="2">
         <v>128</v>
       </c>
@@ -1927,7 +1862,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +1933,7 @@
       </c>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2025,7 +1960,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +1999,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="4"/>
       <c r="B39" s="1">
         <v>246</v>
@@ -2073,7 +2008,7 @@
         <v>731</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <f>(B38+C39)/(B38+C38+B39+C39)</f>
         <v>0.76840429765220852</v>
       </c>
@@ -2093,7 +2028,7 @@
         <v>802</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="7">
+      <c r="R39" s="8">
         <f>(O38+P39)/(O38+P38+O39+P39)</f>
         <v>0.75368085953044173</v>
       </c>
@@ -2105,7 +2040,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2132,7 +2067,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2138,7 @@
       </c>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2230,7 +2165,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2204,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="4"/>
       <c r="B44" s="1">
         <v>252</v>
@@ -2278,7 +2213,7 @@
         <v>741</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <f>(B43+C44)/(B43+C43+B44+C44)</f>
         <v>0.76999602069239947</v>
       </c>
@@ -2298,7 +2233,7 @@
         <v>752</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="7">
+      <c r="R44" s="8">
         <f>(O43+P44)/(O43+P43+O44+P44)</f>
         <v>0.77278153601273381</v>
       </c>
@@ -2310,7 +2245,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2337,7 +2272,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2343,7 @@
       </c>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2435,7 +2370,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2409,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25">
       <c r="A49" s="4"/>
       <c r="B49" s="1">
         <v>304</v>
@@ -2483,7 +2418,7 @@
         <v>758</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <f>(B48+C49)/(B48+C48+B49+C49)</f>
         <v>0.75606844409072826</v>
       </c>
@@ -2503,7 +2438,7 @@
         <v>755</v>
       </c>
       <c r="Q49" s="4"/>
-      <c r="R49" s="7">
+      <c r="R49" s="8">
         <f>(O48+P49)/(O48+P48+O49+P49)</f>
         <v>0.77596498209311582</v>
       </c>
@@ -2515,7 +2450,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2542,7 +2477,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2613,7 +2548,7 @@
       </c>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2640,7 +2575,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2614,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25">
       <c r="A54" s="4"/>
       <c r="B54" s="1">
         <v>233</v>
@@ -2688,7 +2623,7 @@
         <v>732</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="7">
+      <c r="E54" s="8">
         <f>(B53+C54)/(B53+C53+B54+C54)</f>
         <v>0.77397532829287707</v>
       </c>
@@ -2708,7 +2643,7 @@
         <v>759</v>
       </c>
       <c r="Q54" s="4"/>
-      <c r="R54" s="7">
+      <c r="R54" s="8">
         <f>(O53+P54)/(O53+P53+O54+P54)</f>
         <v>0.77596498209311582</v>
       </c>
@@ -2720,7 +2655,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2747,7 +2682,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +2753,7 @@
       </c>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2845,7 +2780,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +2819,7 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25">
       <c r="A59" s="4"/>
       <c r="B59" s="1">
         <v>305</v>
@@ -2893,10 +2828,7 @@
         <v>774</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="7">
-        <f>(B58+C59)/(B58+C58+B59+C59)</f>
-        <v>0.7620374054914445</v>
-      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -2913,7 +2845,7 @@
         <v>748</v>
       </c>
       <c r="Q59" s="4"/>
-      <c r="R59" s="7">
+      <c r="R59" s="8">
         <f>(O58+P59)/(O58+P58+O59+P59)</f>
         <v>0.77437325905292476</v>
       </c>
@@ -2925,7 +2857,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2952,7 +2884,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
@@ -3013,7 +2945,7 @@
       </c>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3040,7 +2972,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3067,17 +2999,12 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3">
-        <f>AVERAGE(E39,E44,E49,E54,E59)</f>
-        <v>0.76609629924393163</v>
-      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3088,14 +3015,9 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3">
-        <f>AVERAGE(R39,R44,R49,R54,R59)</f>
-        <v>0.77055312375646634</v>
-      </c>
+      <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
@@ -3104,18 +3026,10 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="13">
-        <f>AVERAGE(B58,B53,B48,B43,B38)</f>
-        <v>1178</v>
-      </c>
-      <c r="C65" s="13">
-        <f>AVERAGE(C58,C53,C48,C43,C38)</f>
-        <v>319.8</v>
-      </c>
+    <row r="65" spans="1:25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3126,17 +3040,9 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O65" s="13">
-        <f>AVERAGE(O58,O53,O48,O43,O38)</f>
-        <v>1173.2</v>
-      </c>
-      <c r="P65" s="13">
-        <f>AVERAGE(P58,P53,P48,P43,P38)</f>
-        <v>303.8</v>
-      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
@@ -3147,16 +3053,10 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25">
       <c r="A66" s="3"/>
-      <c r="B66" s="13">
-        <f>AVERAGE(B59,B54,B49,B44,B39)</f>
-        <v>268</v>
-      </c>
-      <c r="C66" s="13">
-        <f>AVERAGE(C59,C54,C49,C44,C39)</f>
-        <v>747.2</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3168,14 +3068,8 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="13">
-        <f>AVERAGE(O59,O54,O49,O44,O39)</f>
-        <v>272.8</v>
-      </c>
-      <c r="P66" s="13">
-        <f>AVERAGE(P59,P54,P49,P44,P39)</f>
-        <v>763.2</v>
-      </c>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
@@ -3186,7 +3080,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3213,7 +3107,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25">
       <c r="A68" s="2">
         <v>32</v>
       </c>
@@ -3244,7 +3138,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3209,7 @@
       </c>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3342,7 +3236,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3381,7 +3275,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25">
       <c r="A72" s="4"/>
       <c r="B72" s="1">
         <v>223</v>
@@ -3390,7 +3284,7 @@
         <v>733</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <f>(B71+C72)/(B71+C71+B72+C72)</f>
         <v>0.77835256665340236</v>
       </c>
@@ -3410,7 +3304,7 @@
         <v>745</v>
       </c>
       <c r="Q72" s="4"/>
-      <c r="R72" s="7">
+      <c r="R72" s="8">
         <f>(O71+P72)/(O71+P71+O72+P72)</f>
         <v>0.77556705133306802</v>
       </c>
@@ -3422,7 +3316,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3449,7 +3343,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="21">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3520,7 +3414,7 @@
       </c>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3547,7 +3441,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -3586,7 +3480,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25">
       <c r="A77" s="4"/>
       <c r="B77" s="1">
         <v>228</v>
@@ -3595,7 +3489,7 @@
         <v>719</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="7">
+      <c r="E77" s="8">
         <f>(B76+C77)/(B76+C76+B77+C77)</f>
         <v>0.77079188221249506</v>
       </c>
@@ -3615,7 +3509,7 @@
         <v>762</v>
       </c>
       <c r="Q77" s="4"/>
-      <c r="R77" s="7">
+      <c r="R77" s="8">
         <f>(O76+P77)/(O76+P76+O77+P77)</f>
         <v>0.76442499005173103</v>
       </c>
@@ -3627,7 +3521,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3654,7 +3548,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3722,7 +3616,7 @@
       </c>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3749,7 +3643,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3682,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25">
       <c r="A82" s="4"/>
       <c r="B82" s="1">
         <v>307</v>
@@ -3797,7 +3691,7 @@
         <v>758</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="7">
+      <c r="E82" s="8">
         <f>(B81+C82)/(B81+C81+B82+C82)</f>
         <v>0.754874651810585</v>
       </c>
@@ -3817,7 +3711,7 @@
         <v>772</v>
       </c>
       <c r="Q82" s="4"/>
-      <c r="R82" s="7">
+      <c r="R82" s="8">
         <f>(O81+P82)/(O81+P81+O82+P82)</f>
         <v>0.75805809789096701</v>
       </c>
@@ -3829,7 +3723,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3856,7 +3750,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3927,7 +3821,7 @@
       </c>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3954,7 +3848,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -3993,7 +3887,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25">
       <c r="A87" s="4"/>
       <c r="B87" s="1">
         <v>209</v>
@@ -4002,7 +3896,7 @@
         <v>722</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="7">
+      <c r="E87" s="8">
         <f>(B86+C87)/(B86+C86+B87+C87)</f>
         <v>0.77954635893354551</v>
       </c>
@@ -4022,7 +3916,7 @@
         <v>764</v>
       </c>
       <c r="Q87" s="4"/>
-      <c r="R87" s="7">
+      <c r="R87" s="8">
         <f>(O86+P87)/(O86+P86+O87+P87)</f>
         <v>0.76323119777158777</v>
       </c>
@@ -4034,7 +3928,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4061,7 +3955,7 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4132,7 +4026,7 @@
       </c>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4159,7 +4053,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -4198,7 +4092,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25">
       <c r="A92" s="4"/>
       <c r="B92" s="1">
         <v>266</v>
@@ -4207,7 +4101,7 @@
         <v>751</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="7">
+      <c r="E92" s="8">
         <f>(B91+C92)/(B91+C91+B92+C92)</f>
         <v>0.76840429765220852</v>
       </c>
@@ -4227,7 +4121,7 @@
         <v>721</v>
       </c>
       <c r="Q92" s="4"/>
-      <c r="R92" s="7">
+      <c r="R92" s="8">
         <f>(O91+P92)/(O91+P91+O92+P92)</f>
         <v>0.77437325905292476</v>
       </c>
@@ -4239,7 +4133,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4266,7 +4160,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25">
       <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
@@ -4327,7 +4221,7 @@
       </c>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4354,7 +4248,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4381,17 +4275,12 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3">
-        <f>AVERAGE(E72,E77,E82,E87,E92)</f>
-        <v>0.77039395145244727</v>
-      </c>
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -4402,14 +4291,9 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3">
-        <f>AVERAGE(R72,R77,R82,R87,R92)</f>
-        <v>0.76713091922005572</v>
-      </c>
+      <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
@@ -4418,18 +4302,10 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="13">
-        <f>AVERAGE(B91,B86,B81,B76,B71)</f>
-        <v>1199.4000000000001</v>
-      </c>
-      <c r="C98" s="13">
-        <f>AVERAGE(C91,C86,C81,C76,C71)</f>
-        <v>330.4</v>
-      </c>
+    <row r="98" spans="1:25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -4440,17 +4316,11 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O98" s="13">
-        <f>AVERAGE(O91,O86,O81,O76,O71)</f>
-        <v>1175</v>
-      </c>
-      <c r="P98" s="13">
-        <f>AVERAGE(P91,P86,P81,P76,P71)</f>
-        <v>314.2</v>
-      </c>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
@@ -4459,104 +4329,38 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="13">
-        <f>AVERAGE(B92,B87,B82,B77,B72)</f>
-        <v>246.6</v>
-      </c>
-      <c r="C99" s="13">
-        <f>AVERAGE(C92,C87,C82,C77,C72)</f>
-        <v>736.6</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="13">
-        <f>AVERAGE(O92,O87,O82,O77,O72)</f>
-        <v>271</v>
-      </c>
-      <c r="P99" s="13">
-        <f>AVERAGE(P92,P87,P82,P77,P72)</f>
-        <v>752.8</v>
-      </c>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="10" t="s">
+    <row r="101" spans="1:25">
+      <c r="A101" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
+      <c r="Y101" s="11"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -4577,12 +4381,12 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -4604,69 +4408,69 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
       <c r="V103" s="11"/>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-    </row>
-    <row r="105" spans="1:25" ht="34" x14ac:dyDescent="0.4">
-      <c r="A105" s="8" t="s">
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
+    </row>
+    <row r="104" spans="1:25" ht="34">
+      <c r="A104" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
-      <c r="N105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4691,9 +4495,8 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="2">
         <v>32</v>
       </c>
@@ -4722,9 +4525,8 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -4732,72 +4534,69 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>2.6700000000000002E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
       </c>
       <c r="E108">
-        <v>0.98750000000000004</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
       <c r="G108">
-        <v>1.1089</v>
+        <v>1.6191</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
       </c>
       <c r="I108">
-        <v>0.76370000000000005</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="J108" t="s">
         <v>6</v>
       </c>
       <c r="K108">
-        <v>74.39</v>
+        <v>29.08</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
-      <c r="N108" s="1" t="s">
+      <c r="N108" t="s">
         <v>1</v>
       </c>
-      <c r="O108" s="1" t="s">
+      <c r="O108" t="s">
         <v>2</v>
       </c>
-      <c r="P108" s="1">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="Q108" s="1" t="s">
+      <c r="P108">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="Q108" t="s">
         <v>3</v>
       </c>
-      <c r="R108" s="1">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="S108" s="1" t="s">
+      <c r="R108">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="S108" t="s">
         <v>4</v>
       </c>
-      <c r="T108" s="1">
-        <v>1.2321</v>
-      </c>
-      <c r="U108" s="1" t="s">
+      <c r="T108">
+        <v>1.3434999999999999</v>
+      </c>
+      <c r="U108" t="s">
         <v>5</v>
       </c>
-      <c r="V108" s="1">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="W108" s="1" t="s">
+      <c r="V108">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="W108" t="s">
         <v>6</v>
       </c>
-      <c r="X108" s="1">
-        <v>79.040000000000006</v>
-      </c>
-      <c r="Y108" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X108">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4822,17 +4621,16 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
-      <c r="Y109" s="3"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="1">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C110" s="1">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4844,14 +4642,14 @@
       <c r="K110" s="4"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
-      <c r="N110" s="1" t="s">
+      <c r="N110" t="s">
         <v>7</v>
       </c>
       <c r="O110" s="1">
-        <v>1261</v>
+        <v>1204</v>
       </c>
       <c r="P110" s="1">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
@@ -4861,20 +4659,19 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
-      <c r="Y110" s="3"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="4"/>
       <c r="B111" s="1">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C111" s="1">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="7">
+      <c r="E111" s="8">
         <f>(B110+C111)/(B110+C110+B111+C111)</f>
-        <v>0.76482292081177872</v>
+        <v>0.77835256665340236</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -4886,15 +4683,15 @@
       <c r="M111" s="3"/>
       <c r="N111" s="4"/>
       <c r="O111" s="1">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="P111" s="1">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="Q111" s="4"/>
-      <c r="R111" s="7">
+      <c r="R111" s="8">
         <f>(O110+P111)/(O110+P110+O111+P111)</f>
-        <v>0.77875049741345004</v>
+        <v>0.77556705133306802</v>
       </c>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
@@ -4902,9 +4699,8 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
-      <c r="Y111" s="3"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4929,17 +4725,16 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
-      <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:24" ht="21">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="6">
-        <v>3.32E-2</v>
+      <c r="C113">
+        <v>2.24E-2</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -4951,30 +4746,30 @@
         <v>4</v>
       </c>
       <c r="G113">
-        <v>1.1322000000000001</v>
+        <v>1.4231</v>
       </c>
       <c r="H113" t="s">
         <v>5</v>
       </c>
       <c r="I113">
-        <v>0.77549999999999997</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="J113" t="s">
         <v>6</v>
       </c>
       <c r="K113">
-        <v>79.95</v>
+        <v>30.74</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
-      <c r="N113" s="1" t="s">
+      <c r="N113" t="s">
         <v>8</v>
       </c>
       <c r="O113" t="s">
         <v>2</v>
       </c>
-      <c r="P113" s="1">
-        <v>2.06E-2</v>
+      <c r="P113" s="5">
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="Q113" t="s">
         <v>3</v>
@@ -4986,25 +4781,22 @@
         <v>4</v>
       </c>
       <c r="T113">
-        <v>1.4633</v>
+        <v>1.2687999999999999</v>
       </c>
       <c r="U113" t="s">
         <v>5</v>
       </c>
       <c r="V113">
-        <v>0.77249999999999996</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="W113" t="s">
         <v>6</v>
       </c>
       <c r="X113">
-        <v>81.77</v>
-      </c>
-      <c r="Y113" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+        <v>30.87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5029,9 +4821,8 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
-      <c r="Y114" s="3"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -5039,7 +4830,7 @@
         <v>1218</v>
       </c>
       <c r="C115" s="1">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -5054,11 +4845,11 @@
       <c r="N115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O115">
-        <v>1263</v>
-      </c>
-      <c r="P115">
-        <v>357</v>
+      <c r="O115" s="1">
+        <v>1159</v>
+      </c>
+      <c r="P115" s="1">
+        <v>305</v>
       </c>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
@@ -5068,20 +4859,19 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
-      <c r="Y115" s="3"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="4"/>
       <c r="B116" s="1">
         <v>228</v>
       </c>
       <c r="C116" s="1">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="7">
+      <c r="E116" s="8">
         <f>(B115+C116)/(B115+C115+B116+C116)</f>
-        <v>0.769200159172304</v>
+        <v>0.77079188221249506</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -5093,15 +4883,15 @@
       <c r="M116" s="3"/>
       <c r="N116" s="4"/>
       <c r="O116" s="1">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="P116" s="1">
-        <v>710</v>
+        <v>762</v>
       </c>
       <c r="Q116" s="4"/>
-      <c r="R116" s="7">
+      <c r="R116" s="8">
         <f>(O115+P116)/(O115+P115+O116+P116)</f>
-        <v>0.78511738957421406</v>
+        <v>0.76442499005173103</v>
       </c>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
@@ -5109,9 +4899,8 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
-      <c r="Y116" s="3"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -5136,82 +4925,75 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
-      <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
         <v>9</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="1">
-        <v>2.24E-2</v>
+      <c r="C118" s="6">
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118">
-        <v>0.98729999999999996</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
       </c>
       <c r="G118">
-        <v>1.6033999999999999</v>
+        <v>1.6082000000000001</v>
       </c>
       <c r="H118" t="s">
         <v>5</v>
       </c>
       <c r="I118">
-        <v>0.77059999999999995</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="J118" t="s">
         <v>6</v>
       </c>
       <c r="K118">
-        <v>83.22</v>
+        <v>34.46</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
-      <c r="N118" s="1" t="s">
+      <c r="N118" t="s">
         <v>9</v>
       </c>
-      <c r="O118" s="1" t="s">
+      <c r="O118" t="s">
         <v>2</v>
       </c>
-      <c r="P118" s="1">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="Q118" s="1" t="s">
+      <c r="P118">
+        <v>1.95E-2</v>
+      </c>
+      <c r="Q118" t="s">
         <v>3</v>
       </c>
-      <c r="R118" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="S118" s="1" t="s">
+      <c r="R118">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="S118" t="s">
         <v>4</v>
       </c>
-      <c r="T118" s="1">
-        <v>1.6071</v>
-      </c>
-      <c r="U118" s="1" t="s">
+      <c r="T118">
+        <v>1.3013999999999999</v>
+      </c>
+      <c r="U118" t="s">
         <v>5</v>
       </c>
-      <c r="V118" s="1">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="W118" s="1" t="s">
+      <c r="W118" t="s">
         <v>6</v>
       </c>
-      <c r="X118" s="1">
-        <v>89.52</v>
-      </c>
-      <c r="Y118" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X118">
+        <v>35.119999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5236,17 +5018,16 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
-      <c r="Y119" s="3"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B120">
-        <v>1216</v>
-      </c>
-      <c r="C120">
-        <v>335</v>
+      <c r="B120" s="1">
+        <v>1139</v>
+      </c>
+      <c r="C120" s="1">
+        <v>309</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -5262,10 +5043,10 @@
         <v>7</v>
       </c>
       <c r="O120" s="1">
-        <v>1198</v>
+        <v>1133</v>
       </c>
       <c r="P120" s="1">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
@@ -5275,20 +5056,19 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
-      <c r="Y120" s="3"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="4"/>
       <c r="B121" s="1">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="C121" s="1">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="D121" s="4"/>
-      <c r="E121" s="7">
+      <c r="E121" s="8">
         <f>(B120+C121)/(B120+C120+B121+C121)</f>
-        <v>0.77516912057302034</v>
+        <v>0.754874651810585</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -5300,15 +5080,15 @@
       <c r="M121" s="3"/>
       <c r="N121" s="4"/>
       <c r="O121" s="1">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="P121" s="1">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="Q121" s="4"/>
-      <c r="R121" s="7">
+      <c r="R121" s="8">
         <f>(O120+P121)/(O120+P120+O121+P121)</f>
-        <v>0.77158774373259054</v>
+        <v>0.75805809789096701</v>
       </c>
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
@@ -5316,9 +5096,8 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
-      <c r="Y121" s="3"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -5343,80 +5122,78 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
-      <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="12">
-        <v>2.4E-2</v>
+      <c r="C123" s="6">
+        <v>2.06E-2</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
       </c>
       <c r="E123">
-        <v>0.98729999999999996</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123">
-        <v>1.6620999999999999</v>
+        <v>1.4517</v>
       </c>
       <c r="H123" t="s">
         <v>5</v>
       </c>
       <c r="I123">
-        <v>0.73140000000000005</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="J123" t="s">
         <v>6</v>
       </c>
       <c r="K123">
-        <v>84.67</v>
+        <v>28.09</v>
       </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
-      <c r="N123" s="1" t="s">
+      <c r="N123" t="s">
         <v>10</v>
       </c>
-      <c r="O123" s="1" t="s">
+      <c r="O123" t="s">
         <v>2</v>
       </c>
-      <c r="P123" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q123" s="1" t="s">
+      <c r="P123">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="Q123" t="s">
         <v>3</v>
       </c>
-      <c r="R123" s="1">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S123" s="1" t="s">
+      <c r="R123">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="S123" t="s">
         <v>4</v>
       </c>
-      <c r="T123" s="1">
-        <v>1.6088</v>
-      </c>
-      <c r="U123" s="1" t="s">
+      <c r="T123">
+        <v>1.3010999999999999</v>
+      </c>
+      <c r="U123" t="s">
         <v>5</v>
       </c>
-      <c r="V123" s="1">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="W123" s="1" t="s">
+      <c r="V123">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="W123" t="s">
         <v>6</v>
       </c>
-      <c r="X123" s="1">
-        <v>85.97</v>
-      </c>
-      <c r="Y123" s="3"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X123">
+        <v>33.86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -5441,17 +5218,16 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
-      <c r="Y124" s="3"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B125" s="1">
-        <v>1041</v>
+        <v>1237</v>
       </c>
       <c r="C125" s="1">
-        <v>256</v>
+        <v>345</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5467,10 +5243,10 @@
         <v>7</v>
       </c>
       <c r="O125" s="1">
-        <v>1269</v>
+        <v>1154</v>
       </c>
       <c r="P125" s="1">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
@@ -5480,20 +5256,19 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
-      <c r="Y125" s="3"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="4"/>
       <c r="B126" s="1">
-        <v>405</v>
+        <v>209</v>
       </c>
       <c r="C126" s="1">
-        <v>811</v>
+        <v>722</v>
       </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="7">
+      <c r="E126" s="8">
         <f>(B125+C126)/(B125+C125+B126+C126)</f>
-        <v>0.73696776760843619</v>
+        <v>0.77954635893354551</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -5505,15 +5280,15 @@
       <c r="M126" s="3"/>
       <c r="N126" s="4"/>
       <c r="O126" s="1">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="P126" s="1">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="Q126" s="4"/>
-      <c r="R126" s="7">
+      <c r="R126" s="8">
         <f>(O125+P126)/(O125+P125+O126+P126)</f>
-        <v>0.77755670513330677</v>
+        <v>0.76323119777158777</v>
       </c>
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
@@ -5521,9 +5296,8 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
-      <c r="Y126" s="3"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5548,80 +5322,78 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
-      <c r="Y127" s="3"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
         <v>11</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="12">
-        <v>2.3900000000000001E-2</v>
+      <c r="C128" s="6">
+        <v>1.95E-2</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
       </c>
       <c r="E128">
-        <v>0.98699999999999999</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128">
-        <v>1.5239</v>
+        <v>1.7196</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
       </c>
       <c r="I128">
-        <v>0.77249999999999996</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="J128" t="s">
         <v>6</v>
       </c>
       <c r="K128">
-        <v>86.63</v>
+        <v>28.63</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
-      <c r="N128" s="1" t="s">
+      <c r="N128" t="s">
         <v>11</v>
       </c>
-      <c r="O128" s="1" t="s">
+      <c r="O128" t="s">
         <v>2</v>
       </c>
-      <c r="P128" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="Q128" s="1" t="s">
+      <c r="P128" s="6">
+        <v>2.07E-2</v>
+      </c>
+      <c r="Q128" t="s">
         <v>3</v>
       </c>
-      <c r="R128" s="1">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="S128" s="1" t="s">
+      <c r="R128">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="S128" t="s">
         <v>4</v>
       </c>
-      <c r="T128" s="1">
-        <v>1.5583</v>
-      </c>
-      <c r="U128" s="1" t="s">
+      <c r="T128">
+        <v>1.1791</v>
+      </c>
+      <c r="U128" t="s">
         <v>5</v>
       </c>
-      <c r="V128" s="1">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="W128" s="1" t="s">
+      <c r="V128">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="W128" t="s">
         <v>6</v>
       </c>
-      <c r="X128" s="1">
-        <v>85.14</v>
-      </c>
-      <c r="Y128" s="3"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X128">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -5646,17 +5418,16 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
-      <c r="Y129" s="3"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B130" s="1">
-        <v>1249</v>
+        <v>1180</v>
       </c>
       <c r="C130" s="1">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5672,10 +5443,10 @@
         <v>7</v>
       </c>
       <c r="O130" s="1">
-        <v>1191</v>
+        <v>1225</v>
       </c>
       <c r="P130" s="1">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
@@ -5685,20 +5456,19 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
-      <c r="Y130" s="3"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="4"/>
       <c r="B131" s="1">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="C131" s="1">
-        <v>689</v>
+        <v>751</v>
       </c>
       <c r="D131" s="4"/>
-      <c r="E131" s="7">
+      <c r="E131" s="8">
         <f>(B130+C131)/(B130+C130+B131+C131)</f>
-        <v>0.77118981297254274</v>
+        <v>0.76840429765220852</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -5710,15 +5480,15 @@
       <c r="M131" s="3"/>
       <c r="N131" s="4"/>
       <c r="O131" s="1">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="P131" s="1">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="Q131" s="4"/>
-      <c r="R131" s="7">
+      <c r="R131" s="8">
         <f>(O130+P131)/(O130+P130+O131+P131)</f>
-        <v>0.76840429765220852</v>
+        <v>0.77437325905292476</v>
       </c>
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
@@ -5726,9 +5496,8 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
-      <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -5753,36 +5522,35 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
-      <c r="Y132" s="3"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="3" t="e">
-        <f>AVERAGE(C108,C113,#REF!,C123,C128)</f>
-        <v>#REF!</v>
+      <c r="C133" s="3">
+        <f>AVERAGE(C108,C113,C118,C123,C128)</f>
+        <v>2.1120000000000003E-2</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3">
         <f>AVERAGE(E108,E113,E118,E123,E128)</f>
-        <v>0.98682000000000003</v>
+        <v>0.98728000000000016</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3">
         <f>AVERAGE(G108,G113,G118,G123,G128)</f>
-        <v>1.4060999999999999</v>
+        <v>1.5643400000000001</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3">
         <f>AVERAGE(I108,I113,I118,I123,I128)</f>
-        <v>0.76273999999999997</v>
+        <v>0.76116000000000006</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3">
         <f>AVERAGE(K108,K113,K118,K123,K128)</f>
-        <v>81.772000000000006</v>
+        <v>30.2</v>
       </c>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -5792,31 +5560,30 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3">
         <f>AVERAGE(P108,P113,P118,P123,P128)</f>
-        <v>2.0700000000000003E-2</v>
+        <v>2.026E-2</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3">
         <f>AVERAGE(R108,R113,R118,R123,R128)</f>
-        <v>0.98767999999999989</v>
+        <v>0.98670000000000013</v>
       </c>
       <c r="S133" s="3"/>
       <c r="T133" s="3">
         <f>AVERAGE(T108,T113,T118,T123,T128)</f>
-        <v>1.4939200000000001</v>
+        <v>1.2787799999999998</v>
       </c>
       <c r="U133" s="3"/>
       <c r="V133" s="3">
         <f>AVERAGE(V108,V113,V118,V123,V128)</f>
-        <v>0.76666000000000001</v>
+        <v>0.76297500000000007</v>
       </c>
       <c r="W133" s="3"/>
       <c r="X133" s="3">
         <f>AVERAGE(X108,X113,X118,X123,X128)</f>
-        <v>84.287999999999982</v>
-      </c>
-      <c r="Y133" s="3"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+        <v>33.608000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5841,9 +5608,8 @@
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5868,19 +5634,15 @@
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
+    </row>
+    <row r="136" spans="1:24">
+      <c r="A136" s="2">
+        <v>64</v>
+      </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3">
-        <f>AVERAGE(E111,E116,E121,E126,E131)</f>
-        <v>0.76346995622761649</v>
-      </c>
+      <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -5889,211 +5651,195 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
-      <c r="N136" s="3"/>
+      <c r="N136" s="2">
+        <v>64</v>
+      </c>
       <c r="O136" s="3"/>
-      <c r="P136" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="3">
-        <f>AVERAGE(R111,R116,R121,R126,R131)</f>
-        <v>0.77628332670115396</v>
-      </c>
+      <c r="R136" s="3"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B137" s="13">
-        <f>AVERAGE(B130,B125,B120,B115,B110)</f>
-        <v>1190.5999999999999</v>
-      </c>
-      <c r="C137" s="13">
-        <f>AVERAGE(C130,C125,C120,C115,C110)</f>
-        <v>339</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
+    </row>
+    <row r="137" spans="1:24">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H137" t="s">
+        <v>5</v>
+      </c>
+      <c r="I137">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="J137" t="s">
+        <v>6</v>
+      </c>
+      <c r="K137">
+        <v>26.34</v>
+      </c>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
-      <c r="N137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O137" s="13">
-        <f>AVERAGE(O130,O125,O120,O115,O110)</f>
-        <v>1236.4000000000001</v>
-      </c>
-      <c r="P137" s="13">
-        <f>AVERAGE(P130,P125,P120,P115,P110)</f>
-        <v>352.6</v>
-      </c>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
-      <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="13">
-        <f>AVERAGE(B131,B126,B121,B116,B111)</f>
-        <v>255.4</v>
-      </c>
-      <c r="C138" s="13">
-        <f>AVERAGE(C131,C126,C121,C116,C111)</f>
-        <v>728</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
+      <c r="N137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P137" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R137" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T137" s="1">
+        <v>1.2074</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V137" s="1">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X137" s="1">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-      <c r="O138" s="13">
-        <f>AVERAGE(O131,O126,O121,O116,O111)</f>
-        <v>209.6</v>
-      </c>
-      <c r="P138" s="13">
-        <f>AVERAGE(P131,P126,P121,P116,P111)</f>
-        <v>714.4</v>
-      </c>
-      <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="3"/>
-      <c r="T138" s="3"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>64</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+    </row>
+    <row r="139" spans="1:24">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1224</v>
+      </c>
+      <c r="C139" s="1">
+        <v>362</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
-      <c r="N139" s="2">
-        <v>64</v>
-      </c>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="F140" t="s">
-        <v>4</v>
-      </c>
-      <c r="G140">
-        <v>1.2677</v>
-      </c>
-      <c r="H140" t="s">
-        <v>5</v>
-      </c>
-      <c r="I140">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="J140" t="s">
-        <v>6</v>
-      </c>
-      <c r="K140">
-        <v>92.83</v>
-      </c>
+      <c r="N139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O139" s="1">
+        <v>1182</v>
+      </c>
+      <c r="P139" s="1">
+        <v>327</v>
+      </c>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+    </row>
+    <row r="140" spans="1:24">
+      <c r="A140" s="4"/>
+      <c r="B140" s="1">
+        <v>222</v>
+      </c>
+      <c r="C140" s="1">
+        <v>705</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="8">
+        <f>(B139+C140)/(B139+C139+B140+C140)</f>
+        <v>0.76760843613211305</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
-      <c r="N140" t="s">
-        <v>1</v>
-      </c>
-      <c r="O140" t="s">
-        <v>2</v>
-      </c>
-      <c r="P140">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>3</v>
-      </c>
-      <c r="R140">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="S140" t="s">
-        <v>4</v>
-      </c>
-      <c r="T140">
-        <v>1.4547000000000001</v>
-      </c>
-      <c r="U140" t="s">
-        <v>5</v>
-      </c>
-      <c r="V140">
-        <v>0.749</v>
-      </c>
-      <c r="W140" t="s">
-        <v>6</v>
-      </c>
-      <c r="X140">
-        <v>100.86</v>
-      </c>
-      <c r="Y140" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N140" s="4"/>
+      <c r="O140" s="1">
+        <v>264</v>
+      </c>
+      <c r="P140" s="1">
+        <v>740</v>
+      </c>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="8">
+        <f>(O139+P140)/(O139+P139+O140+P140)</f>
+        <v>0.76482292081177872</v>
+      </c>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6118,60 +5864,83 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
-      <c r="Y141" s="3"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" s="1">
-        <v>1195</v>
-      </c>
-      <c r="C142" s="1">
-        <v>318</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="6">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>1.7728999999999999</v>
+      </c>
+      <c r="H142" t="s">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="J142" t="s">
+        <v>6</v>
+      </c>
+      <c r="K142">
+        <v>42.72</v>
+      </c>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
-      <c r="N142" t="s">
-        <v>7</v>
-      </c>
-      <c r="O142" s="1">
-        <v>1129</v>
+      <c r="N142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P142" s="1">
-        <v>295</v>
-      </c>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="3"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.95E-2</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R142" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T142" s="1">
+        <v>1.7415</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V142" s="1">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X142" s="1">
+        <v>43.39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="4"/>
-      <c r="B143" s="1">
-        <v>251</v>
-      </c>
-      <c r="C143" s="1">
-        <v>749</v>
-      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="7">
-        <f>(B142+C143)/(B142+C142+B143+C143)</f>
-        <v>0.77357739753282928</v>
-      </c>
+      <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -6181,29 +5950,27 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="4"/>
-      <c r="O143" s="1">
-        <v>317</v>
-      </c>
-      <c r="P143" s="1">
-        <v>772</v>
-      </c>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
-      <c r="R143" s="7">
-        <f>(O142+P143)/(O142+P142+O143+P143)</f>
-        <v>0.75646637485077595</v>
-      </c>
+      <c r="R143" s="4"/>
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
-      <c r="Y143" s="3"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+    </row>
+    <row r="144" spans="1:24">
+      <c r="A144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C144" s="1">
+        <v>302</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6214,9 +5981,15 @@
       <c r="K144" s="4"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
+      <c r="N144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O144" s="1">
+        <v>1137</v>
+      </c>
+      <c r="P144" s="1">
+        <v>304</v>
+      </c>
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
@@ -6225,82 +5998,48 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
-      <c r="Y144" s="3"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D145" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="F145" t="s">
-        <v>4</v>
-      </c>
-      <c r="G145">
-        <v>1.8691</v>
-      </c>
-      <c r="H145" t="s">
-        <v>5</v>
-      </c>
-      <c r="I145">
-        <v>0.75980000000000003</v>
-      </c>
-      <c r="J145" t="s">
-        <v>6</v>
-      </c>
-      <c r="K145">
-        <v>100.44</v>
-      </c>
+    </row>
+    <row r="145" spans="1:24" ht="20">
+      <c r="A145" s="4"/>
+      <c r="B145" s="7">
+        <v>266</v>
+      </c>
+      <c r="C145" s="1">
+        <v>765</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="8">
+        <f>(B144+C145)/(B144+C144+B145+C145)</f>
+        <v>0.77397532829287707</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
-      <c r="N145" t="s">
-        <v>8</v>
-      </c>
-      <c r="O145" t="s">
-        <v>2</v>
-      </c>
-      <c r="P145" s="6">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>3</v>
-      </c>
-      <c r="R145">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="S145" t="s">
-        <v>4</v>
-      </c>
-      <c r="T145">
-        <v>1.6742999999999999</v>
-      </c>
-      <c r="U145" t="s">
-        <v>5</v>
-      </c>
-      <c r="V145">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="W145" t="s">
-        <v>6</v>
-      </c>
-      <c r="X145">
-        <v>103.41</v>
-      </c>
-      <c r="Y145" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N145" s="4"/>
+      <c r="O145" s="1">
+        <v>309</v>
+      </c>
+      <c r="P145" s="1">
+        <v>763</v>
+      </c>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="8">
+        <f>(O144+P145)/(O144+P144+O145+P145)</f>
+        <v>0.75606844409072826</v>
+      </c>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6325,60 +6064,83 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
-      <c r="Y146" s="3"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="1">
-        <v>1157</v>
-      </c>
-      <c r="C147" s="1">
-        <v>306</v>
-      </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
+    </row>
+    <row r="147" spans="1:24">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="6">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147">
+        <v>1.7770999999999999</v>
+      </c>
+      <c r="H147" t="s">
+        <v>5</v>
+      </c>
+      <c r="I147">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="J147" t="s">
+        <v>6</v>
+      </c>
+      <c r="K147">
+        <v>36.78</v>
+      </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O147" s="1">
-        <v>1219</v>
+        <v>9</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P147" s="1">
-        <v>347</v>
-      </c>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="3"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R147" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T147" s="1">
+        <v>1.8113999999999999</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V147" s="1">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X147" s="1">
+        <v>38.229999999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="4"/>
-      <c r="B148" s="1">
-        <v>289</v>
-      </c>
-      <c r="C148" s="1">
-        <v>761</v>
-      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="7">
-        <f>(B147+C148)/(B147+C147+B148+C148)</f>
-        <v>0.76323119777158777</v>
-      </c>
+      <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -6388,29 +6150,27 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="4"/>
-      <c r="O148" s="1">
-        <v>227</v>
-      </c>
-      <c r="P148" s="1">
-        <v>720</v>
-      </c>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
-      <c r="R148" s="7">
-        <f>(O147+P148)/(O147+P147+O148+P148)</f>
-        <v>0.77158774373259054</v>
-      </c>
+      <c r="R148" s="4"/>
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
-      <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+    </row>
+    <row r="149" spans="1:24">
+      <c r="A149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C149" s="1">
+        <v>341</v>
+      </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6421,9 +6181,15 @@
       <c r="K149" s="4"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
+      <c r="N149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O149" s="1">
+        <v>1158</v>
+      </c>
+      <c r="P149" s="1">
+        <v>300</v>
+      </c>
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
@@ -6432,82 +6198,48 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
-      <c r="Y149" s="3"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="6">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="F150" t="s">
-        <v>4</v>
-      </c>
-      <c r="G150">
-        <v>1.573</v>
-      </c>
-      <c r="H150" t="s">
-        <v>5</v>
-      </c>
-      <c r="I150">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="J150" t="s">
-        <v>6</v>
-      </c>
-      <c r="K150">
-        <v>95.04</v>
-      </c>
+    </row>
+    <row r="150" spans="1:24">
+      <c r="A150" s="4"/>
+      <c r="B150" s="1">
+        <v>234</v>
+      </c>
+      <c r="C150" s="1">
+        <v>726</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="8">
+        <f>(B149+C150)/(B149+C149+B150+C150)</f>
+        <v>0.77118981297254274</v>
+      </c>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
-      <c r="N150" t="s">
-        <v>9</v>
-      </c>
-      <c r="O150" t="s">
-        <v>2</v>
-      </c>
-      <c r="P150" s="6">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S150" t="s">
-        <v>4</v>
-      </c>
-      <c r="T150">
-        <v>1.5908</v>
-      </c>
-      <c r="U150" t="s">
-        <v>5</v>
-      </c>
-      <c r="V150">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="W150" t="s">
-        <v>6</v>
-      </c>
-      <c r="X150">
-        <v>109.6</v>
-      </c>
-      <c r="Y150" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N150" s="4"/>
+      <c r="O150" s="1">
+        <v>288</v>
+      </c>
+      <c r="P150" s="1">
+        <v>767</v>
+      </c>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="8">
+        <f>(O149+P150)/(O149+P149+O150+P150)</f>
+        <v>0.76601671309192199</v>
+      </c>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6532,60 +6264,83 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
-      <c r="Y151" s="3"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" s="1">
-        <v>1214</v>
-      </c>
-      <c r="C152" s="1">
-        <v>345</v>
-      </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
+    </row>
+    <row r="152" spans="1:24">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="6">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152">
+        <v>1.5764</v>
+      </c>
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="J152" t="s">
+        <v>6</v>
+      </c>
+      <c r="K152">
+        <v>39.99</v>
+      </c>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O152" s="1">
-        <v>1150</v>
+        <v>10</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P152" s="1">
-        <v>296</v>
-      </c>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
-      <c r="Y152" s="3"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R152" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T152" s="1">
+        <v>1.6449</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V152" s="1">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X152" s="1">
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="4"/>
-      <c r="B153" s="1">
-        <v>232</v>
-      </c>
-      <c r="C153" s="1">
-        <v>722</v>
-      </c>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="7">
-        <f>(B152+C153)/(B152+C152+B153+C153)</f>
-        <v>0.77039395145244727</v>
-      </c>
+      <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -6595,29 +6350,27 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="4"/>
-      <c r="O153" s="1">
-        <v>296</v>
-      </c>
-      <c r="P153" s="1">
-        <v>771</v>
-      </c>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
-      <c r="R153" s="7">
-        <f>(O152+P153)/(O152+P152+O153+P153)</f>
-        <v>0.76442499005173103</v>
-      </c>
+      <c r="R153" s="4"/>
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
-      <c r="Y153" s="3"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+    </row>
+    <row r="154" spans="1:24">
+      <c r="A154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1084</v>
+      </c>
+      <c r="C154" s="1">
+        <v>263</v>
+      </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -6628,9 +6381,15 @@
       <c r="K154" s="4"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
+      <c r="N154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O154" s="1">
+        <v>1187</v>
+      </c>
+      <c r="P154" s="1">
+        <v>323</v>
+      </c>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
@@ -6639,80 +6398,48 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
-      <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="6">
-        <v>1.89E-2</v>
-      </c>
-      <c r="D155" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="F155" t="s">
-        <v>4</v>
-      </c>
-      <c r="G155">
-        <v>2.0432999999999999</v>
-      </c>
-      <c r="H155" t="s">
-        <v>5</v>
-      </c>
-      <c r="I155">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="J155" t="s">
-        <v>6</v>
-      </c>
-      <c r="K155">
-        <v>95.83</v>
-      </c>
+    </row>
+    <row r="155" spans="1:24">
+      <c r="A155" s="4"/>
+      <c r="B155" s="1">
+        <v>362</v>
+      </c>
+      <c r="C155" s="1">
+        <v>804</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="8">
+        <f>(B154+C155)/(B154+C154+B155+C155)</f>
+        <v>0.75129327497015519</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
-      <c r="N155" t="s">
-        <v>10</v>
-      </c>
-      <c r="O155" t="s">
-        <v>2</v>
-      </c>
-      <c r="P155" s="6">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>3</v>
-      </c>
-      <c r="R155">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="S155" t="s">
-        <v>4</v>
-      </c>
-      <c r="T155">
-        <v>1.4826999999999999</v>
-      </c>
-      <c r="U155" t="s">
-        <v>5</v>
-      </c>
-      <c r="V155">
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="W155" t="s">
-        <v>6</v>
-      </c>
-      <c r="X155">
-        <v>104.51</v>
-      </c>
-      <c r="Y155" s="3"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N155" s="4"/>
+      <c r="O155" s="1">
+        <v>259</v>
+      </c>
+      <c r="P155" s="1">
+        <v>744</v>
+      </c>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="8">
+        <f>(O154+P155)/(O154+P154+O155+P155)</f>
+        <v>0.76840429765220852</v>
+      </c>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -6737,60 +6464,83 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
-      <c r="Y156" s="3"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="1">
-        <v>1180</v>
-      </c>
-      <c r="C157" s="1">
-        <v>318</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
+    </row>
+    <row r="157" spans="1:24">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="6">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157">
+        <v>1.7019</v>
+      </c>
+      <c r="H157" t="s">
+        <v>5</v>
+      </c>
+      <c r="I157">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="J157" t="s">
+        <v>6</v>
+      </c>
+      <c r="K157">
+        <v>33.549999999999997</v>
+      </c>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O157" s="1">
-        <v>1209</v>
+        <v>11</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P157" s="1">
-        <v>336</v>
-      </c>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
-      <c r="S157" s="4"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
-      <c r="Y157" s="3"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R157" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T157" s="1">
+        <v>1.5162</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V157" s="1">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X157" s="1">
+        <v>34.130000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="4"/>
-      <c r="B158" s="1">
-        <v>266</v>
-      </c>
-      <c r="C158" s="1">
-        <v>749</v>
-      </c>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="7">
-        <f>(B157+C158)/(B157+C157+B158+C158)</f>
-        <v>0.76760843613211305</v>
-      </c>
+      <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -6800,29 +6550,27 @@
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
       <c r="N158" s="4"/>
-      <c r="O158" s="1">
-        <v>237</v>
-      </c>
-      <c r="P158" s="1">
-        <v>731</v>
-      </c>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
-      <c r="R158" s="7">
-        <f>(O157+P158)/(O157+P157+O158+P158)</f>
-        <v>0.77198567449263833</v>
-      </c>
+      <c r="R158" s="4"/>
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
-      <c r="Y158" s="3"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+    </row>
+    <row r="159" spans="1:24">
+      <c r="A159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1135</v>
+      </c>
+      <c r="C159" s="1">
+        <v>281</v>
+      </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -6833,9 +6581,15 @@
       <c r="K159" s="4"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
+      <c r="N159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O159" s="1">
+        <v>1207</v>
+      </c>
+      <c r="P159" s="1">
+        <v>323</v>
+      </c>
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
@@ -6844,80 +6598,48 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
-      <c r="Y159" s="3"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="6">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="D160" t="s">
-        <v>3</v>
-      </c>
-      <c r="E160">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-      <c r="G160">
-        <v>1.1415999999999999</v>
-      </c>
-      <c r="H160" t="s">
-        <v>5</v>
-      </c>
-      <c r="I160">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="J160" t="s">
-        <v>6</v>
-      </c>
-      <c r="K160">
-        <v>98.99</v>
-      </c>
+    </row>
+    <row r="160" spans="1:24">
+      <c r="A160" s="4"/>
+      <c r="B160" s="1">
+        <v>311</v>
+      </c>
+      <c r="C160" s="1">
+        <v>786</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="8">
+        <f>(B159+C160)/(B159+C159+B160+C160)</f>
+        <v>0.76442499005173103</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
-      <c r="N160" t="s">
-        <v>11</v>
-      </c>
-      <c r="O160" t="s">
-        <v>2</v>
-      </c>
-      <c r="P160" s="6">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>3</v>
-      </c>
-      <c r="R160">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="S160" t="s">
-        <v>4</v>
-      </c>
-      <c r="T160">
-        <v>1.5033000000000001</v>
-      </c>
-      <c r="U160" t="s">
-        <v>5</v>
-      </c>
-      <c r="V160">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="W160" t="s">
-        <v>6</v>
-      </c>
-      <c r="X160">
-        <v>100.22</v>
-      </c>
-      <c r="Y160" s="3"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N160" s="4"/>
+      <c r="O160" s="1">
+        <v>239</v>
+      </c>
+      <c r="P160" s="1">
+        <v>744</v>
+      </c>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="8">
+        <f>(O159+P160)/(O159+P159+O160+P160)</f>
+        <v>0.7763629128531635</v>
+      </c>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6942,177 +6664,146 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
-      <c r="Y161" s="3"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="1">
-        <v>1295</v>
-      </c>
-      <c r="C162" s="1">
-        <v>411</v>
-      </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
+    </row>
+    <row r="162" spans="1:24">
+      <c r="A162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3">
+        <f>AVERAGE(C137,C142,C147,C152,C157)</f>
+        <v>2.358E-2</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3">
+        <f>AVERAGE(E137,E142,E147,E152,E157)</f>
+        <v>0.98709999999999987</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3">
+        <f>AVERAGE(G137,G142,G147,G152,G157)</f>
+        <v>1.5578599999999998</v>
+      </c>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3">
+        <f>AVERAGE(I137,I142,I147,I152,I157)</f>
+        <v>0.75450000000000006</v>
+      </c>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3">
+        <f>AVERAGE(K137,K142,K147,K152,K157)</f>
+        <v>35.875999999999998</v>
+      </c>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
-      <c r="N162" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O162" s="1">
-        <v>1203</v>
-      </c>
-      <c r="P162" s="1">
-        <v>344</v>
-      </c>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4"/>
-      <c r="X162" s="4"/>
-      <c r="Y162" s="3"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
-      <c r="B163" s="1">
-        <v>151</v>
-      </c>
-      <c r="C163" s="1">
-        <v>656</v>
-      </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="7">
-        <f>(B162+C163)/(B162+C162+B163+C163)</f>
-        <v>0.7763629128531635</v>
-      </c>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
+      <c r="N162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3">
+        <f>AVERAGE(P137,P142,P147,P152,P157)</f>
+        <v>1.9939999999999999E-2</v>
+      </c>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3">
+        <f>AVERAGE(R137,R142,R147,R152,R157)</f>
+        <v>0.98840000000000006</v>
+      </c>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3">
+        <f>AVERAGE(T137,T142,T147,T152,T157)</f>
+        <v>1.5842800000000001</v>
+      </c>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3">
+        <f>AVERAGE(V137,V142,V147,V152,V157)</f>
+        <v>0.76645999999999992</v>
+      </c>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3">
+        <f>AVERAGE(X137,X142,X147,X152,X157)</f>
+        <v>36.503999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="1">
-        <v>243</v>
-      </c>
-      <c r="P163" s="1">
-        <v>723</v>
-      </c>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="7">
-        <f>(O162+P163)/(O162+P162+O163+P163)</f>
-        <v>0.76641464385196978</v>
-      </c>
-      <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
-      <c r="Y163" s="3"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+    </row>
+    <row r="164" spans="1:24">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
-      <c r="Y164" s="3"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+    </row>
+    <row r="165" spans="1:24">
+      <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="3">
-        <f>AVERAGE(C140,C145,C150,C155,C160)</f>
-        <v>2.4479999999999998E-2</v>
-      </c>
+      <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="3">
-        <f>AVERAGE(E140,E145,E150,E155,E160)</f>
-        <v>0.98672000000000004</v>
-      </c>
+      <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="3">
-        <f>AVERAGE(G140,G145,G150,G155,G160)</f>
-        <v>1.57894</v>
-      </c>
+      <c r="G165" s="3"/>
       <c r="H165" s="3"/>
-      <c r="I165" s="3">
-        <f>AVERAGE(I140,I145,I150,I155,I160)</f>
-        <v>0.76449999999999996</v>
-      </c>
+      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="3">
-        <f>AVERAGE(K140,K145,K150,K155,K160)</f>
-        <v>96.626000000000005</v>
-      </c>
+      <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
-      <c r="N165" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="N165" s="3"/>
       <c r="O165" s="3"/>
-      <c r="P165" s="3">
-        <f>AVERAGE(P140,P145,P150,P155,P160)</f>
-        <v>2.1939999999999998E-2</v>
-      </c>
+      <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="3">
-        <f>AVERAGE(R140,R145,R150,R155,R160)</f>
-        <v>0.98754000000000008</v>
-      </c>
+      <c r="R165" s="3"/>
       <c r="S165" s="3"/>
-      <c r="T165" s="3">
-        <f>AVERAGE(T140,T145,T150,T155,T160)</f>
-        <v>1.5411600000000001</v>
-      </c>
+      <c r="T165" s="3"/>
       <c r="U165" s="3"/>
-      <c r="V165" s="3">
-        <f>AVERAGE(V140,V145,V150,V155,V160)</f>
-        <v>0.76195999999999997</v>
-      </c>
+      <c r="V165" s="3"/>
       <c r="W165" s="3"/>
-      <c r="X165" s="3">
-        <f>AVERAGE(X140,X145,X150,X155,X160)</f>
-        <v>103.72</v>
-      </c>
-      <c r="Y165" s="3"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X165" s="3"/>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7137,9 +6828,8 @@
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7164,19 +6854,15 @@
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
+    </row>
+    <row r="168" spans="1:24">
+      <c r="A168" s="2">
+        <v>128</v>
+      </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="3">
-        <f>AVERAGE(E143,E148,E153,E158,E163)</f>
-        <v>0.77023477914842819</v>
-      </c>
+      <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -7185,275 +6871,294 @@
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
+      <c r="N168" s="2">
+        <v>128</v>
+      </c>
       <c r="O168" s="3"/>
-      <c r="P168" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="3">
-        <f>AVERAGE(R143,R148,R153,R158,R163)</f>
-        <v>0.76617588539594117</v>
-      </c>
+      <c r="R168" s="3"/>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" s="13">
-        <f>AVERAGE(B162,B157,B152,B147,B142)</f>
-        <v>1208.2</v>
-      </c>
-      <c r="C169" s="13">
-        <f>AVERAGE(C162,C157,C152,C147,C142)</f>
-        <v>339.6</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+    </row>
+    <row r="169" spans="1:24">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>1.6798999999999999</v>
+      </c>
+      <c r="H169" t="s">
+        <v>5</v>
+      </c>
+      <c r="I169">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="J169" t="s">
+        <v>6</v>
+      </c>
+      <c r="K169">
+        <v>38.79</v>
+      </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
-      <c r="N169" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O169" s="13">
-        <f>AVERAGE(O162,O157,O152,O147,O142)</f>
-        <v>1182</v>
-      </c>
-      <c r="P169" s="13">
-        <f>AVERAGE(P162,P157,P152,P147,P142)</f>
-        <v>323.60000000000002</v>
-      </c>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="13">
-        <f>AVERAGE(B163,B158,B153,B148,B143)</f>
-        <v>237.8</v>
-      </c>
-      <c r="C170" s="13">
-        <f>AVERAGE(C163,C158,C153,C148,C143)</f>
-        <v>727.4</v>
-      </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
+      <c r="N169" t="s">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>2</v>
+      </c>
+      <c r="P169">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="S169" t="s">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="U169" t="s">
+        <v>5</v>
+      </c>
+      <c r="V169">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="W169" t="s">
+        <v>6</v>
+      </c>
+      <c r="X169">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="13">
-        <f>AVERAGE(O163,O158,O153,O148,O143)</f>
-        <v>264</v>
-      </c>
-      <c r="P170" s="13">
-        <f>AVERAGE(P163,P158,P153,P148,P143)</f>
-        <v>743.4</v>
-      </c>
-      <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+    </row>
+    <row r="171" spans="1:24">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C171" s="1">
+        <v>336</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
-      <c r="N171" s="3"/>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-      <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-      <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>128</v>
-      </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="N171" t="s">
+        <v>7</v>
+      </c>
+      <c r="O171" s="1">
+        <v>1092</v>
+      </c>
+      <c r="P171" s="1">
+        <v>265</v>
+      </c>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+    </row>
+    <row r="172" spans="1:24">
+      <c r="A172" s="4"/>
+      <c r="B172" s="1">
+        <v>246</v>
+      </c>
+      <c r="C172" s="1">
+        <v>731</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="8">
+        <f>(B171+C172)/(B171+C171+B172+C172)</f>
+        <v>0.76840429765220852</v>
+      </c>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
-      <c r="N172" s="2">
-        <v>128</v>
-      </c>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
-      <c r="Q172" s="3"/>
-      <c r="R172" s="3"/>
-      <c r="S172" s="3"/>
-      <c r="T172" s="3"/>
-      <c r="U172" s="3"/>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" t="s">
-        <v>2</v>
-      </c>
-      <c r="C173">
-        <v>2.53E-2</v>
-      </c>
-      <c r="D173" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="F173" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173">
-        <v>1.2347999999999999</v>
-      </c>
-      <c r="H173" t="s">
-        <v>5</v>
-      </c>
-      <c r="I173">
-        <v>0.77349999999999997</v>
-      </c>
-      <c r="J173" t="s">
-        <v>6</v>
-      </c>
-      <c r="K173">
-        <v>146.05000000000001</v>
-      </c>
+      <c r="N172" s="4"/>
+      <c r="O172" s="1">
+        <v>354</v>
+      </c>
+      <c r="P172" s="1">
+        <v>802</v>
+      </c>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="8">
+        <f>(O171+P172)/(O171+P171+O172+P172)</f>
+        <v>0.75368085953044173</v>
+      </c>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+    </row>
+    <row r="173" spans="1:24">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
-      <c r="N173" t="s">
-        <v>1</v>
-      </c>
-      <c r="O173" t="s">
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+    </row>
+    <row r="174" spans="1:24">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
         <v>2</v>
       </c>
-      <c r="P173" s="6">
-        <v>2.01E-2</v>
-      </c>
-      <c r="Q173" t="s">
+      <c r="C174" s="6">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D174" t="s">
         <v>3</v>
       </c>
-      <c r="R173">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="S173" t="s">
+      <c r="E174">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F174" t="s">
         <v>4</v>
       </c>
-      <c r="T173">
-        <v>1.5889</v>
-      </c>
-      <c r="U173" t="s">
+      <c r="G174">
+        <v>1.4873000000000001</v>
+      </c>
+      <c r="H174" t="s">
         <v>5</v>
       </c>
-      <c r="V173">
-        <v>0.76959999999999995</v>
-      </c>
-      <c r="W173" t="s">
+      <c r="I174">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="J174" t="s">
         <v>6</v>
       </c>
-      <c r="X173">
-        <v>99.29</v>
-      </c>
-      <c r="Y173" s="3">
-        <f>X173+Y193</f>
-        <v>134.75</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="K174">
+        <v>51.06</v>
+      </c>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
-      <c r="S174" s="4"/>
-      <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
-      <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
-      <c r="Y174" s="3"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" s="1">
-        <v>1212</v>
-      </c>
-      <c r="C175" s="1">
-        <v>352</v>
-      </c>
+      <c r="N174" t="s">
+        <v>8</v>
+      </c>
+      <c r="O174" t="s">
+        <v>2</v>
+      </c>
+      <c r="P174" s="6">
+        <v>1.89E-2</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="S174" t="s">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.7793000000000001</v>
+      </c>
+      <c r="U174" t="s">
+        <v>5</v>
+      </c>
+      <c r="V174">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="W174" t="s">
+        <v>6</v>
+      </c>
+      <c r="X174">
+        <v>46.91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -7464,15 +7169,9 @@
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
-      <c r="N175" t="s">
-        <v>7</v>
-      </c>
-      <c r="O175" s="1">
-        <v>1175</v>
-      </c>
-      <c r="P175" s="1">
-        <v>315</v>
-      </c>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
@@ -7481,21 +7180,19 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
-      <c r="Y175" s="3"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
+    </row>
+    <row r="176" spans="1:24">
+      <c r="A176" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B176" s="1">
-        <v>234</v>
+        <v>1194</v>
       </c>
       <c r="C176" s="1">
-        <v>715</v>
+        <v>326</v>
       </c>
       <c r="D176" s="4"/>
-      <c r="E176" s="7">
-        <f>(B175+C176)/(B175+C175+B176+C176)</f>
-        <v>0.76681257461201746</v>
-      </c>
+      <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -7504,32 +7201,37 @@
       <c r="K176" s="4"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
-      <c r="N176" s="4"/>
+      <c r="N176" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O176" s="1">
-        <v>271</v>
+        <v>1190</v>
       </c>
       <c r="P176" s="1">
-        <v>752</v>
+        <v>315</v>
       </c>
       <c r="Q176" s="4"/>
-      <c r="R176" s="7">
-        <f>(O175+P176)/(O175+P175+O176+P176)</f>
-        <v>0.76681257461201746</v>
-      </c>
+      <c r="R176" s="4"/>
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
-      <c r="Y176" s="3"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="1">
+        <v>252</v>
+      </c>
+      <c r="C177" s="1">
+        <v>741</v>
+      </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+      <c r="E177" s="8">
+        <f>(B176+C177)/(B176+C176+B177+C177)</f>
+        <v>0.76999602069239947</v>
+      </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -7539,129 +7241,124 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
-      <c r="P177" s="4"/>
+      <c r="O177" s="1">
+        <v>256</v>
+      </c>
+      <c r="P177" s="1">
+        <v>752</v>
+      </c>
       <c r="Q177" s="4"/>
-      <c r="R177" s="4"/>
+      <c r="R177" s="8">
+        <f>(O176+P177)/(O176+P176+O177+P177)</f>
+        <v>0.77278153601273381</v>
+      </c>
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
-      <c r="Y177" s="3"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" t="s">
-        <v>2</v>
-      </c>
-      <c r="C178" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D178" t="s">
-        <v>3</v>
-      </c>
-      <c r="E178">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="F178" t="s">
-        <v>4</v>
-      </c>
-      <c r="G178">
-        <v>1.6664000000000001</v>
-      </c>
-      <c r="H178" t="s">
-        <v>5</v>
-      </c>
-      <c r="I178">
-        <v>0.75</v>
-      </c>
-      <c r="J178" t="s">
-        <v>6</v>
-      </c>
-      <c r="K178">
-        <v>148.54</v>
-      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
-      <c r="N178" t="s">
-        <v>8</v>
-      </c>
-      <c r="O178" t="s">
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+    </row>
+    <row r="179" spans="1:24">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
         <v>2</v>
       </c>
-      <c r="P178">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="Q178" t="s">
+      <c r="C179" s="6">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="D179" t="s">
         <v>3</v>
       </c>
-      <c r="R178">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="S178" t="s">
+      <c r="E179">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F179" t="s">
         <v>4</v>
       </c>
-      <c r="T178">
-        <v>1.7468999999999999</v>
-      </c>
-      <c r="U178" t="s">
+      <c r="G179">
+        <v>1.3564000000000001</v>
+      </c>
+      <c r="H179" t="s">
         <v>5</v>
       </c>
-      <c r="V178">
-        <v>0.751</v>
-      </c>
-      <c r="W178" t="s">
+      <c r="I179">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="J179" t="s">
         <v>6</v>
       </c>
-      <c r="X178">
-        <v>101.43</v>
-      </c>
-      <c r="Y178" s="3">
-        <f>X178+Y193</f>
-        <v>136.89000000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
+      <c r="K179">
+        <v>48.78</v>
+      </c>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
-      <c r="Q179" s="4"/>
-      <c r="R179" s="4"/>
-      <c r="S179" s="4"/>
-      <c r="T179" s="4"/>
-      <c r="U179" s="4"/>
-      <c r="V179" s="4"/>
-      <c r="W179" s="4"/>
-      <c r="X179" s="4"/>
-      <c r="Y179" s="3"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="1">
-        <v>1125</v>
-      </c>
-      <c r="C180" s="1">
-        <v>291</v>
-      </c>
+      <c r="N179" t="s">
+        <v>9</v>
+      </c>
+      <c r="O179" t="s">
+        <v>2</v>
+      </c>
+      <c r="P179" s="6">
+        <v>2.29E-2</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S179" t="s">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>1.2047000000000001</v>
+      </c>
+      <c r="U179" t="s">
+        <v>5</v>
+      </c>
+      <c r="V179">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="W179" t="s">
+        <v>6</v>
+      </c>
+      <c r="X179">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -7672,15 +7369,9 @@
       <c r="K180" s="4"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
-      <c r="N180" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O180" s="1">
-        <v>1173</v>
-      </c>
-      <c r="P180" s="1">
-        <v>317</v>
-      </c>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
@@ -7689,21 +7380,19 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
-      <c r="Y180" s="3"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B181" s="1">
-        <v>321</v>
+        <v>1142</v>
       </c>
       <c r="C181" s="1">
-        <v>776</v>
+        <v>309</v>
       </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="7">
-        <f>(B180+C181)/(B180+C180+B181+C181)</f>
-        <v>0.75646637485077595</v>
-      </c>
+      <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -7712,32 +7401,37 @@
       <c r="K181" s="4"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
-      <c r="N181" s="4"/>
+      <c r="N181" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O181" s="1">
-        <v>273</v>
+        <v>1195</v>
       </c>
       <c r="P181" s="1">
-        <v>750</v>
+        <v>312</v>
       </c>
       <c r="Q181" s="4"/>
-      <c r="R181" s="7">
-        <f>(O180+P181)/(O180+P180+O181+P181)</f>
-        <v>0.76522085157182651</v>
-      </c>
+      <c r="R181" s="4"/>
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
-      <c r="Y181" s="3"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="B182" s="1">
+        <v>304</v>
+      </c>
+      <c r="C182" s="1">
+        <v>758</v>
+      </c>
       <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
+      <c r="E182" s="8">
+        <f>(B181+C182)/(B181+C181+B182+C182)</f>
+        <v>0.75606844409072826</v>
+      </c>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
@@ -7747,129 +7441,124 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-      <c r="P182" s="4"/>
+      <c r="O182" s="1">
+        <v>251</v>
+      </c>
+      <c r="P182" s="1">
+        <v>755</v>
+      </c>
       <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
+      <c r="R182" s="8">
+        <f>(O181+P182)/(O181+P181+O182+P182)</f>
+        <v>0.77596498209311582</v>
+      </c>
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
-      <c r="Y182" s="3"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2</v>
-      </c>
-      <c r="C183" s="6">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="D183" t="s">
-        <v>3</v>
-      </c>
-      <c r="E183">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="F183" t="s">
-        <v>4</v>
-      </c>
-      <c r="G183">
-        <v>1.925</v>
-      </c>
-      <c r="H183" t="s">
-        <v>5</v>
-      </c>
-      <c r="I183">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="J183" t="s">
-        <v>6</v>
-      </c>
-      <c r="K183">
-        <v>151.33000000000001</v>
-      </c>
+    </row>
+    <row r="183" spans="1:24">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
-      <c r="N183" t="s">
-        <v>9</v>
-      </c>
-      <c r="O183" t="s">
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+    </row>
+    <row r="184" spans="1:24">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
         <v>2</v>
       </c>
-      <c r="P183" s="6">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="Q183" t="s">
+      <c r="C184" s="6">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="D184" t="s">
         <v>3</v>
       </c>
-      <c r="R183">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S183" t="s">
+      <c r="E184">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F184" t="s">
         <v>4</v>
       </c>
-      <c r="T183">
-        <v>1.3085</v>
-      </c>
-      <c r="U183" t="s">
+      <c r="G184">
+        <v>1.538</v>
+      </c>
+      <c r="H184" t="s">
         <v>5</v>
       </c>
-      <c r="V183">
-        <v>0.751</v>
-      </c>
-      <c r="W183" t="s">
+      <c r="I184">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="J184" t="s">
         <v>6</v>
       </c>
-      <c r="X183">
-        <v>84.19</v>
-      </c>
-      <c r="Y183" s="3">
-        <f>X183+Y193</f>
-        <v>119.65</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
+      <c r="K184">
+        <v>43.07</v>
+      </c>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="4"/>
-      <c r="O184" s="4"/>
-      <c r="P184" s="4"/>
-      <c r="Q184" s="4"/>
-      <c r="R184" s="4"/>
-      <c r="S184" s="4"/>
-      <c r="T184" s="4"/>
-      <c r="U184" s="4"/>
-      <c r="V184" s="4"/>
-      <c r="W184" s="4"/>
-      <c r="X184" s="4"/>
-      <c r="Y184" s="3"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="1">
-        <v>1212</v>
-      </c>
-      <c r="C185" s="1">
-        <v>347</v>
-      </c>
+      <c r="N184" t="s">
+        <v>10</v>
+      </c>
+      <c r="O184" t="s">
+        <v>2</v>
+      </c>
+      <c r="P184" s="6">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>3</v>
+      </c>
+      <c r="R184">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S184" t="s">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.6247</v>
+      </c>
+      <c r="U184" t="s">
+        <v>5</v>
+      </c>
+      <c r="V184">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="W184" t="s">
+        <v>6</v>
+      </c>
+      <c r="X184">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -7880,15 +7569,9 @@
       <c r="K185" s="4"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
-      <c r="N185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O185" s="1">
-        <v>1109</v>
-      </c>
-      <c r="P185" s="1">
-        <v>273</v>
-      </c>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
@@ -7897,21 +7580,19 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
-      <c r="Y185" s="3"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
+    </row>
+    <row r="186" spans="1:24">
+      <c r="A186" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B186" s="1">
-        <v>234</v>
+        <v>1213</v>
       </c>
       <c r="C186" s="1">
-        <v>720</v>
+        <v>335</v>
       </c>
       <c r="D186" s="4"/>
-      <c r="E186" s="7">
-        <f>(B185+C186)/(B185+C185+B186+C186)</f>
-        <v>0.76880222841225632</v>
-      </c>
+      <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -7920,32 +7601,37 @@
       <c r="K186" s="4"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
-      <c r="N186" s="4"/>
+      <c r="N186" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O186" s="1">
-        <v>337</v>
+        <v>1191</v>
       </c>
       <c r="P186" s="1">
-        <v>794</v>
+        <v>308</v>
       </c>
       <c r="Q186" s="4"/>
-      <c r="R186" s="7">
-        <f>(O185+P186)/(O185+P185+O186+P186)</f>
-        <v>0.75726223637087142</v>
-      </c>
+      <c r="R186" s="4"/>
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
-      <c r="Y186" s="3"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="B187" s="1">
+        <v>233</v>
+      </c>
+      <c r="C187" s="1">
+        <v>732</v>
+      </c>
       <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
+      <c r="E187" s="8">
+        <f>(B186+C187)/(B186+C186+B187+C187)</f>
+        <v>0.77397532829287707</v>
+      </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -7955,126 +7641,124 @@
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-      <c r="P187" s="4"/>
+      <c r="O187" s="1">
+        <v>255</v>
+      </c>
+      <c r="P187" s="1">
+        <v>759</v>
+      </c>
       <c r="Q187" s="4"/>
-      <c r="R187" s="4"/>
+      <c r="R187" s="8">
+        <f>(O186+P187)/(O186+P186+O187+P187)</f>
+        <v>0.77596498209311582</v>
+      </c>
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
-      <c r="Y187" s="3"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>10</v>
-      </c>
-      <c r="B188" t="s">
-        <v>2</v>
-      </c>
-      <c r="C188" s="6">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="D188" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="F188" t="s">
-        <v>4</v>
-      </c>
-      <c r="G188">
-        <v>0.97360000000000002</v>
-      </c>
-      <c r="H188" t="s">
-        <v>5</v>
-      </c>
-      <c r="I188">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="J188" t="s">
-        <v>6</v>
-      </c>
-      <c r="K188">
-        <v>139.66</v>
-      </c>
+    </row>
+    <row r="188" spans="1:24">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
-      <c r="N188" t="s">
-        <v>10</v>
-      </c>
-      <c r="O188" t="s">
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+    </row>
+    <row r="189" spans="1:24">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
         <v>2</v>
       </c>
-      <c r="P188" s="6">
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="Q188" t="s">
+      <c r="C189" s="6">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="D189" t="s">
         <v>3</v>
       </c>
-      <c r="R188">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="S188" t="s">
+      <c r="E189">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="F189" t="s">
         <v>4</v>
       </c>
-      <c r="T188">
-        <v>1.2571000000000001</v>
-      </c>
-      <c r="U188" t="s">
+      <c r="G189">
+        <v>1.1869000000000001</v>
+      </c>
+      <c r="H189" t="s">
         <v>5</v>
       </c>
-      <c r="V188">
-        <v>0.75</v>
-      </c>
-      <c r="W188" t="s">
+      <c r="I189">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="J189" t="s">
         <v>6</v>
       </c>
-      <c r="X188">
-        <v>118.63</v>
-      </c>
-      <c r="Y188" s="3"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
+      <c r="K189">
+        <v>42.76</v>
+      </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
-      <c r="R189" s="4"/>
-      <c r="S189" s="4"/>
-      <c r="T189" s="4"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
-      <c r="W189" s="4"/>
-      <c r="X189" s="4"/>
-      <c r="Y189" s="3"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="1">
-        <v>1249</v>
-      </c>
-      <c r="C190" s="1">
-        <v>354</v>
-      </c>
+      <c r="N189" t="s">
+        <v>11</v>
+      </c>
+      <c r="O189" t="s">
+        <v>2</v>
+      </c>
+      <c r="P189" s="6">
+        <v>2.07E-2</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="S189" t="s">
+        <v>4</v>
+      </c>
+      <c r="T189">
+        <v>1.6922999999999999</v>
+      </c>
+      <c r="U189" t="s">
+        <v>5</v>
+      </c>
+      <c r="V189">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="W189" t="s">
+        <v>6</v>
+      </c>
+      <c r="X189">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -8085,15 +7769,9 @@
       <c r="K190" s="4"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
-      <c r="N190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O190" s="1">
-        <v>1134</v>
-      </c>
-      <c r="P190" s="1">
-        <v>302</v>
-      </c>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
@@ -8102,21 +7780,19 @@
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
-      <c r="Y190" s="3"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
+    </row>
+    <row r="191" spans="1:24">
+      <c r="A191" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B191" s="1">
-        <v>197</v>
+        <v>1141</v>
       </c>
       <c r="C191" s="1">
-        <v>713</v>
+        <v>293</v>
       </c>
       <c r="D191" s="4"/>
-      <c r="E191" s="7">
-        <f>(B190+C191)/(B190+C190+B191+C191)</f>
-        <v>0.78074015121368878</v>
-      </c>
+      <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -8125,30 +7801,32 @@
       <c r="K191" s="4"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
-      <c r="N191" s="4"/>
+      <c r="N191" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O191" s="1">
-        <v>312</v>
+        <v>1198</v>
       </c>
       <c r="P191" s="1">
-        <v>765</v>
+        <v>319</v>
       </c>
       <c r="Q191" s="4"/>
-      <c r="R191" s="7">
-        <f>(O190+P191)/(O190+P190+O191+P191)</f>
-        <v>0.75567051333068047</v>
-      </c>
+      <c r="R191" s="4"/>
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
-      <c r="Y191" s="3"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="B192" s="1">
+        <v>305</v>
+      </c>
+      <c r="C192" s="1">
+        <v>774</v>
+      </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -8160,356 +7838,221 @@
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
       <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
+      <c r="O192" s="1">
+        <v>248</v>
+      </c>
+      <c r="P192" s="1">
+        <v>748</v>
+      </c>
       <c r="Q192" s="4"/>
-      <c r="R192" s="4"/>
+      <c r="R192" s="8">
+        <f>(O191+P192)/(O191+P191+O192+P192)</f>
+        <v>0.77437325905292476</v>
+      </c>
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
-      <c r="Y192" s="3"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" t="s">
-        <v>2</v>
-      </c>
-      <c r="C193" s="6">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="D193" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="F193" t="s">
-        <v>4</v>
-      </c>
-      <c r="G193">
-        <v>1.1899</v>
-      </c>
-      <c r="H193" t="s">
-        <v>5</v>
-      </c>
-      <c r="I193">
-        <v>0.78139999999999998</v>
-      </c>
-      <c r="J193" t="s">
-        <v>6</v>
-      </c>
-      <c r="K193">
-        <v>151.69999999999999</v>
-      </c>
+    </row>
+    <row r="193" spans="1:24">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
-      <c r="N193" t="s">
-        <v>11</v>
-      </c>
-      <c r="O193" t="s">
-        <v>2</v>
-      </c>
-      <c r="P193" s="6">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>3</v>
-      </c>
-      <c r="R193">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="S193" t="s">
-        <v>4</v>
-      </c>
-      <c r="T193">
-        <v>1.7912999999999999</v>
-      </c>
-      <c r="U193" t="s">
-        <v>5</v>
-      </c>
-      <c r="V193">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="W193" t="s">
-        <v>6</v>
-      </c>
-      <c r="X193">
-        <v>137.27000000000001</v>
-      </c>
-      <c r="Y193" s="3">
-        <f>(K188+K193)-(X188+X193)</f>
-        <v>35.460000000000008</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+    </row>
+    <row r="194" spans="1:24">
+      <c r="A194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3">
+        <f>AVERAGE(C169,C174,C179,C184,C189)</f>
+        <v>2.7880000000000005E-2</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3">
+        <f>AVERAGE(E169,E174,E179,E184,E189)</f>
+        <v>0.98583999999999994</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3">
+        <f>AVERAGE(G169,G174,G179,G184,G189)</f>
+        <v>1.4497</v>
+      </c>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3">
+        <f>AVERAGE(I169,I174,I179,I184,I189)</f>
+        <v>0.75863999999999998</v>
+      </c>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3">
+        <f>AVERAGE(K169,K174,K179,K184,K189)</f>
+        <v>44.891999999999996</v>
+      </c>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="4"/>
-      <c r="P194" s="4"/>
-      <c r="Q194" s="4"/>
-      <c r="R194" s="4"/>
-      <c r="S194" s="4"/>
-      <c r="T194" s="4"/>
-      <c r="U194" s="4"/>
-      <c r="V194" s="4"/>
-      <c r="W194" s="4"/>
-      <c r="X194" s="4"/>
-      <c r="Y194" s="3"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" s="1">
-        <v>1159</v>
-      </c>
-      <c r="C195" s="1">
-        <v>310</v>
-      </c>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
+      <c r="N194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3">
+        <f>AVERAGE(P169,P174,P179,P184,P189)</f>
+        <v>2.1539999999999997E-2</v>
+      </c>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3">
+        <f>AVERAGE(R169,R174,R179,R184,R189)</f>
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3">
+        <f>AVERAGE(T169,T174,T179,T184,T189)</f>
+        <v>1.4452400000000001</v>
+      </c>
+      <c r="U194" s="3"/>
+      <c r="V194" s="3">
+        <f>AVERAGE(V169,V174,V179,V184,V189)</f>
+        <v>0.76430000000000009</v>
+      </c>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3">
+        <f>AVERAGE(X169,X174,X179,X184,X189)</f>
+        <v>42.415999999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
-      <c r="N195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O195" s="1">
-        <v>1224</v>
-      </c>
-      <c r="P195" s="1">
-        <v>359</v>
-      </c>
-      <c r="Q195" s="4"/>
-      <c r="R195" s="4"/>
-      <c r="S195" s="4"/>
-      <c r="T195" s="4"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="4"/>
-      <c r="W195" s="4"/>
-      <c r="X195" s="4"/>
-      <c r="Y195" s="3"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="1">
-        <v>287</v>
-      </c>
-      <c r="C196" s="1">
-        <v>757</v>
-      </c>
-      <c r="D196" s="4"/>
-      <c r="E196" s="7">
-        <f>(B195+C196)/(B195+C195+B196+C196)</f>
-        <v>0.76243533625149229</v>
-      </c>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+    </row>
+    <row r="196" spans="1:24">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="1">
-        <v>222</v>
-      </c>
-      <c r="P196" s="1">
-        <v>708</v>
-      </c>
-      <c r="Q196" s="4"/>
-      <c r="R196" s="7">
-        <f>(O195+P196)/(O195+P195+O196+P196)</f>
-        <v>0.76880222841225632</v>
-      </c>
-      <c r="S196" s="4"/>
-      <c r="T196" s="4"/>
-      <c r="U196" s="4"/>
-      <c r="V196" s="4"/>
-      <c r="W196" s="4"/>
-      <c r="X196" s="4"/>
-      <c r="Y196" s="3"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+    </row>
+    <row r="197" spans="1:24">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
-      <c r="R197" s="4"/>
-      <c r="S197" s="4"/>
-      <c r="T197" s="4"/>
-      <c r="U197" s="4"/>
-      <c r="V197" s="4"/>
-      <c r="W197" s="4"/>
-      <c r="X197" s="4"/>
-      <c r="Y197" s="3"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+    </row>
+    <row r="198" spans="1:24">
+      <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="3">
-        <f>AVERAGE(C173,C178,C183,C188,C193)</f>
-        <v>2.912E-2</v>
-      </c>
+      <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="3">
-        <f>AVERAGE(E173,E178,E183,E188,E193)</f>
-        <v>0.98642000000000007</v>
-      </c>
+      <c r="E198" s="3"/>
       <c r="F198" s="3"/>
-      <c r="G198" s="3">
-        <f>AVERAGE(G173,G178,G183,G188,G193)</f>
-        <v>1.39794</v>
-      </c>
+      <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="3">
-        <f>AVERAGE(I173,I178,I183,I188,I193)</f>
-        <v>0.76961999999999997</v>
-      </c>
+      <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="3">
-        <f>AVERAGE(K173,K178,K183,K188,K193)</f>
-        <v>147.45599999999999</v>
-      </c>
+      <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
-      <c r="N198" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="N198" s="3"/>
       <c r="O198" s="3"/>
-      <c r="P198" s="3">
-        <f>AVERAGE(P173,P178,P183,P188,P193)</f>
-        <v>2.1360000000000001E-2</v>
-      </c>
+      <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
-      <c r="R198" s="3">
-        <f>AVERAGE(R173,R178,R183,R188,R193)</f>
-        <v>0.98704000000000003</v>
-      </c>
+      <c r="R198" s="3"/>
       <c r="S198" s="3"/>
-      <c r="T198" s="3">
-        <f>AVERAGE(T173,T178,T183,T188,T193)</f>
-        <v>1.5385399999999998</v>
-      </c>
+      <c r="T198" s="3"/>
       <c r="U198" s="3"/>
-      <c r="V198" s="3">
-        <f>AVERAGE(V173,V178,V183,V188,V193)</f>
-        <v>0.75803999999999994</v>
-      </c>
+      <c r="V198" s="3"/>
       <c r="W198" s="3"/>
-      <c r="X198" s="3">
-        <f>AVERAGE(X173,X178,X183,X188,X193)</f>
-        <v>108.16200000000001</v>
-      </c>
-      <c r="Y198" s="3"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C201" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3">
-        <f>AVERAGE(E176,E181,E186,E191,E196)</f>
-        <v>0.76705133306804618</v>
-      </c>
-      <c r="P201" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3">
-        <f>AVERAGE(R176,R181,R186,R191,R196)</f>
-        <v>0.76275368085953033</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="13">
-        <f>AVERAGE(B195,B190,B185,B180,B175)</f>
-        <v>1191.4000000000001</v>
-      </c>
-      <c r="C202" s="13">
-        <f>AVERAGE(C195,C190,C185,C180,C175)</f>
-        <v>330.8</v>
-      </c>
-      <c r="N202" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O202" s="13">
-        <f>AVERAGE(O195,O190,O185,O180,O175)</f>
-        <v>1163</v>
-      </c>
-      <c r="P202" s="13">
-        <f>AVERAGE(P195,P190,P185,P180,P175)</f>
-        <v>313.2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="B203" s="13">
-        <f>AVERAGE(B196,B191,B186,B181,B176)</f>
-        <v>254.6</v>
-      </c>
-      <c r="C203" s="13">
-        <f>AVERAGE(C196,C191,C186,C181,C176)</f>
-        <v>736.2</v>
-      </c>
-      <c r="N203" s="3"/>
-      <c r="O203" s="13">
-        <f>AVERAGE(O196,O191,O186,O181,O176)</f>
-        <v>283</v>
-      </c>
-      <c r="P203" s="13">
-        <f>AVERAGE(P196,P191,P186,P181,P176)</f>
-        <v>753.8</v>
-      </c>
+      <c r="X198" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="N105:Y105"/>
-    <mergeCell ref="B102:V104"/>
+    <mergeCell ref="A101:Y103"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="N104:Y104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
